--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Spring" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>서버 부분</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +56,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.append(String.format("%d", a);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,105 +66,6 @@
   <si>
     <t>@="text/html; charset=UTF-8"</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
   </si>
   <si>
     <t>url 창 [ …/home?@]</t>
@@ -271,6 +164,38 @@
     <t>&lt;% for(int i=1; i&lt;=9; i++){%&gt;
    &lt;div&gt;&lt;%=dan%&gt;*&lt;%i %&gt;=&lt;%= dan*i%&gt;&lt;/div&gt;
 &lt;% }%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응 행동을 하는 참조변수 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청 행동을 하는 참조변수 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값을 브라우저에 출력한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.setAttribute(@)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.getAttribute(@);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>값을JSP에서 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%page import= @ %&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>import 할 값을 쓴다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,7 +251,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,12 +259,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -628,15 +547,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="B1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
@@ -646,8 +565,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
+    <row r="1" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
@@ -658,15 +576,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -677,257 +592,114 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+      <c r="G16" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="A14:A40 A3:A10" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I2"/>
+  <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,22 +707,38 @@
     <col min="2" max="2" width="25.5" customWidth="1"/>
     <col min="3" max="3" width="31.125" customWidth="1"/>
     <col min="4" max="4" width="43.125" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>68</v>
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -971,10 +759,10 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\집\Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\개발자\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="Spring" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
-  <si>
-    <t>서버 부분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,14 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>class 상단</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>.append(String.format("%d", a);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -69,14 +57,6 @@
   </si>
   <si>
     <t>url 창 [ …/home?@]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpServletRequest rq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HttpServletResponse rs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -129,18 +109,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>.forward(@)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>@="jsp/homeprintDan.jsp"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당 경로에 있는 파일 실행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>jsp 파일을 실행시켜서 html 파일을 더 쉽게 이용하기 위해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,10 +126,6 @@
   </si>
   <si>
     <t>&lt;% int dan =5; %&gt;  /html  &lt;%=dan %&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>값을 넘겨주는 행위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -196,6 +164,54 @@
   </si>
   <si>
     <t>import 할 값을 쓴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpServletRequest req</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HttpServletResponse reps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 경로에 있는 파일 요청 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.forward(@)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@="HttpServletResponse/request 변수"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url 요청값이 포함되어 토스된다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@="a",22   /   변수,값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.getAttribute(@)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@="a"   /   변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형변환이 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request에 변수와 값을 지정한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>request에 저장된 값을 변수값을 통해 추출</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -229,12 +245,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -251,7 +279,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -266,6 +294,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,144 +584,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="31.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="52" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="52" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16" s="7"/>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -698,47 +756,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" customWidth="1"/>
+    <col min="4" max="4" width="43.09765625" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
     <col min="9" max="9" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="4" t="s">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -755,14 +813,14 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\개발자\spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\집\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Spring" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -212,6 +212,18 @@
   </si>
   <si>
     <t>request에 저장된 값을 변수값을 통해 추출</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>href ~~ target "_black"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새 탭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@="&lt;script&gt;alert('삭제');&lt;/script&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -584,24 +596,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -609,7 +621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -628,7 +640,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>34</v>
@@ -637,7 +649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -649,7 +661,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -664,7 +676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>37</v>
@@ -676,7 +688,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -688,7 +700,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -697,7 +709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
@@ -712,36 +724,46 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -757,19 +779,19 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="43.09765625" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" customWidth="1"/>
+    <col min="3" max="3" width="31.125" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>22</v>
       </c>
@@ -783,7 +805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>30</v>
       </c>
@@ -791,7 +813,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -807,20 +829,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C2"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\집\spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\개발자\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Spring" sheetId="1" r:id="rId1"/>
     <sheet name="JSP" sheetId="3" r:id="rId2"/>
     <sheet name="TIP" sheetId="2" r:id="rId3"/>
+    <sheet name="T.O.E." sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +99,6 @@
   <si>
     <t>format 내부는setContext 값의 영향을 받는다 
 html 형식이면 &lt;div style="red"&gt;를 주면 변함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spring에선 이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -224,6 +221,150 @@
   </si>
   <si>
     <t>@="&lt;script&gt;alert('삭제');&lt;/script&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…/@"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상대경로라는 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">첫번째로 자바에서 중요한 정보를 만들어 내는것이다. DB같은 다른 커넥팅이 필요한 곳에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>논리를 이용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">하여 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>값을 정제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>한다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp로 보내는 이유는 html과 mix up 하기 위하여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">두번째는 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>setAttribute(키,값)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">을 통해 req에 유의미한 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>정보를 jsp로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 보내는 것이다</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세번째는 jsp와 서블릿의 적절한 커넥팅 &amp; html 조화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front-end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째로 가로에 중복된 컨텐츠의 가짓수를 생각. 위에서부터 층층히 내려옴. 배치를 먼저 하자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번째는 배치가 끝나고 무브먼트, n차 메뉴 구성 등 부가적인 컨텐츠 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치가 끝나고 다듬기만 하면 왠만한건 완성되는듯?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,6 +456,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,24 +749,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.3984375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -621,7 +776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,27 +784,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -661,61 +819,61 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>8</v>
@@ -724,23 +882,23 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>5</v>
@@ -752,19 +910,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>43</v>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -779,46 +942,46 @@
   <dimension ref="B2:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" customWidth="1"/>
+    <col min="4" max="4" width="43.09765625" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
     <col min="9" max="9" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="E4" t="s">
         <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -829,32 +992,200 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B9:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
         <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="8"/>
+    <col min="2" max="2" width="11.59765625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" customWidth="1"/>
+    <col min="5" max="5" width="35.69921875" customWidth="1"/>
+    <col min="6" max="6" width="15.8984375" customWidth="1"/>
+    <col min="7" max="7" width="35.69921875" customWidth="1"/>
+    <col min="8" max="9" width="19.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\개발자\spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\집\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="Spring" sheetId="1" r:id="rId1"/>
     <sheet name="JSP" sheetId="3" r:id="rId2"/>
     <sheet name="TIP" sheetId="2" r:id="rId3"/>
     <sheet name="T.O.E." sheetId="5" r:id="rId4"/>
+    <sheet name="etc" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,10 +222,6 @@
   </si>
   <si>
     <t>@="&lt;script&gt;alert('삭제');&lt;/script&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -367,12 +364,69 @@
     <t>배치가 끝나고 다듬기만 하면 왠만한건 완성되는듯?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>대충 url에 &amp;으로 묶고 값 가져오는것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Query String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">form 태그 : </t>
+  </si>
+  <si>
+    <t>Spring GET:</t>
+  </si>
+  <si>
+    <t>Spring POST:</t>
+  </si>
+  <si>
+    <t>입력된 데이터를 한번에 서버로 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서 : 폼page&gt;내용입력&gt;데이터를 web으로&gt;데이터 처리후 브라우저 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식 &lt;form action= "http://</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dowrite&gt;write.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.setCharcterEncoding(@)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글 인코딩시 깨짐을 방지한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +444,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -432,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,6 +530,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,26 +814,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
@@ -776,7 +841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -792,13 +857,13 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="1" t="s">
         <v>33</v>
@@ -807,7 +872,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="1" t="s">
         <v>9</v>
@@ -819,7 +884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -834,7 +899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="1" t="s">
         <v>36</v>
@@ -846,7 +911,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -858,76 +923,87 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A12" s="6"/>
-      <c r="B12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
-      <c r="B14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6"/>
       <c r="B15" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+        <v>34</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" s="7"/>
-      <c r="B17" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -939,22 +1015,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I4"/>
+  <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" customWidth="1"/>
-    <col min="4" max="4" width="43.09765625" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -968,7 +1044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>29</v>
       </c>
@@ -976,12 +1052,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>31</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -998,9 +1085,9 @@
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +1095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>45</v>
       </c>
@@ -1026,159 +1113,159 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="8"/>
-    <col min="2" max="2" width="11.59765625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" customWidth="1"/>
-    <col min="5" max="5" width="35.69921875" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" customWidth="1"/>
-    <col min="7" max="7" width="35.69921875" customWidth="1"/>
-    <col min="8" max="9" width="19.69921875" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="8"/>
+    <col min="2" max="2" width="11.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="35.75" customWidth="1"/>
+    <col min="5" max="5" width="35.75" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="35.75" customWidth="1"/>
+    <col min="8" max="9" width="19.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="4" customFormat="1" ht="67.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="4" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>4</v>
       </c>
       <c r="B5" s="10"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
       <c r="B6" s="10"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
       <c r="B8" s="10"/>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10"/>
     </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>9</v>
       </c>
       <c r="B10" s="10"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10"/>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
       <c r="B14" s="10"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>15</v>
       </c>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10"/>
     </row>
-    <row r="18" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>17</v>
       </c>
       <c r="B18" s="10"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -1188,4 +1275,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="64.625" customWidth="1"/>
+    <col min="4" max="4" width="49.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="7" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="10" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -17,14 +17,15 @@
     <sheet name="CSS" sheetId="10" r:id="rId3"/>
     <sheet name="JS" sheetId="8" r:id="rId4"/>
     <sheet name="JS ex)" sheetId="11" r:id="rId5"/>
-    <sheet name="Spring" sheetId="1" r:id="rId6"/>
+    <sheet name="jsp-servlet" sheetId="1" r:id="rId6"/>
     <sheet name="Spr St" sheetId="7" r:id="rId7"/>
     <sheet name="JSP" sheetId="3" r:id="rId8"/>
     <sheet name="TIp-front" sheetId="13" r:id="rId9"/>
     <sheet name="TIP-Spring" sheetId="2" r:id="rId10"/>
     <sheet name="T.O.E." sheetId="5" r:id="rId11"/>
     <sheet name="etc" sheetId="14" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="15" r:id="rId13"/>
+    <sheet name="String" sheetId="16" r:id="rId13"/>
+    <sheet name="spring ec" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CSS!$A$1:$G$31</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1414" uniqueCount="756">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2633,6 +2634,309 @@
   </si>
   <si>
     <t>request/response ㅂ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>primary work location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>easy graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home Main Servlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>important point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass logined information to session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">First Client access </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client main page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>main.jsp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>show main page</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replace with topbar menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client click linkpage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테일윈드??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반응형 웹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피그마 - figma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 협업 웹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유튜브 피그마 연정이꺼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘 뭐먹지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빨간색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">점심시간 % 저녁시간 되면 알림 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이달의 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>top 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입을 한다면?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 할인권</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광고 제거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심값 누가 낼지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 상권 가격 &amp; 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보 입력시 포인트 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db 저장할 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>식당 &amp; 메뉴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xml.jar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lombok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">topbar에 지속적으로 업데이트 할 내용 정리 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">maven </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestMapping("/usr/home")
+@ResponseBody</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/usr/home url로 들어가면 ResponseBody 실행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매개 변수 값은 "method"+"?"+"변수=value"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/main/setcount?a=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Getter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 외부에 있는 클래스 private 값 쓸때 private 값 위에 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Getter private String title;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* lombok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클래스에 있는 값들을 다 쓸수 있도록 클래스 위에 씀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@AllArgsConstructor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성자 모든 인자 따로 설정하지 않아도 쓸 수 있게 만듬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>location</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??무여?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">클래스에 컨트롤러를 붙이면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consider defining a bean of type 'int' in your configuration.</t>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 컨트롤러를 실행하면 생성자 실행?? 무여?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3009,7 +3313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3175,18 +3479,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3210,6 +3502,27 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -18558,8 +18871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20505,9 +20818,11 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C7"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -20515,7 +20830,7 @@
     <col min="2" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>620</v>
       </c>
@@ -20526,7 +20841,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>617</v>
       </c>
@@ -20537,7 +20852,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>62</v>
       </c>
@@ -20548,7 +20863,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="B6">
         <v>2</v>
       </c>
@@ -20556,12 +20871,121 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>703</v>
+      </c>
+      <c r="B9" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>705</v>
+      </c>
+      <c r="B10" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B11" t="s">
+        <v>708</v>
+      </c>
+      <c r="D11" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>729</v>
+      </c>
+      <c r="B12" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>710</v>
+      </c>
+      <c r="B19" t="s">
+        <v>712</v>
+      </c>
+      <c r="F19" t="s">
+        <v>713</v>
+      </c>
+      <c r="H19" t="s">
+        <v>715</v>
+      </c>
+      <c r="J19" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>711</v>
+      </c>
+      <c r="F20" t="s">
+        <v>714</v>
+      </c>
+      <c r="H20" t="s">
+        <v>715</v>
+      </c>
+      <c r="J20" t="s">
+        <v>723</v>
+      </c>
+      <c r="L20" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" t="s">
+        <v>720</v>
+      </c>
+      <c r="D22" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>716</v>
+      </c>
+      <c r="B25" t="s">
+        <v>717</v>
+      </c>
+      <c r="C25" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>725</v>
+      </c>
+      <c r="B27" t="s">
+        <v>726</v>
+      </c>
+      <c r="C27" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="B29" t="s">
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -20572,12 +20996,2315 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="44" style="24" customWidth="1"/>
+    <col min="4" max="4" width="49.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="56.75" style="24" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
+      <c r="A1" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>734</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="33">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>748</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>731</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="25">
+        <v>2</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>733</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="25">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>736</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>738</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="25">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>740</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="25">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>742</v>
+      </c>
+      <c r="D6" s="69" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="25">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>750</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="25">
+        <v>7</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="25">
+        <v>24</v>
+      </c>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="25">
+        <v>31</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="25">
+        <v>32</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="25">
+        <v>33</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="25">
+        <v>34</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="25">
+        <v>35</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="25">
+        <v>36</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="25">
+        <v>37</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="25">
+        <v>38</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="25">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="25">
+        <v>48</v>
+      </c>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="25">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="25">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="25">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="25">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C272"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="63" customFormat="1">
+      <c r="B1" s="63" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>752</v>
+      </c>
+      <c r="C2" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="11">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="11">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="11">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="11">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="11">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" s="11">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" s="11">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="11">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="11">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="11">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1">
+      <c r="A260" s="11">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1">
+      <c r="A261" s="11">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" s="11">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1">
+      <c r="A263" s="11">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" s="11">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1">
+      <c r="A265" s="11">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" s="11">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="11">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" s="11">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" s="11">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1">
+      <c r="A270" s="11">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" s="11">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="11">
+        <v>271</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21062,8 +23789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -23665,7 +26392,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="64" t="s">
         <v>379</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -23673,13 +26400,13 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="55"/>
+      <c r="A3" s="64"/>
       <c r="B3" s="1" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="55"/>
+      <c r="A4" s="64"/>
       <c r="C4" s="1" t="s">
         <v>376</v>
       </c>
@@ -23688,19 +26415,19 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="55"/>
+      <c r="A5" s="64"/>
       <c r="C5" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="55"/>
+      <c r="A6" s="64"/>
       <c r="B6" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="55"/>
+      <c r="A7" s="64"/>
       <c r="B7" s="1" t="s">
         <v>372</v>
       </c>
@@ -23709,7 +26436,7 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="55"/>
+      <c r="A8" s="64"/>
       <c r="C8" s="1" t="s">
         <v>370</v>
       </c>
@@ -23727,7 +26454,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="55"/>
+      <c r="A9" s="64"/>
       <c r="B9" s="1" t="s">
         <v>366</v>
       </c>
@@ -23745,7 +26472,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="55"/>
+      <c r="A10" s="64"/>
       <c r="B10" s="1" t="s">
         <v>362</v>
       </c>
@@ -23757,7 +26484,7 @@
     </row>
     <row r="13" spans="1:19" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:19" s="39" customFormat="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="65" t="s">
         <v>360</v>
       </c>
       <c r="B14" s="49" t="s">
@@ -23782,7 +26509,7 @@
       <c r="S14" s="49"/>
     </row>
     <row r="15" spans="1:19" s="36" customFormat="1">
-      <c r="A15" s="57"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="50" t="s">
         <v>358</v>
       </c>
@@ -23805,7 +26532,7 @@
       <c r="S15" s="50"/>
     </row>
     <row r="16" spans="1:19" s="36" customFormat="1">
-      <c r="A16" s="57"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="50" t="s">
         <v>357</v>
       </c>
@@ -23828,7 +26555,7 @@
       <c r="S16" s="50"/>
     </row>
     <row r="17" spans="1:19" s="37" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A17" s="58"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="51"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -23849,7 +26576,7 @@
       <c r="S17" s="51"/>
     </row>
     <row r="18" spans="1:19" s="39" customFormat="1">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="65" t="s">
         <v>356</v>
       </c>
       <c r="B18" s="49"/>
@@ -23880,7 +26607,7 @@
       <c r="S18" s="49"/>
     </row>
     <row r="19" spans="1:19" s="36" customFormat="1">
-      <c r="A19" s="57"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="50" t="s">
         <v>353</v>
       </c>
@@ -23911,7 +26638,7 @@
       <c r="S19" s="50"/>
     </row>
     <row r="20" spans="1:19" s="36" customFormat="1">
-      <c r="A20" s="57"/>
+      <c r="A20" s="66"/>
       <c r="B20" s="50"/>
       <c r="C20" s="50" t="s">
         <v>348</v>
@@ -23940,7 +26667,7 @@
       <c r="S20" s="50"/>
     </row>
     <row r="21" spans="1:19" s="37" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A21" s="58"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="51"/>
       <c r="C21" s="51" t="s">
         <v>344</v>
@@ -23997,8 +26724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -24235,10 +26962,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B7:N26"/>
+  <dimension ref="B2:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
@@ -24256,168 +26983,260 @@
     <col min="11" max="11" width="6.625" style="19" customWidth="1"/>
     <col min="12" max="12" width="15.625" style="19"/>
     <col min="13" max="13" width="6.625" style="19" customWidth="1"/>
-    <col min="14" max="16384" width="15.625" style="19"/>
+    <col min="14" max="15" width="15.625" style="19"/>
+    <col min="16" max="16" width="7.375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="33.375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="25.625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="43.625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="27" style="19" customWidth="1"/>
+    <col min="21" max="16384" width="15.625" style="19"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:14" ht="17.25" thickBot="1"/>
-    <row r="8" spans="2:14" ht="17.25" thickBot="1">
-      <c r="F8" s="59" t="s">
+    <row r="2" spans="2:20">
+      <c r="Q2" s="24" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="Q3" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="P4" s="19" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>696</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="P5" s="19" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>697</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>698</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="P6" s="19" t="s">
+        <v>680</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="17.25" thickBot="1">
+      <c r="P7" s="19" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="17.25" thickBot="1">
+      <c r="F8" s="55" t="s">
         <v>668</v>
       </c>
-      <c r="H8" s="59" t="s">
+      <c r="H8" s="55" t="s">
         <v>669</v>
       </c>
-      <c r="J8" s="59" t="s">
+      <c r="J8" s="55" t="s">
         <v>671</v>
       </c>
-      <c r="L8" s="59"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="F9" s="64" t="s">
+      <c r="L8" s="55"/>
+      <c r="P8" s="19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="F9" s="60" t="s">
         <v>676</v>
       </c>
-      <c r="H9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="L9" s="64"/>
-    </row>
-    <row r="10" spans="2:14" ht="17.25" thickBot="1">
-      <c r="F10" s="64"/>
-      <c r="G10" s="61" t="s">
+      <c r="H9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="P9" s="19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="17.25" thickBot="1">
+      <c r="F10" s="60"/>
+      <c r="G10" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="61" t="s">
+      <c r="H10" s="60"/>
+      <c r="I10" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="J10" s="64"/>
-      <c r="K10" s="61" t="s">
+      <c r="J10" s="60"/>
+      <c r="K10" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="L10" s="64"/>
-    </row>
-    <row r="11" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B11" s="59" t="s">
+      <c r="L10" s="60"/>
+      <c r="P10" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B11" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="55" t="s">
         <v>674</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="L11" s="64"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="60"/>
-      <c r="D12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="N12" s="62" t="s">
+      <c r="F11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="P11" s="19" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="56"/>
+      <c r="D12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="N12" s="58" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B13" s="60"/>
-      <c r="D13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="H13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="N13" s="64"/>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="60"/>
-      <c r="D14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="N14" s="64"/>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="60"/>
-      <c r="C15" s="61" t="s">
+      <c r="P12" s="19" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B13" s="56"/>
+      <c r="D13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="N13" s="60"/>
+      <c r="P13" s="19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="56"/>
+      <c r="D14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="P14" s="19" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="61" t="s">
+      <c r="D15" s="60"/>
+      <c r="E15" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="N15" s="64"/>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="64"/>
-      <c r="N16" s="64"/>
+      <c r="F15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="P15" s="19" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="60"/>
+      <c r="N16" s="60"/>
     </row>
     <row r="17" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B17" s="60"/>
-      <c r="D17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="N17" s="64"/>
+      <c r="B17" s="56"/>
+      <c r="D17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="N17" s="60"/>
     </row>
     <row r="18" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B18" s="60"/>
-      <c r="D18" s="64"/>
-      <c r="F18" s="64"/>
-      <c r="H18" s="59" t="s">
+      <c r="B18" s="56"/>
+      <c r="D18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="H18" s="55" t="s">
         <v>670</v>
       </c>
-      <c r="J18" s="59" t="s">
+      <c r="J18" s="55" t="s">
         <v>672</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="N18" s="64"/>
+      <c r="L18" s="55"/>
+      <c r="N18" s="60"/>
     </row>
     <row r="19" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B19" s="60"/>
-      <c r="D19" s="64"/>
-      <c r="F19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="J19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="N19" s="65"/>
+      <c r="B19" s="56"/>
+      <c r="D19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="N19" s="61"/>
     </row>
     <row r="20" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B20" s="63"/>
-      <c r="D20" s="65"/>
-      <c r="F20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="J20" s="64"/>
-      <c r="L20" s="64"/>
+      <c r="B20" s="59"/>
+      <c r="D20" s="61"/>
+      <c r="F20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="L20" s="60"/>
     </row>
     <row r="21" spans="2:14">
-      <c r="F21" s="64"/>
-      <c r="G21" s="61" t="s">
+      <c r="F21" s="60"/>
+      <c r="G21" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="H21" s="64"/>
-      <c r="I21" s="61" t="s">
+      <c r="H21" s="60"/>
+      <c r="I21" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="J21" s="64"/>
-      <c r="K21" s="61" t="s">
+      <c r="J21" s="60"/>
+      <c r="K21" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="L21" s="64"/>
+      <c r="L21" s="60"/>
     </row>
     <row r="22" spans="2:14">
-      <c r="F22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="L22" s="64"/>
+      <c r="F22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="L22" s="60"/>
     </row>
     <row r="23" spans="2:14" ht="17.25" thickBot="1">
-      <c r="F23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="L23" s="65"/>
+      <c r="F23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="L23" s="61"/>
     </row>
     <row r="26" spans="2:14">
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="62" t="s">
         <v>667</v>
       </c>
       <c r="H26" s="19" t="s">
@@ -24427,6 +27246,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="796">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3079,6 +3079,34 @@
   <si>
     <t>두번째는 배치가 끝나고 무브먼트, n차 
 메뉴 구성 등 부가적인 컨텐츠 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;link rel="stylesheet href=""&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">링크를 삽입한다. 특히 tailwind같은 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid-column-start:@;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid column set value  @</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원이 탈퇴를 했을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 회원이 작성한 글들을 어떻게 할 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크도 확인하여 스프링 문제를 체크해야한다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3654,6 +3682,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3665,9 +3696,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -19016,7 +19044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -19179,8 +19207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -19345,7 +19373,7 @@
       <c r="E10" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="66" t="s">
         <v>756</v>
       </c>
       <c r="G10" s="63" t="s">
@@ -21981,7 +22009,7 @@
   <dimension ref="A1:C272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23372,174 +23400,187 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L29"/>
+  <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
         <v>617</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>616</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
         <v>614</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>613</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
         <v>59</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="B6">
+    <row r="6" spans="2:5">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="B7">
+    <row r="7" spans="2:5">
+      <c r="C7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
         <v>700</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
         <v>702</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
         <v>704</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>705</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>706</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
         <v>726</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" t="s">
+    <row r="19" spans="2:13">
+      <c r="B19" t="s">
         <v>707</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>709</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>710</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>712</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
+    <row r="20" spans="2:13">
+      <c r="B20" t="s">
         <v>708</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>711</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>712</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>720</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="B21" t="s">
+    <row r="21" spans="2:13">
+      <c r="C21" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="B22" t="s">
+    <row r="22" spans="2:13">
+      <c r="C22" t="s">
         <v>717</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>718</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" t="s">
+    <row r="25" spans="2:13">
+      <c r="B25" t="s">
         <v>713</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>714</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" t="s">
+    <row r="27" spans="2:13">
+      <c r="B27" t="s">
         <v>722</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>723</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>724</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="B29" t="s">
+    <row r="29" spans="2:13">
+      <c r="C29" t="s">
         <v>725</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
+      <c r="B31" t="s">
+        <v>793</v>
+      </c>
+      <c r="C31" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>795</v>
       </c>
     </row>
   </sheetData>
@@ -23552,8 +23593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -23927,6 +23968,12 @@
       <c r="A28" s="20">
         <v>27</v>
       </c>
+      <c r="B28" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>790</v>
+      </c>
     </row>
     <row r="29" spans="1:11">
       <c r="A29" s="20">
@@ -24027,8 +24074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -24837,6 +24884,12 @@
     <row r="50" spans="1:7">
       <c r="A50" s="25">
         <v>49</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -26630,7 +26683,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="67" t="s">
         <v>376</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -26638,13 +26691,13 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="66"/>
+      <c r="A3" s="67"/>
       <c r="B3" s="1" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="66"/>
+      <c r="A4" s="67"/>
       <c r="C4" s="1" t="s">
         <v>373</v>
       </c>
@@ -26653,19 +26706,19 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="66"/>
+      <c r="A5" s="67"/>
       <c r="C5" s="1" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="66"/>
+      <c r="A6" s="67"/>
       <c r="B6" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="66"/>
+      <c r="A7" s="67"/>
       <c r="B7" s="1" t="s">
         <v>369</v>
       </c>
@@ -26674,7 +26727,7 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="66"/>
+      <c r="A8" s="67"/>
       <c r="C8" s="1" t="s">
         <v>367</v>
       </c>
@@ -26692,7 +26745,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="66"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="1" t="s">
         <v>363</v>
       </c>
@@ -26710,7 +26763,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="66"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="1" t="s">
         <v>359</v>
       </c>
@@ -26722,7 +26775,7 @@
     </row>
     <row r="13" spans="1:19" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:19" s="38" customFormat="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>357</v>
       </c>
       <c r="B14" s="48" t="s">
@@ -26747,7 +26800,7 @@
       <c r="S14" s="48"/>
     </row>
     <row r="15" spans="1:19" s="35" customFormat="1">
-      <c r="A15" s="68"/>
+      <c r="A15" s="69"/>
       <c r="B15" s="49" t="s">
         <v>355</v>
       </c>
@@ -26770,7 +26823,7 @@
       <c r="S15" s="49"/>
     </row>
     <row r="16" spans="1:19" s="35" customFormat="1">
-      <c r="A16" s="68"/>
+      <c r="A16" s="69"/>
       <c r="B16" s="49" t="s">
         <v>354</v>
       </c>
@@ -26793,7 +26846,7 @@
       <c r="S16" s="49"/>
     </row>
     <row r="17" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A17" s="69"/>
+      <c r="A17" s="70"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -26814,7 +26867,7 @@
       <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" s="38" customFormat="1">
-      <c r="A18" s="67" t="s">
+      <c r="A18" s="68" t="s">
         <v>353</v>
       </c>
       <c r="B18" s="48"/>
@@ -26845,7 +26898,7 @@
       <c r="S18" s="48"/>
     </row>
     <row r="19" spans="1:19" s="35" customFormat="1">
-      <c r="A19" s="68"/>
+      <c r="A19" s="69"/>
       <c r="B19" s="49" t="s">
         <v>350</v>
       </c>
@@ -26876,7 +26929,7 @@
       <c r="S19" s="49"/>
     </row>
     <row r="20" spans="1:19" s="35" customFormat="1">
-      <c r="A20" s="68"/>
+      <c r="A20" s="69"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49" t="s">
         <v>345</v>
@@ -26905,7 +26958,7 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A21" s="69"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="s">
         <v>341</v>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="10"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="796">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="802">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3107,6 +3107,32 @@
   </si>
   <si>
     <t>네트워크도 확인하여 스프링 문제를 체크해야한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리턴 형식 통일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>public static ReslutData method(){}
+성공 실패 코드 : S-@ / F-@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">클래스 리턴 타입의 통일을 위해서 리턴타입을 정한다
+양식의 통일을 중점으로 다룬다??? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>press f12 in chrome browser 네트워크 창에서 정보 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브라우저에 보여지는 양식을 저장해둔 곳이다 필히 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스프링 내부 확인 절차*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19207,8 +19233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -20189,8 +20215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20198,8 +20224,8 @@
     <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
     <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="48.125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="35.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -20211,10 +20237,10 @@
         <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -20260,7 +20286,7 @@
       <c r="C5" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>648</v>
       </c>
     </row>
@@ -20274,7 +20300,7 @@
       <c r="C6" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>660</v>
       </c>
     </row>
@@ -20307,7 +20333,7 @@
       <c r="C9" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>782</v>
       </c>
     </row>
@@ -20321,7 +20347,7 @@
       <c r="C10" s="3" t="s">
         <v>763</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="D10" s="63" t="s">
         <v>766</v>
       </c>
     </row>
@@ -20347,14 +20373,32 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="33">
       <c r="A13" s="19">
         <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="19">
         <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -23402,7 +23446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Saved Games\김시원\집\spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -31,6 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CSS!$A$1:$G$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="811">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3133,6 +3134,42 @@
   </si>
   <si>
     <t>스프링 내부 확인 절차*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한검사를 서비스에서 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멤버 아이디와 글 정보를 parameter로 받아 메소드로 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>resultDate의 리턴타입으로 isfailed함수를 이용한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parameter에 data1 이름 부여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jstl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp를 쉽게 사용할 수 있도록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp 파일에서 taglib uri="@" 로 지정하고 prefix로 약어 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">c로 설정했다 치면 태그 안에 &lt;c로 시작해서 메소드 지정 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19234,7 +19271,7 @@
   <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -20215,8 +20252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E342"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -20224,7 +20261,7 @@
     <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
     <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="51" style="24" customWidth="1"/>
     <col min="5" max="5" width="35.25" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -20405,10 +20442,25 @@
       <c r="A15" s="19">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>803</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="19">
         <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -23446,8 +23498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -23456,7 +23508,7 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>617</v>
       </c>
@@ -23467,7 +23519,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>614</v>
       </c>
@@ -23478,7 +23530,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -23489,7 +23541,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:13">
       <c r="C6">
         <v>2</v>
       </c>
@@ -23497,7 +23549,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:13">
       <c r="C7">
         <v>3</v>
       </c>
@@ -23505,7 +23557,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>700</v>
       </c>
@@ -23513,7 +23565,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>702</v>
       </c>
@@ -23521,7 +23573,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>704</v>
       </c>
@@ -23532,12 +23584,26 @@
         <v>706</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>726</v>
       </c>
       <c r="C12" t="s">
         <v>727</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>807</v>
+      </c>
+      <c r="C13" t="s">
+        <v>808</v>
+      </c>
+      <c r="G13" t="s">
+        <v>809</v>
+      </c>
+      <c r="M13" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="19" spans="2:13">

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\korea IT\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" firstSheet="2" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -31,7 +31,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CSS!$A$1:$G$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="815">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3170,6 +3169,22 @@
   </si>
   <si>
     <t xml:space="preserve">c로 설정했다 치면 태그 안에 &lt;c로 시작해서 메소드 지정 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">connect JSP </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yml file or xml file modify 작업 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repository link with DB grammar 작업 12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4048,12 +4063,12 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
     <col min="17" max="17" width="5" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.75" customWidth="1"/>
-    <col min="23" max="23" width="8.75" customWidth="1"/>
+    <col min="20" max="20" width="10.69921875" customWidth="1"/>
+    <col min="23" max="23" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39" customHeight="1" thickBot="1">
@@ -4559,7 +4574,7 @@
       <c r="AA14" s="35"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28" ht="17.25" thickBot="1">
+    <row r="15" spans="1:28" ht="18" thickBot="1">
       <c r="A15" s="15"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -4592,7 +4607,7 @@
       <c r="AA15" s="35"/>
       <c r="AB15" s="14"/>
     </row>
-    <row r="16" spans="1:28" ht="17.25" thickBot="1">
+    <row r="16" spans="1:28" ht="18" thickBot="1">
       <c r="A16" s="39"/>
       <c r="B16" s="38" t="s">
         <v>546</v>
@@ -4683,7 +4698,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:36" ht="17.25" thickBot="1">
+    <row r="20" spans="1:36" ht="18" thickBot="1">
       <c r="A20" s="15"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4849,7 +4864,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="17.25" thickBot="1">
+    <row r="25" spans="1:36" ht="18" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -5316,7 +5331,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="17.25" thickBot="1">
+    <row r="37" spans="1:27" ht="18" thickBot="1">
       <c r="A37" s="15"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -5471,7 +5486,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="17.25" thickBot="1">
+    <row r="42" spans="1:27" ht="18" thickBot="1">
       <c r="A42" s="13"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -5693,7 +5708,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="17.25" thickBot="1">
+    <row r="49" spans="1:21" ht="18" thickBot="1">
       <c r="A49" s="15"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -5839,7 +5854,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="17.25" thickBot="1">
+    <row r="54" spans="1:21" ht="18" thickBot="1">
       <c r="A54" s="13"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -5987,7 +6002,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="17.25" thickBot="1">
+    <row r="59" spans="1:21" ht="18" thickBot="1">
       <c r="A59" s="15"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -6135,7 +6150,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="17.25" thickBot="1">
+    <row r="64" spans="1:21" ht="18" thickBot="1">
       <c r="A64" s="13"/>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -6283,7 +6298,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="17.25" thickBot="1">
+    <row r="69" spans="1:24" ht="18" thickBot="1">
       <c r="A69" s="15"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -6441,7 +6456,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="17.25" thickBot="1">
+    <row r="74" spans="1:24" ht="18" thickBot="1">
       <c r="A74" s="13"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -6587,7 +6602,7 @@
       </c>
       <c r="S78" s="35"/>
     </row>
-    <row r="79" spans="1:24" ht="17.25" thickBot="1">
+    <row r="79" spans="1:24" ht="18" thickBot="1">
       <c r="A79" s="15"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -7123,7 +7138,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="17.25" thickBot="1">
+    <row r="96" spans="1:21" ht="18" thickBot="1">
       <c r="A96" s="13"/>
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
@@ -7344,7 +7359,7 @@
       <c r="R104" s="35"/>
       <c r="S104" s="35"/>
     </row>
-    <row r="105" spans="1:19" ht="17.25" thickBot="1">
+    <row r="105" spans="1:19" ht="18" thickBot="1">
       <c r="A105" s="15"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -7456,7 +7471,7 @@
       <c r="R109" s="35"/>
       <c r="S109" s="35"/>
     </row>
-    <row r="110" spans="1:19" ht="17.25" thickBot="1">
+    <row r="110" spans="1:19" ht="18" thickBot="1">
       <c r="A110" s="13"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -7542,7 +7557,7 @@
       <c r="R113" s="35"/>
       <c r="S113" s="35"/>
     </row>
-    <row r="114" spans="1:19" ht="17.25" thickBot="1">
+    <row r="114" spans="1:19" ht="18" thickBot="1">
       <c r="A114" s="15"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -7628,7 +7643,7 @@
       <c r="R117" s="35"/>
       <c r="S117" s="35"/>
     </row>
-    <row r="118" spans="1:19" ht="17.25" thickBot="1">
+    <row r="118" spans="1:19" ht="18" thickBot="1">
       <c r="A118" s="13"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
@@ -7770,7 +7785,7 @@
       <c r="R123" s="35"/>
       <c r="S123" s="35"/>
     </row>
-    <row r="124" spans="1:19" ht="17.25" thickBot="1">
+    <row r="124" spans="1:19" ht="18" thickBot="1">
       <c r="A124" s="15"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -7960,7 +7975,7 @@
       <c r="R131" s="35"/>
       <c r="S131" s="35"/>
     </row>
-    <row r="132" spans="1:19" ht="17.25" thickBot="1">
+    <row r="132" spans="1:19" ht="18" thickBot="1">
       <c r="A132" s="13"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
@@ -8502,7 +8517,7 @@
       <c r="R152" s="35"/>
       <c r="S152" s="35"/>
     </row>
-    <row r="153" spans="1:19" ht="17.25" thickBot="1">
+    <row r="153" spans="1:19" ht="18" thickBot="1">
       <c r="A153" s="15"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -8544,7 +8559,7 @@
       <c r="R154" s="35"/>
       <c r="S154" s="35"/>
     </row>
-    <row r="155" spans="1:19" ht="17.25" thickBot="1">
+    <row r="155" spans="1:19" ht="18" thickBot="1">
       <c r="A155" s="15"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -8678,7 +8693,7 @@
       <c r="R160" s="35"/>
       <c r="S160" s="35"/>
     </row>
-    <row r="161" spans="1:19" ht="17.25" thickBot="1">
+    <row r="161" spans="1:19" ht="18" thickBot="1">
       <c r="A161" s="15"/>
       <c r="B161" s="36" t="s">
         <v>389</v>
@@ -8786,7 +8801,7 @@
       <c r="R165" s="35"/>
       <c r="S165" s="35"/>
     </row>
-    <row r="166" spans="1:19" ht="17.25" thickBot="1">
+    <row r="166" spans="1:19" ht="18" thickBot="1">
       <c r="A166" s="15"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -9000,7 +9015,7 @@
       <c r="R175" s="35"/>
       <c r="S175" s="35"/>
     </row>
-    <row r="176" spans="1:19" ht="17.25" thickBot="1">
+    <row r="176" spans="1:19" ht="18" thickBot="1">
       <c r="A176" s="15"/>
       <c r="B176" s="36" t="s">
         <v>379</v>
@@ -9022,7 +9037,7 @@
       <c r="R176" s="35"/>
       <c r="S176" s="35"/>
     </row>
-    <row r="177" spans="1:19" ht="17.25" thickBot="1">
+    <row r="177" spans="1:19" ht="18" thickBot="1">
       <c r="R177" s="35"/>
       <c r="S177" s="35"/>
     </row>
@@ -17086,7 +17101,7 @@
       <c r="R551" s="35"/>
       <c r="S551" s="35"/>
     </row>
-    <row r="552" spans="1:19" ht="17.25" thickBot="1">
+    <row r="552" spans="1:19" ht="18" thickBot="1">
       <c r="A552" s="15" t="s">
         <v>377</v>
       </c>
@@ -19111,16 +19126,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="9"/>
-    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="9"/>
+    <col min="2" max="2" width="11.59765625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="35.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.69921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="31" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.75" style="4" customWidth="1"/>
-    <col min="8" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.69921875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="19.69921875" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -19129,7 +19144,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="49.5">
+    <row r="2" spans="1:7" ht="52.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -19149,7 +19164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="49.5">
+    <row r="3" spans="1:7" ht="52.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -19271,23 +19286,23 @@
   <dimension ref="A1:I160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="25" customWidth="1"/>
     <col min="4" max="4" width="44" style="24" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.69921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="7" max="7" width="56.69921875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.09765625" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="17.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="19.2">
       <c r="A1" s="34" t="s">
         <v>196</v>
       </c>
@@ -19311,7 +19326,7 @@
       </c>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="33">
+    <row r="2" spans="1:9" ht="34.799999999999997">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -19423,7 +19438,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="49.5">
+    <row r="10" spans="1:9" ht="52.2">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -19443,7 +19458,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33">
+    <row r="11" spans="1:9" ht="34.799999999999997">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -20256,13 +20271,13 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="51" style="24" customWidth="1"/>
-    <col min="5" max="5" width="35.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.19921875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -20374,7 +20389,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33">
+    <row r="10" spans="1:5" ht="34.799999999999997">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -20399,7 +20414,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33">
+    <row r="12" spans="1:5" ht="34.799999999999997">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -20410,7 +20425,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="33">
+    <row r="13" spans="1:5" ht="34.799999999999997">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -22108,11 +22123,11 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="54.75" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="62" customFormat="1">
@@ -23498,13 +23513,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23604,6 +23619,22 @@
       </c>
       <c r="M13" t="s">
         <v>810</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>811</v>
+      </c>
+      <c r="C14" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13">
+      <c r="B15" t="s">
+        <v>812</v>
+      </c>
+      <c r="C15" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -23707,22 +23738,22 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="20" customWidth="1"/>
     <col min="2" max="2" width="39" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="57.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="57.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.59765625" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
       <c r="A1" s="23" t="s">
         <v>196</v>
       </c>
@@ -24188,20 +24219,20 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="41.125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="19"/>
-    <col min="4" max="4" width="49.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="19"/>
-    <col min="7" max="7" width="56.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="2" max="2" width="41.09765625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="19"/>
+    <col min="4" max="4" width="49.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="19"/>
+    <col min="7" max="7" width="56.69921875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.09765625" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
       <c r="A1" s="34" t="s">
         <v>339</v>
       </c>
@@ -25568,11 +25599,11 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="21.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26786,9 +26817,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.8984375" style="8" customWidth="1"/>
     <col min="2" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -26883,7 +26914,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="17.25" thickBot="1"/>
+    <row r="13" spans="1:19" ht="18" thickBot="1"/>
     <row r="14" spans="1:19" s="38" customFormat="1">
       <c r="A14" s="68" t="s">
         <v>357</v>
@@ -26955,7 +26986,7 @@
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
     </row>
-    <row r="17" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
+    <row r="17" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
       <c r="A17" s="70"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
@@ -27067,7 +27098,7 @@
       <c r="R20" s="49"/>
       <c r="S20" s="49"/>
     </row>
-    <row r="21" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
+    <row r="21" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
       <c r="A21" s="70"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="s">
@@ -27129,16 +27160,16 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.3984375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -27257,7 +27288,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33">
+    <row r="16" spans="1:8" ht="34.799999999999997">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -27369,28 +27400,28 @@
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="19"/>
-    <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="19" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="19"/>
+    <col min="3" max="3" width="6.59765625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.19921875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" style="19" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="19" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="19"/>
-    <col min="11" max="11" width="6.625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="19"/>
-    <col min="13" max="13" width="6.625" style="19" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="19"/>
-    <col min="16" max="16" width="7.375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="33.375" style="19" customWidth="1"/>
-    <col min="18" max="18" width="25.625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="43.625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" style="19"/>
+    <col min="11" max="11" width="6.59765625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" style="19"/>
+    <col min="13" max="13" width="6.59765625" style="19" customWidth="1"/>
+    <col min="14" max="15" width="15.59765625" style="19"/>
+    <col min="16" max="16" width="7.3984375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="33.3984375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="25.59765625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="43.59765625" style="19" customWidth="1"/>
     <col min="20" max="20" width="27" style="19" customWidth="1"/>
-    <col min="21" max="16384" width="15.625" style="19"/>
+    <col min="21" max="16384" width="15.59765625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
@@ -27451,12 +27482,12 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="17.25" thickBot="1">
+    <row r="7" spans="2:20" ht="18" thickBot="1">
       <c r="P7" s="19" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="17.25" thickBot="1">
+    <row r="8" spans="2:20" ht="18" thickBot="1">
       <c r="F8" s="54" t="s">
         <v>665</v>
       </c>
@@ -27482,7 +27513,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="17.25" thickBot="1">
+    <row r="10" spans="2:20" ht="18" thickBot="1">
       <c r="F10" s="59"/>
       <c r="G10" s="56" t="s">
         <v>664</v>
@@ -27500,7 +27531,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="17.25" thickBot="1">
+    <row r="11" spans="2:20" ht="18" thickBot="1">
       <c r="B11" s="54" t="s">
         <v>672</v>
       </c>
@@ -27529,7 +27560,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="17.25" thickBot="1">
+    <row r="13" spans="2:20" ht="18" thickBot="1">
       <c r="B13" s="55"/>
       <c r="D13" s="59"/>
       <c r="F13" s="59"/>
@@ -27573,13 +27604,13 @@
       <c r="F16" s="59"/>
       <c r="N16" s="59"/>
     </row>
-    <row r="17" spans="2:14" ht="17.25" thickBot="1">
+    <row r="17" spans="2:14" ht="18" thickBot="1">
       <c r="B17" s="55"/>
       <c r="D17" s="59"/>
       <c r="F17" s="59"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:14" ht="17.25" thickBot="1">
+    <row r="18" spans="2:14" ht="18" thickBot="1">
       <c r="B18" s="55"/>
       <c r="D18" s="59"/>
       <c r="F18" s="59"/>
@@ -27592,7 +27623,7 @@
       <c r="L18" s="54"/>
       <c r="N18" s="59"/>
     </row>
-    <row r="19" spans="2:14" ht="17.25" thickBot="1">
+    <row r="19" spans="2:14" ht="18" thickBot="1">
       <c r="B19" s="55"/>
       <c r="D19" s="59"/>
       <c r="F19" s="59"/>
@@ -27601,7 +27632,7 @@
       <c r="L19" s="59"/>
       <c r="N19" s="60"/>
     </row>
-    <row r="20" spans="2:14" ht="17.25" thickBot="1">
+    <row r="20" spans="2:14" ht="18" thickBot="1">
       <c r="B20" s="58"/>
       <c r="D20" s="60"/>
       <c r="F20" s="59"/>
@@ -27630,7 +27661,7 @@
       <c r="J22" s="59"/>
       <c r="L22" s="59"/>
     </row>
-    <row r="23" spans="2:14" ht="17.25" thickBot="1">
+    <row r="23" spans="2:14" ht="18" thickBot="1">
       <c r="F23" s="60"/>
       <c r="H23" s="60"/>
       <c r="J23" s="60"/>
@@ -27659,16 +27690,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="33.59765625" customWidth="1"/>
+    <col min="4" max="4" width="43.09765625" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
     <col min="9" max="9" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="49.5">
+    <row r="2" spans="1:9" ht="52.2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -27723,17 +27754,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" style="11" customWidth="1"/>
     <col min="3" max="3" width="86" style="17" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="68.375" customWidth="1"/>
-    <col min="6" max="6" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="31.09765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="68.3984375" customWidth="1"/>
+    <col min="6" max="6" width="38.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="44" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="44" customFormat="1" ht="19.2">
       <c r="A1" s="45" t="s">
         <v>611</v>
       </c>
@@ -27753,7 +27784,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="66">
+    <row r="2" spans="1:6" ht="69.599999999999994">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -27784,7 +27815,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33">
+    <row r="4" spans="1:6" ht="34.799999999999997">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -27801,7 +27832,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="82.5">
+    <row r="5" spans="1:6" ht="87">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -27819,7 +27850,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="82.5">
+    <row r="6" spans="1:6" ht="87">
       <c r="A6" s="11">
         <v>5</v>
       </c>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" firstSheet="2" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="815">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="818">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3185,6 +3185,21 @@
   </si>
   <si>
     <t>repository link with DB grammar 작업 12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jstl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%@ taglib uri="http://java.sun.com/jsp/jstl/core prefix="c"%
+&lt;c:forEach var="article" item="${articles }"&gt;@&lt;/c:forEach&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp 문법을 편하게 쓸 수 있게 만들어줌. @ 반복문
+java 메소드에 parameter로 Model model 설정후 
+model.addAttribute(key, value); 적어주면 jsp에서 사용가능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20267,8 +20282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E342"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
@@ -20276,7 +20291,7 @@
     <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
     <col min="2" max="2" width="27.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51" style="24" customWidth="1"/>
+    <col min="4" max="4" width="52.5" style="24" customWidth="1"/>
     <col min="5" max="5" width="35.19921875" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -20478,82 +20493,91 @@
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:4" ht="52.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="19">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:4">
       <c r="A19" s="19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:4">
       <c r="A20" s="19">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:4">
       <c r="A21" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:4">
       <c r="A22" s="19">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:4">
       <c r="A23" s="19">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4">
       <c r="A24" s="19">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:4">
       <c r="A25" s="19">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:4">
       <c r="A26" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:4">
       <c r="A27" s="19">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:4">
       <c r="A28" s="19">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:4">
       <c r="A29" s="19">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:4">
       <c r="A30" s="19">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:4">
       <c r="A31" s="19">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:4">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -22120,7 +22144,7 @@
   <dimension ref="A1:C272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -23513,7 +23537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -27687,7 +27711,7 @@
   <dimension ref="A2:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\korea IT\spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Saved Games\김시원\집\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" firstSheet="2" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="823">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3200,6 +3200,26 @@
     <t>jsp 문법을 편하게 쓸 수 있게 만들어줌. @ 반복문
 java 메소드에 parameter로 Model model 설정후 
 model.addAttribute(key, value); 적어주면 jsp에서 사용가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interceptor Concept</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 검사의 시점을 쓰레드 접근 전으로 옮김</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패키지 위치를 잘못 할당하면 오류가 생길 수 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>철자 오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글자라도 틀리면 안돌아가기 때문에 대책이 필요</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4078,12 +4098,12 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="17" max="17" width="5" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.69921875" customWidth="1"/>
-    <col min="23" max="23" width="8.69921875" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39" customHeight="1" thickBot="1">
@@ -4589,7 +4609,7 @@
       <c r="AA14" s="35"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28" ht="18" thickBot="1">
+    <row r="15" spans="1:28" ht="17.25" thickBot="1">
       <c r="A15" s="15"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -4622,7 +4642,7 @@
       <c r="AA15" s="35"/>
       <c r="AB15" s="14"/>
     </row>
-    <row r="16" spans="1:28" ht="18" thickBot="1">
+    <row r="16" spans="1:28" ht="17.25" thickBot="1">
       <c r="A16" s="39"/>
       <c r="B16" s="38" t="s">
         <v>546</v>
@@ -4713,7 +4733,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:36" ht="18" thickBot="1">
+    <row r="20" spans="1:36" ht="17.25" thickBot="1">
       <c r="A20" s="15"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4879,7 +4899,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="18" thickBot="1">
+    <row r="25" spans="1:36" ht="17.25" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -5346,7 +5366,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="18" thickBot="1">
+    <row r="37" spans="1:27" ht="17.25" thickBot="1">
       <c r="A37" s="15"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -5501,7 +5521,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="18" thickBot="1">
+    <row r="42" spans="1:27" ht="17.25" thickBot="1">
       <c r="A42" s="13"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -5723,7 +5743,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="18" thickBot="1">
+    <row r="49" spans="1:21" ht="17.25" thickBot="1">
       <c r="A49" s="15"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -5869,7 +5889,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="18" thickBot="1">
+    <row r="54" spans="1:21" ht="17.25" thickBot="1">
       <c r="A54" s="13"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -6017,7 +6037,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="18" thickBot="1">
+    <row r="59" spans="1:21" ht="17.25" thickBot="1">
       <c r="A59" s="15"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -6165,7 +6185,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="18" thickBot="1">
+    <row r="64" spans="1:21" ht="17.25" thickBot="1">
       <c r="A64" s="13"/>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -6313,7 +6333,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="18" thickBot="1">
+    <row r="69" spans="1:24" ht="17.25" thickBot="1">
       <c r="A69" s="15"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -6471,7 +6491,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="18" thickBot="1">
+    <row r="74" spans="1:24" ht="17.25" thickBot="1">
       <c r="A74" s="13"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -6617,7 +6637,7 @@
       </c>
       <c r="S78" s="35"/>
     </row>
-    <row r="79" spans="1:24" ht="18" thickBot="1">
+    <row r="79" spans="1:24" ht="17.25" thickBot="1">
       <c r="A79" s="15"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -7153,7 +7173,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="18" thickBot="1">
+    <row r="96" spans="1:21" ht="17.25" thickBot="1">
       <c r="A96" s="13"/>
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
@@ -7374,7 +7394,7 @@
       <c r="R104" s="35"/>
       <c r="S104" s="35"/>
     </row>
-    <row r="105" spans="1:19" ht="18" thickBot="1">
+    <row r="105" spans="1:19" ht="17.25" thickBot="1">
       <c r="A105" s="15"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -7486,7 +7506,7 @@
       <c r="R109" s="35"/>
       <c r="S109" s="35"/>
     </row>
-    <row r="110" spans="1:19" ht="18" thickBot="1">
+    <row r="110" spans="1:19" ht="17.25" thickBot="1">
       <c r="A110" s="13"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -7572,7 +7592,7 @@
       <c r="R113" s="35"/>
       <c r="S113" s="35"/>
     </row>
-    <row r="114" spans="1:19" ht="18" thickBot="1">
+    <row r="114" spans="1:19" ht="17.25" thickBot="1">
       <c r="A114" s="15"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -7658,7 +7678,7 @@
       <c r="R117" s="35"/>
       <c r="S117" s="35"/>
     </row>
-    <row r="118" spans="1:19" ht="18" thickBot="1">
+    <row r="118" spans="1:19" ht="17.25" thickBot="1">
       <c r="A118" s="13"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
@@ -7800,7 +7820,7 @@
       <c r="R123" s="35"/>
       <c r="S123" s="35"/>
     </row>
-    <row r="124" spans="1:19" ht="18" thickBot="1">
+    <row r="124" spans="1:19" ht="17.25" thickBot="1">
       <c r="A124" s="15"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -7990,7 +8010,7 @@
       <c r="R131" s="35"/>
       <c r="S131" s="35"/>
     </row>
-    <row r="132" spans="1:19" ht="18" thickBot="1">
+    <row r="132" spans="1:19" ht="17.25" thickBot="1">
       <c r="A132" s="13"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
@@ -8532,7 +8552,7 @@
       <c r="R152" s="35"/>
       <c r="S152" s="35"/>
     </row>
-    <row r="153" spans="1:19" ht="18" thickBot="1">
+    <row r="153" spans="1:19" ht="17.25" thickBot="1">
       <c r="A153" s="15"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -8574,7 +8594,7 @@
       <c r="R154" s="35"/>
       <c r="S154" s="35"/>
     </row>
-    <row r="155" spans="1:19" ht="18" thickBot="1">
+    <row r="155" spans="1:19" ht="17.25" thickBot="1">
       <c r="A155" s="15"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -8708,7 +8728,7 @@
       <c r="R160" s="35"/>
       <c r="S160" s="35"/>
     </row>
-    <row r="161" spans="1:19" ht="18" thickBot="1">
+    <row r="161" spans="1:19" ht="17.25" thickBot="1">
       <c r="A161" s="15"/>
       <c r="B161" s="36" t="s">
         <v>389</v>
@@ -8816,7 +8836,7 @@
       <c r="R165" s="35"/>
       <c r="S165" s="35"/>
     </row>
-    <row r="166" spans="1:19" ht="18" thickBot="1">
+    <row r="166" spans="1:19" ht="17.25" thickBot="1">
       <c r="A166" s="15"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -9030,7 +9050,7 @@
       <c r="R175" s="35"/>
       <c r="S175" s="35"/>
     </row>
-    <row r="176" spans="1:19" ht="18" thickBot="1">
+    <row r="176" spans="1:19" ht="17.25" thickBot="1">
       <c r="A176" s="15"/>
       <c r="B176" s="36" t="s">
         <v>379</v>
@@ -9052,7 +9072,7 @@
       <c r="R176" s="35"/>
       <c r="S176" s="35"/>
     </row>
-    <row r="177" spans="1:19" ht="18" thickBot="1">
+    <row r="177" spans="1:19" ht="17.25" thickBot="1">
       <c r="R177" s="35"/>
       <c r="S177" s="35"/>
     </row>
@@ -17116,7 +17136,7 @@
       <c r="R551" s="35"/>
       <c r="S551" s="35"/>
     </row>
-    <row r="552" spans="1:19" ht="18" thickBot="1">
+    <row r="552" spans="1:19" ht="17.25" thickBot="1">
       <c r="A552" s="15" t="s">
         <v>377</v>
       </c>
@@ -19141,16 +19161,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="9"/>
-    <col min="2" max="2" width="11.59765625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="9"/>
+    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="35.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="31" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.69921875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="19.69921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.75" style="4" customWidth="1"/>
+    <col min="8" max="9" width="19.75" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -19159,7 +19179,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.2">
+    <row r="2" spans="1:7" ht="49.5">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -19179,7 +19199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52.2">
+    <row r="3" spans="1:7" ht="49.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -19304,20 +19324,20 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.59765625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.625" style="25" customWidth="1"/>
     <col min="4" max="4" width="44" style="24" customWidth="1"/>
-    <col min="5" max="5" width="49.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.69921875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.09765625" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="1"/>
+    <col min="7" max="7" width="56.75" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="19.2">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="17.25">
       <c r="A1" s="34" t="s">
         <v>196</v>
       </c>
@@ -19341,7 +19361,7 @@
       </c>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="34.799999999999997">
+    <row r="2" spans="1:9" ht="33">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -19453,7 +19473,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="52.2">
+    <row r="10" spans="1:9" ht="49.5">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -19473,7 +19493,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="34.799999999999997">
+    <row r="11" spans="1:9" ht="33">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -20282,18 +20302,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E342"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.5" style="24" customWidth="1"/>
-    <col min="5" max="5" width="35.19921875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="2" customFormat="1">
@@ -20404,7 +20424,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34.799999999999997">
+    <row r="10" spans="1:5" ht="33">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -20429,7 +20449,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34.799999999999997">
+    <row r="12" spans="1:5" ht="33">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -20440,7 +20460,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="34.799999999999997">
+    <row r="13" spans="1:5" ht="33">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -20493,7 +20513,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="52.2">
+    <row r="17" spans="1:5" ht="49.5">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -20507,77 +20527,92 @@
         <v>817</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:5">
       <c r="A18" s="19">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="B18" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>819</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="B19" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="19">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:5">
       <c r="A21" s="19">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:5">
       <c r="A22" s="19">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5">
       <c r="A23" s="19">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5">
       <c r="A24" s="19">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5">
       <c r="A25" s="19">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:5">
       <c r="A26" s="19">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:5">
       <c r="A27" s="19">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:5">
       <c r="A28" s="19">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:5">
       <c r="A29" s="19">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:5">
       <c r="A30" s="19">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:5">
       <c r="A31" s="19">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:5">
       <c r="A32" s="19">
         <v>31</v>
       </c>
@@ -22147,11 +22182,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="54.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="62" customFormat="1">
@@ -23537,13 +23572,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23762,22 +23797,22 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="20" customWidth="1"/>
     <col min="2" max="2" width="39" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="57.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="57.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.625" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
       <c r="A1" s="23" t="s">
         <v>196</v>
       </c>
@@ -24243,20 +24278,20 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="41.09765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="19"/>
-    <col min="4" max="4" width="49.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" style="19"/>
-    <col min="7" max="7" width="56.69921875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.09765625" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="41.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="19"/>
+    <col min="4" max="4" width="49.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="19"/>
+    <col min="7" max="7" width="56.75" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
       <c r="A1" s="34" t="s">
         <v>339</v>
       </c>
@@ -25623,11 +25658,11 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="21.19921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26841,9 +26876,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.8984375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="8" customWidth="1"/>
     <col min="2" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -26938,7 +26973,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1"/>
+    <row r="13" spans="1:19" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:19" s="38" customFormat="1">
       <c r="A14" s="68" t="s">
         <v>357</v>
@@ -27010,7 +27045,7 @@
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
     </row>
-    <row r="17" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
+    <row r="17" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
       <c r="A17" s="70"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
@@ -27122,7 +27157,7 @@
       <c r="R20" s="49"/>
       <c r="S20" s="49"/>
     </row>
-    <row r="21" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
+    <row r="21" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
       <c r="A21" s="70"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="s">
@@ -27184,16 +27219,16 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -27312,7 +27347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34.799999999999997">
+    <row r="16" spans="1:8" ht="33">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -27424,28 +27459,28 @@
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="19"/>
-    <col min="3" max="3" width="6.59765625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.19921875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="19"/>
+    <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="19" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="19" customWidth="1"/>
-    <col min="9" max="9" width="6.59765625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" style="19"/>
-    <col min="11" max="11" width="6.59765625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.59765625" style="19"/>
-    <col min="13" max="13" width="6.59765625" style="19" customWidth="1"/>
-    <col min="14" max="15" width="15.59765625" style="19"/>
-    <col min="16" max="16" width="7.3984375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="33.3984375" style="19" customWidth="1"/>
-    <col min="18" max="18" width="25.59765625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="43.59765625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="19"/>
+    <col min="11" max="11" width="6.625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="19"/>
+    <col min="13" max="13" width="6.625" style="19" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="19"/>
+    <col min="16" max="16" width="7.375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="33.375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="25.625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="43.625" style="19" customWidth="1"/>
     <col min="20" max="20" width="27" style="19" customWidth="1"/>
-    <col min="21" max="16384" width="15.59765625" style="19"/>
+    <col min="21" max="16384" width="15.625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
@@ -27506,12 +27541,12 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="18" thickBot="1">
+    <row r="7" spans="2:20" ht="17.25" thickBot="1">
       <c r="P7" s="19" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18" thickBot="1">
+    <row r="8" spans="2:20" ht="17.25" thickBot="1">
       <c r="F8" s="54" t="s">
         <v>665</v>
       </c>
@@ -27537,7 +27572,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18" thickBot="1">
+    <row r="10" spans="2:20" ht="17.25" thickBot="1">
       <c r="F10" s="59"/>
       <c r="G10" s="56" t="s">
         <v>664</v>
@@ -27555,7 +27590,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18" thickBot="1">
+    <row r="11" spans="2:20" ht="17.25" thickBot="1">
       <c r="B11" s="54" t="s">
         <v>672</v>
       </c>
@@ -27584,7 +27619,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18" thickBot="1">
+    <row r="13" spans="2:20" ht="17.25" thickBot="1">
       <c r="B13" s="55"/>
       <c r="D13" s="59"/>
       <c r="F13" s="59"/>
@@ -27628,13 +27663,13 @@
       <c r="F16" s="59"/>
       <c r="N16" s="59"/>
     </row>
-    <row r="17" spans="2:14" ht="18" thickBot="1">
+    <row r="17" spans="2:14" ht="17.25" thickBot="1">
       <c r="B17" s="55"/>
       <c r="D17" s="59"/>
       <c r="F17" s="59"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:14" ht="18" thickBot="1">
+    <row r="18" spans="2:14" ht="17.25" thickBot="1">
       <c r="B18" s="55"/>
       <c r="D18" s="59"/>
       <c r="F18" s="59"/>
@@ -27647,7 +27682,7 @@
       <c r="L18" s="54"/>
       <c r="N18" s="59"/>
     </row>
-    <row r="19" spans="2:14" ht="18" thickBot="1">
+    <row r="19" spans="2:14" ht="17.25" thickBot="1">
       <c r="B19" s="55"/>
       <c r="D19" s="59"/>
       <c r="F19" s="59"/>
@@ -27656,7 +27691,7 @@
       <c r="L19" s="59"/>
       <c r="N19" s="60"/>
     </row>
-    <row r="20" spans="2:14" ht="18" thickBot="1">
+    <row r="20" spans="2:14" ht="17.25" thickBot="1">
       <c r="B20" s="58"/>
       <c r="D20" s="60"/>
       <c r="F20" s="59"/>
@@ -27685,7 +27720,7 @@
       <c r="J22" s="59"/>
       <c r="L22" s="59"/>
     </row>
-    <row r="23" spans="2:14" ht="18" thickBot="1">
+    <row r="23" spans="2:14" ht="17.25" thickBot="1">
       <c r="F23" s="60"/>
       <c r="H23" s="60"/>
       <c r="J23" s="60"/>
@@ -27714,16 +27749,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" customWidth="1"/>
-    <col min="4" max="4" width="43.09765625" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="4" width="43.125" customWidth="1"/>
+    <col min="5" max="5" width="19.25" customWidth="1"/>
     <col min="9" max="9" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="52.2">
+    <row r="2" spans="1:9" ht="49.5">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -27778,17 +27813,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="86" style="17" customWidth="1"/>
-    <col min="4" max="4" width="31.09765625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="68.3984375" customWidth="1"/>
-    <col min="6" max="6" width="38.69921875" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="68.375" customWidth="1"/>
+    <col min="6" max="6" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="44" customFormat="1" ht="19.2">
+    <row r="1" spans="1:6" s="44" customFormat="1" ht="17.25">
       <c r="A1" s="45" t="s">
         <v>611</v>
       </c>
@@ -27808,7 +27843,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.599999999999994">
+    <row r="2" spans="1:6" ht="66">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -27839,7 +27874,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.799999999999997">
+    <row r="4" spans="1:6" ht="33">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -27856,7 +27891,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="87">
+    <row r="5" spans="1:6" ht="82.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -27874,7 +27909,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="87">
+    <row r="6" spans="1:6" ht="82.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Saved Games\김시원\집\spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\korea IT\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -4094,16 +4094,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ1049"/>
   <sheetViews>
-    <sheetView topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R15" sqref="R15:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
     <col min="17" max="17" width="5" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.75" customWidth="1"/>
-    <col min="23" max="23" width="8.75" customWidth="1"/>
+    <col min="20" max="20" width="10.69921875" customWidth="1"/>
+    <col min="23" max="23" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39" customHeight="1" thickBot="1">
@@ -4609,7 +4609,7 @@
       <c r="AA14" s="35"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28" ht="17.25" thickBot="1">
+    <row r="15" spans="1:28" ht="18" thickBot="1">
       <c r="A15" s="15"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -4642,7 +4642,7 @@
       <c r="AA15" s="35"/>
       <c r="AB15" s="14"/>
     </row>
-    <row r="16" spans="1:28" ht="17.25" thickBot="1">
+    <row r="16" spans="1:28" ht="18" thickBot="1">
       <c r="A16" s="39"/>
       <c r="B16" s="38" t="s">
         <v>546</v>
@@ -4733,7 +4733,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:36" ht="17.25" thickBot="1">
+    <row r="20" spans="1:36" ht="18" thickBot="1">
       <c r="A20" s="15"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4899,7 +4899,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="17.25" thickBot="1">
+    <row r="25" spans="1:36" ht="18" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -5366,7 +5366,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="17.25" thickBot="1">
+    <row r="37" spans="1:27" ht="18" thickBot="1">
       <c r="A37" s="15"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -5521,7 +5521,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="17.25" thickBot="1">
+    <row r="42" spans="1:27" ht="18" thickBot="1">
       <c r="A42" s="13"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -5743,7 +5743,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="17.25" thickBot="1">
+    <row r="49" spans="1:21" ht="18" thickBot="1">
       <c r="A49" s="15"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -5889,7 +5889,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="17.25" thickBot="1">
+    <row r="54" spans="1:21" ht="18" thickBot="1">
       <c r="A54" s="13"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -6037,7 +6037,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="17.25" thickBot="1">
+    <row r="59" spans="1:21" ht="18" thickBot="1">
       <c r="A59" s="15"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -6185,7 +6185,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="17.25" thickBot="1">
+    <row r="64" spans="1:21" ht="18" thickBot="1">
       <c r="A64" s="13"/>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -6333,7 +6333,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="17.25" thickBot="1">
+    <row r="69" spans="1:24" ht="18" thickBot="1">
       <c r="A69" s="15"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -6491,7 +6491,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="17.25" thickBot="1">
+    <row r="74" spans="1:24" ht="18" thickBot="1">
       <c r="A74" s="13"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -6637,7 +6637,7 @@
       </c>
       <c r="S78" s="35"/>
     </row>
-    <row r="79" spans="1:24" ht="17.25" thickBot="1">
+    <row r="79" spans="1:24" ht="18" thickBot="1">
       <c r="A79" s="15"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -7173,7 +7173,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="17.25" thickBot="1">
+    <row r="96" spans="1:21" ht="18" thickBot="1">
       <c r="A96" s="13"/>
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
@@ -7394,7 +7394,7 @@
       <c r="R104" s="35"/>
       <c r="S104" s="35"/>
     </row>
-    <row r="105" spans="1:19" ht="17.25" thickBot="1">
+    <row r="105" spans="1:19" ht="18" thickBot="1">
       <c r="A105" s="15"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -7506,7 +7506,7 @@
       <c r="R109" s="35"/>
       <c r="S109" s="35"/>
     </row>
-    <row r="110" spans="1:19" ht="17.25" thickBot="1">
+    <row r="110" spans="1:19" ht="18" thickBot="1">
       <c r="A110" s="13"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -7592,7 +7592,7 @@
       <c r="R113" s="35"/>
       <c r="S113" s="35"/>
     </row>
-    <row r="114" spans="1:19" ht="17.25" thickBot="1">
+    <row r="114" spans="1:19" ht="18" thickBot="1">
       <c r="A114" s="15"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -7678,7 +7678,7 @@
       <c r="R117" s="35"/>
       <c r="S117" s="35"/>
     </row>
-    <row r="118" spans="1:19" ht="17.25" thickBot="1">
+    <row r="118" spans="1:19" ht="18" thickBot="1">
       <c r="A118" s="13"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
@@ -7820,7 +7820,7 @@
       <c r="R123" s="35"/>
       <c r="S123" s="35"/>
     </row>
-    <row r="124" spans="1:19" ht="17.25" thickBot="1">
+    <row r="124" spans="1:19" ht="18" thickBot="1">
       <c r="A124" s="15"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -8010,7 +8010,7 @@
       <c r="R131" s="35"/>
       <c r="S131" s="35"/>
     </row>
-    <row r="132" spans="1:19" ht="17.25" thickBot="1">
+    <row r="132" spans="1:19" ht="18" thickBot="1">
       <c r="A132" s="13"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
@@ -8552,7 +8552,7 @@
       <c r="R152" s="35"/>
       <c r="S152" s="35"/>
     </row>
-    <row r="153" spans="1:19" ht="17.25" thickBot="1">
+    <row r="153" spans="1:19" ht="18" thickBot="1">
       <c r="A153" s="15"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -8594,7 +8594,7 @@
       <c r="R154" s="35"/>
       <c r="S154" s="35"/>
     </row>
-    <row r="155" spans="1:19" ht="17.25" thickBot="1">
+    <row r="155" spans="1:19" ht="18" thickBot="1">
       <c r="A155" s="15"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -8728,7 +8728,7 @@
       <c r="R160" s="35"/>
       <c r="S160" s="35"/>
     </row>
-    <row r="161" spans="1:19" ht="17.25" thickBot="1">
+    <row r="161" spans="1:19" ht="18" thickBot="1">
       <c r="A161" s="15"/>
       <c r="B161" s="36" t="s">
         <v>389</v>
@@ -8836,7 +8836,7 @@
       <c r="R165" s="35"/>
       <c r="S165" s="35"/>
     </row>
-    <row r="166" spans="1:19" ht="17.25" thickBot="1">
+    <row r="166" spans="1:19" ht="18" thickBot="1">
       <c r="A166" s="15"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -9050,7 +9050,7 @@
       <c r="R175" s="35"/>
       <c r="S175" s="35"/>
     </row>
-    <row r="176" spans="1:19" ht="17.25" thickBot="1">
+    <row r="176" spans="1:19" ht="18" thickBot="1">
       <c r="A176" s="15"/>
       <c r="B176" s="36" t="s">
         <v>379</v>
@@ -9072,7 +9072,7 @@
       <c r="R176" s="35"/>
       <c r="S176" s="35"/>
     </row>
-    <row r="177" spans="1:19" ht="17.25" thickBot="1">
+    <row r="177" spans="1:19" ht="18" thickBot="1">
       <c r="R177" s="35"/>
       <c r="S177" s="35"/>
     </row>
@@ -17136,7 +17136,7 @@
       <c r="R551" s="35"/>
       <c r="S551" s="35"/>
     </row>
-    <row r="552" spans="1:19" ht="17.25" thickBot="1">
+    <row r="552" spans="1:19" ht="18" thickBot="1">
       <c r="A552" s="15" t="s">
         <v>377</v>
       </c>
@@ -19161,16 +19161,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="9"/>
-    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="9"/>
+    <col min="2" max="2" width="11.59765625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="35.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.69921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="31" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.75" style="4" customWidth="1"/>
-    <col min="8" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.69921875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="19.69921875" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -19179,7 +19179,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="49.5">
+    <row r="2" spans="1:7" ht="52.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -19199,7 +19199,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="49.5">
+    <row r="3" spans="1:7" ht="52.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -19324,20 +19324,20 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="8.59765625" style="25" customWidth="1"/>
     <col min="4" max="4" width="44" style="24" customWidth="1"/>
-    <col min="5" max="5" width="49.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.69921875" style="1" customWidth="1"/>
     <col min="6" max="6" width="46.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="56.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="7" max="7" width="56.69921875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.09765625" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="17.25">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="19.2">
       <c r="A1" s="34" t="s">
         <v>196</v>
       </c>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="H1" s="22"/>
     </row>
-    <row r="2" spans="1:9" ht="33">
+    <row r="2" spans="1:9" ht="34.799999999999997">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -19473,7 +19473,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="49.5">
+    <row r="10" spans="1:9" ht="52.2">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -19493,7 +19493,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="33">
+    <row r="11" spans="1:9" ht="34.799999999999997">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -20306,13 +20306,13 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="52.5" style="24" customWidth="1"/>
-    <col min="5" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="43.8984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -20424,7 +20424,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33">
+    <row r="10" spans="1:5" ht="34.799999999999997">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -20449,7 +20449,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33">
+    <row r="12" spans="1:5" ht="34.799999999999997">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -20460,7 +20460,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="33">
+    <row r="13" spans="1:5" ht="34.799999999999997">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -20513,7 +20513,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="49.5">
+    <row r="17" spans="1:5" ht="52.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -22182,11 +22182,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="54.75" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="62" customFormat="1">
@@ -23572,13 +23572,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23794,25 +23794,25 @@
   <dimension ref="A1:K66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="20" customWidth="1"/>
     <col min="2" max="2" width="39" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="57.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="57.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.59765625" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
       <c r="A1" s="23" t="s">
         <v>196</v>
       </c>
@@ -24278,20 +24278,20 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="41.125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="19"/>
-    <col min="4" max="4" width="49.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="19"/>
-    <col min="7" max="7" width="56.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="2" max="2" width="41.09765625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="19"/>
+    <col min="4" max="4" width="49.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="19"/>
+    <col min="7" max="7" width="56.69921875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.09765625" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
       <c r="A1" s="34" t="s">
         <v>339</v>
       </c>
@@ -25658,11 +25658,11 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="21.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26876,9 +26876,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.8984375" style="8" customWidth="1"/>
     <col min="2" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -26973,7 +26973,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="17.25" thickBot="1"/>
+    <row r="13" spans="1:19" ht="18" thickBot="1"/>
     <row r="14" spans="1:19" s="38" customFormat="1">
       <c r="A14" s="68" t="s">
         <v>357</v>
@@ -27045,7 +27045,7 @@
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
     </row>
-    <row r="17" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
+    <row r="17" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
       <c r="A17" s="70"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
@@ -27157,7 +27157,7 @@
       <c r="R20" s="49"/>
       <c r="S20" s="49"/>
     </row>
-    <row r="21" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
+    <row r="21" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
       <c r="A21" s="70"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="s">
@@ -27219,16 +27219,16 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.3984375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -27347,7 +27347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33">
+    <row r="16" spans="1:8" ht="34.799999999999997">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -27459,28 +27459,28 @@
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="19"/>
-    <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="19" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="19"/>
+    <col min="3" max="3" width="6.59765625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.19921875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" style="19" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="19" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="19"/>
-    <col min="11" max="11" width="6.625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="19"/>
-    <col min="13" max="13" width="6.625" style="19" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="19"/>
-    <col min="16" max="16" width="7.375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="33.375" style="19" customWidth="1"/>
-    <col min="18" max="18" width="25.625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="43.625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" style="19"/>
+    <col min="11" max="11" width="6.59765625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" style="19"/>
+    <col min="13" max="13" width="6.59765625" style="19" customWidth="1"/>
+    <col min="14" max="15" width="15.59765625" style="19"/>
+    <col min="16" max="16" width="7.3984375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="33.3984375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="25.59765625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="43.59765625" style="19" customWidth="1"/>
     <col min="20" max="20" width="27" style="19" customWidth="1"/>
-    <col min="21" max="16384" width="15.625" style="19"/>
+    <col min="21" max="16384" width="15.59765625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
@@ -27541,12 +27541,12 @@
         <v>699</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="17.25" thickBot="1">
+    <row r="7" spans="2:20" ht="18" thickBot="1">
       <c r="P7" s="19" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="17.25" thickBot="1">
+    <row r="8" spans="2:20" ht="18" thickBot="1">
       <c r="F8" s="54" t="s">
         <v>665</v>
       </c>
@@ -27572,7 +27572,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="17.25" thickBot="1">
+    <row r="10" spans="2:20" ht="18" thickBot="1">
       <c r="F10" s="59"/>
       <c r="G10" s="56" t="s">
         <v>664</v>
@@ -27590,7 +27590,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="17.25" thickBot="1">
+    <row r="11" spans="2:20" ht="18" thickBot="1">
       <c r="B11" s="54" t="s">
         <v>672</v>
       </c>
@@ -27619,7 +27619,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="17.25" thickBot="1">
+    <row r="13" spans="2:20" ht="18" thickBot="1">
       <c r="B13" s="55"/>
       <c r="D13" s="59"/>
       <c r="F13" s="59"/>
@@ -27663,13 +27663,13 @@
       <c r="F16" s="59"/>
       <c r="N16" s="59"/>
     </row>
-    <row r="17" spans="2:14" ht="17.25" thickBot="1">
+    <row r="17" spans="2:14" ht="18" thickBot="1">
       <c r="B17" s="55"/>
       <c r="D17" s="59"/>
       <c r="F17" s="59"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:14" ht="17.25" thickBot="1">
+    <row r="18" spans="2:14" ht="18" thickBot="1">
       <c r="B18" s="55"/>
       <c r="D18" s="59"/>
       <c r="F18" s="59"/>
@@ -27682,7 +27682,7 @@
       <c r="L18" s="54"/>
       <c r="N18" s="59"/>
     </row>
-    <row r="19" spans="2:14" ht="17.25" thickBot="1">
+    <row r="19" spans="2:14" ht="18" thickBot="1">
       <c r="B19" s="55"/>
       <c r="D19" s="59"/>
       <c r="F19" s="59"/>
@@ -27691,7 +27691,7 @@
       <c r="L19" s="59"/>
       <c r="N19" s="60"/>
     </row>
-    <row r="20" spans="2:14" ht="17.25" thickBot="1">
+    <row r="20" spans="2:14" ht="18" thickBot="1">
       <c r="B20" s="58"/>
       <c r="D20" s="60"/>
       <c r="F20" s="59"/>
@@ -27720,7 +27720,7 @@
       <c r="J22" s="59"/>
       <c r="L22" s="59"/>
     </row>
-    <row r="23" spans="2:14" ht="17.25" thickBot="1">
+    <row r="23" spans="2:14" ht="18" thickBot="1">
       <c r="F23" s="60"/>
       <c r="H23" s="60"/>
       <c r="J23" s="60"/>
@@ -27749,16 +27749,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="33.625" customWidth="1"/>
-    <col min="4" max="4" width="43.125" customWidth="1"/>
-    <col min="5" max="5" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="33.59765625" customWidth="1"/>
+    <col min="4" max="4" width="43.09765625" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" customWidth="1"/>
     <col min="9" max="9" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="49.5">
+    <row r="2" spans="1:9" ht="52.2">
       <c r="B2" t="s">
         <v>21</v>
       </c>
@@ -27813,17 +27813,17 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" style="11" customWidth="1"/>
     <col min="3" max="3" width="86" style="17" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="68.375" customWidth="1"/>
-    <col min="6" max="6" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="31.09765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="68.3984375" customWidth="1"/>
+    <col min="6" max="6" width="38.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="44" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="44" customFormat="1" ht="19.2">
       <c r="A1" s="45" t="s">
         <v>611</v>
       </c>
@@ -27843,7 +27843,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="66">
+    <row r="2" spans="1:6" ht="69.599999999999994">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -27874,7 +27874,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33">
+    <row r="4" spans="1:6" ht="34.799999999999997">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -27891,7 +27891,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="82.5">
+    <row r="5" spans="1:6" ht="87">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -27909,7 +27909,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="82.5">
+    <row r="6" spans="1:6" ht="87">
       <c r="A6" s="11">
         <v>5</v>
       </c>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\korea IT\spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Saved Games\김시원\집\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="TIP-Spring" sheetId="2" r:id="rId12"/>
     <sheet name="spring ex" sheetId="15" r:id="rId13"/>
     <sheet name="etc" sheetId="14" r:id="rId14"/>
+    <sheet name="SQL" sheetId="17" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CSS!$A$1:$G$31</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1488" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="843">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3253,6 +3254,59 @@
   <si>
     <t>&lt;%@ page language="java" contentType="text/html;
 charset=UTF-8" pageEncoding="UTF-8"%&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;table border="1"&gt;&lt;table&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;colgroup&gt;&lt;colgroup&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;col width="200" /&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;tbody&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;tr&gt; / &lt;th&gt; / &lt;td&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;c:if&gt;&lt;/c:if&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"${article}"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model.addAtrribute("article",article);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String type return값을 받아준 뒤 jsp adress로 tranmit 진행한뒤
+${"@"} 감싸고 써준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT 'key(value), ,,,'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3629,7 +3683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3830,6 +3884,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4131,12 +4188,12 @@
       <selection activeCell="R15" sqref="R15:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="17" max="17" width="5" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.69921875" customWidth="1"/>
-    <col min="23" max="23" width="8.69921875" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39" customHeight="1" thickBot="1">
@@ -4642,7 +4699,7 @@
       <c r="AA14" s="35"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28" ht="18" thickBot="1">
+    <row r="15" spans="1:28" ht="17.25" thickBot="1">
       <c r="A15" s="15"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -4675,7 +4732,7 @@
       <c r="AA15" s="35"/>
       <c r="AB15" s="14"/>
     </row>
-    <row r="16" spans="1:28" ht="18" thickBot="1">
+    <row r="16" spans="1:28" ht="17.25" thickBot="1">
       <c r="A16" s="39"/>
       <c r="B16" s="38" t="s">
         <v>545</v>
@@ -4766,7 +4823,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:36" ht="18" thickBot="1">
+    <row r="20" spans="1:36" ht="17.25" thickBot="1">
       <c r="A20" s="15"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -4932,7 +4989,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="18" thickBot="1">
+    <row r="25" spans="1:36" ht="17.25" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -5399,7 +5456,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="18" thickBot="1">
+    <row r="37" spans="1:27" ht="17.25" thickBot="1">
       <c r="A37" s="15"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -5554,7 +5611,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="18" thickBot="1">
+    <row r="42" spans="1:27" ht="17.25" thickBot="1">
       <c r="A42" s="13"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -5776,7 +5833,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="18" thickBot="1">
+    <row r="49" spans="1:21" ht="17.25" thickBot="1">
       <c r="A49" s="15"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -5922,7 +5979,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="18" thickBot="1">
+    <row r="54" spans="1:21" ht="17.25" thickBot="1">
       <c r="A54" s="13"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -6070,7 +6127,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="18" thickBot="1">
+    <row r="59" spans="1:21" ht="17.25" thickBot="1">
       <c r="A59" s="15"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -6218,7 +6275,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="18" thickBot="1">
+    <row r="64" spans="1:21" ht="17.25" thickBot="1">
       <c r="A64" s="13"/>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -6366,7 +6423,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="18" thickBot="1">
+    <row r="69" spans="1:24" ht="17.25" thickBot="1">
       <c r="A69" s="15"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -6524,7 +6581,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="18" thickBot="1">
+    <row r="74" spans="1:24" ht="17.25" thickBot="1">
       <c r="A74" s="13"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -6670,7 +6727,7 @@
       </c>
       <c r="S78" s="35"/>
     </row>
-    <row r="79" spans="1:24" ht="18" thickBot="1">
+    <row r="79" spans="1:24" ht="17.25" thickBot="1">
       <c r="A79" s="15"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -7206,7 +7263,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="18" thickBot="1">
+    <row r="96" spans="1:21" ht="17.25" thickBot="1">
       <c r="A96" s="13"/>
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
@@ -7427,7 +7484,7 @@
       <c r="R104" s="35"/>
       <c r="S104" s="35"/>
     </row>
-    <row r="105" spans="1:19" ht="18" thickBot="1">
+    <row r="105" spans="1:19" ht="17.25" thickBot="1">
       <c r="A105" s="15"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -7539,7 +7596,7 @@
       <c r="R109" s="35"/>
       <c r="S109" s="35"/>
     </row>
-    <row r="110" spans="1:19" ht="18" thickBot="1">
+    <row r="110" spans="1:19" ht="17.25" thickBot="1">
       <c r="A110" s="13"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -7625,7 +7682,7 @@
       <c r="R113" s="35"/>
       <c r="S113" s="35"/>
     </row>
-    <row r="114" spans="1:19" ht="18" thickBot="1">
+    <row r="114" spans="1:19" ht="17.25" thickBot="1">
       <c r="A114" s="15"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -7711,7 +7768,7 @@
       <c r="R117" s="35"/>
       <c r="S117" s="35"/>
     </row>
-    <row r="118" spans="1:19" ht="18" thickBot="1">
+    <row r="118" spans="1:19" ht="17.25" thickBot="1">
       <c r="A118" s="13"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
@@ -7853,7 +7910,7 @@
       <c r="R123" s="35"/>
       <c r="S123" s="35"/>
     </row>
-    <row r="124" spans="1:19" ht="18" thickBot="1">
+    <row r="124" spans="1:19" ht="17.25" thickBot="1">
       <c r="A124" s="15"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -8043,7 +8100,7 @@
       <c r="R131" s="35"/>
       <c r="S131" s="35"/>
     </row>
-    <row r="132" spans="1:19" ht="18" thickBot="1">
+    <row r="132" spans="1:19" ht="17.25" thickBot="1">
       <c r="A132" s="13"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
@@ -8585,7 +8642,7 @@
       <c r="R152" s="35"/>
       <c r="S152" s="35"/>
     </row>
-    <row r="153" spans="1:19" ht="18" thickBot="1">
+    <row r="153" spans="1:19" ht="17.25" thickBot="1">
       <c r="A153" s="15"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -8627,7 +8684,7 @@
       <c r="R154" s="35"/>
       <c r="S154" s="35"/>
     </row>
-    <row r="155" spans="1:19" ht="18" thickBot="1">
+    <row r="155" spans="1:19" ht="17.25" thickBot="1">
       <c r="A155" s="15"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -8761,7 +8818,7 @@
       <c r="R160" s="35"/>
       <c r="S160" s="35"/>
     </row>
-    <row r="161" spans="1:19" ht="18" thickBot="1">
+    <row r="161" spans="1:19" ht="17.25" thickBot="1">
       <c r="A161" s="15"/>
       <c r="B161" s="36" t="s">
         <v>388</v>
@@ -8869,7 +8926,7 @@
       <c r="R165" s="35"/>
       <c r="S165" s="35"/>
     </row>
-    <row r="166" spans="1:19" ht="18" thickBot="1">
+    <row r="166" spans="1:19" ht="17.25" thickBot="1">
       <c r="A166" s="15"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -9083,7 +9140,7 @@
       <c r="R175" s="35"/>
       <c r="S175" s="35"/>
     </row>
-    <row r="176" spans="1:19" ht="18" thickBot="1">
+    <row r="176" spans="1:19" ht="17.25" thickBot="1">
       <c r="A176" s="15"/>
       <c r="B176" s="36" t="s">
         <v>378</v>
@@ -9105,7 +9162,7 @@
       <c r="R176" s="35"/>
       <c r="S176" s="35"/>
     </row>
-    <row r="177" spans="1:19" ht="18" thickBot="1">
+    <row r="177" spans="1:19" ht="17.25" thickBot="1">
       <c r="R177" s="35"/>
       <c r="S177" s="35"/>
     </row>
@@ -17169,7 +17226,7 @@
       <c r="R551" s="35"/>
       <c r="S551" s="35"/>
     </row>
-    <row r="552" spans="1:19" ht="18" thickBot="1">
+    <row r="552" spans="1:19" ht="17.25" thickBot="1">
       <c r="A552" s="15" t="s">
         <v>376</v>
       </c>
@@ -19194,16 +19251,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="9"/>
-    <col min="2" max="2" width="11.59765625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="9"/>
+    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="35.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="31" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.69921875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="19.69921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.75" style="4" customWidth="1"/>
+    <col min="8" max="9" width="19.75" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -19212,7 +19269,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.2">
+    <row r="2" spans="1:7" ht="49.5">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -19232,7 +19289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52.2">
+    <row r="3" spans="1:7" ht="49.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -19353,23 +19410,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="44" style="24" customWidth="1"/>
-    <col min="4" max="4" width="49.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.69921875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="23.09765625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="1"/>
+    <col min="6" max="6" width="56.75" style="24" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
       <c r="A1" s="34" t="s">
         <v>195</v>
       </c>
@@ -19390,7 +19447,7 @@
       </c>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="34.799999999999997">
+    <row r="2" spans="1:8" ht="33">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -19502,7 +19559,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="49.5">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -19522,7 +19579,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34.799999999999997">
+    <row r="11" spans="1:8" ht="33">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -20341,13 +20398,13 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.3984375" style="24" customWidth="1"/>
-    <col min="5" max="6" width="43.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.375" style="24" customWidth="1"/>
+    <col min="5" max="6" width="43.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -20459,7 +20516,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34.799999999999997">
+    <row r="10" spans="1:5" ht="33">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -20484,7 +20541,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34.799999999999997">
+    <row r="12" spans="1:5" ht="33">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -20495,7 +20552,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="34.799999999999997">
+    <row r="13" spans="1:5" ht="33">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -20548,7 +20605,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="52.2">
+    <row r="17" spans="1:5" ht="49.5">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -20592,7 +20649,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="52.2">
+    <row r="21" spans="1:5" ht="49.5">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -22226,11 +22283,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="54.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="62" customFormat="1">
@@ -23620,9 +23677,9 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23825,6 +23882,1296 @@
     <row r="33" spans="2:2">
       <c r="B33" t="s">
         <v>792</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C252"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="11.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="67" customFormat="1">
+      <c r="B1" s="67" t="s">
+        <v>840</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="C2" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="11">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="11">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="11">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="11">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="11">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="11">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="11">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="11">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="11">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="11">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="11">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="11">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="11">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" s="11">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="11">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" s="11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" s="11">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" s="11">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" s="11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1">
+      <c r="A153" s="11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" s="11">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" s="11">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" s="11">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" s="11">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" s="11">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" s="11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" s="11">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" s="11">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="11">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" s="11">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="11">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="11">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="11">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" s="11">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" s="11">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" s="11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="11">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" s="11">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1">
+      <c r="A175" s="11">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" s="11">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" s="11">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" s="11">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="11">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" s="11">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" s="11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" s="11">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" s="11">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1">
+      <c r="A185" s="11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" s="11">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="11">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="11">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" s="11">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1">
+      <c r="A193" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" s="11">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" s="11">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" s="11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1">
+      <c r="A197" s="11">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" s="11">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1">
+      <c r="A199" s="11">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" s="11">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1">
+      <c r="A201" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" s="11">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" s="11">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="11">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" s="11">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="11">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1">
+      <c r="A207" s="11">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" s="11">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" s="11">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1">
+      <c r="A210" s="11">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" s="11">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" s="11">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1">
+      <c r="A213" s="11">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1">
+      <c r="A214" s="11">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="11">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" s="11">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="11">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1">
+      <c r="A218" s="11">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1">
+      <c r="A219" s="11">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1">
+      <c r="A220" s="11">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" s="11">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1">
+      <c r="A222" s="11">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" s="11">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" s="11">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="11">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="11">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="11">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1">
+      <c r="A228" s="11">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" s="11">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" s="11">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1">
+      <c r="A231" s="11">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" s="11">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" s="11">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1">
+      <c r="A234" s="11">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1">
+      <c r="A235" s="11">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1">
+      <c r="A236" s="11">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" s="11">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="11">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1">
+      <c r="A239" s="11">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1">
+      <c r="A240" s="11">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1">
+      <c r="A241" s="11">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1">
+      <c r="A242" s="11">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" s="11">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" s="11">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="11">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" s="11">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1">
+      <c r="A247" s="11">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" s="11">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="11">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="11">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="11">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -23837,26 +25184,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="20" customWidth="1"/>
     <col min="2" max="2" width="39" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="57.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="57.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.625" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
       <c r="A1" s="23" t="s">
         <v>195</v>
       </c>
@@ -24223,25 +25570,40 @@
       <c r="A29" s="20">
         <v>28</v>
       </c>
+      <c r="B29" s="19" t="s">
+        <v>830</v>
+      </c>
     </row>
     <row r="30" spans="1:11">
       <c r="A30" s="20">
         <v>29</v>
       </c>
+      <c r="B30" s="19" t="s">
+        <v>831</v>
+      </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="20">
         <v>30</v>
       </c>
+      <c r="B31" s="19" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="32" spans="1:11">
       <c r="A32" s="20">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
+      <c r="B32" s="19" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="20">
         <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -24322,20 +25684,20 @@
       <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="41.09765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="19"/>
-    <col min="4" max="4" width="49.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" style="19"/>
-    <col min="7" max="7" width="56.69921875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.09765625" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="41.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="19"/>
+    <col min="4" max="4" width="49.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="19"/>
+    <col min="7" max="7" width="56.75" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
       <c r="A1" s="34" t="s">
         <v>338</v>
       </c>
@@ -25702,11 +27064,11 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="21.19921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26920,14 +28282,14 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.8984375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="8" customWidth="1"/>
     <col min="2" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="68" t="s">
         <v>375</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -26935,13 +28297,13 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="67"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="67"/>
+      <c r="A4" s="68"/>
       <c r="C4" s="1" t="s">
         <v>372</v>
       </c>
@@ -26950,19 +28312,19 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="67"/>
+      <c r="A5" s="68"/>
       <c r="C5" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="67"/>
+      <c r="A6" s="68"/>
       <c r="B6" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="67"/>
+      <c r="A7" s="68"/>
       <c r="B7" s="1" t="s">
         <v>368</v>
       </c>
@@ -26971,7 +28333,7 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="67"/>
+      <c r="A8" s="68"/>
       <c r="C8" s="1" t="s">
         <v>366</v>
       </c>
@@ -26989,7 +28351,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="67"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="1" t="s">
         <v>362</v>
       </c>
@@ -27007,7 +28369,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="67"/>
+      <c r="A10" s="68"/>
       <c r="B10" s="1" t="s">
         <v>358</v>
       </c>
@@ -27017,9 +28379,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1"/>
+    <row r="13" spans="1:19" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:19" s="38" customFormat="1">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="69" t="s">
         <v>356</v>
       </c>
       <c r="B14" s="48" t="s">
@@ -27044,7 +28406,7 @@
       <c r="S14" s="48"/>
     </row>
     <row r="15" spans="1:19" s="35" customFormat="1">
-      <c r="A15" s="69"/>
+      <c r="A15" s="70"/>
       <c r="B15" s="49" t="s">
         <v>354</v>
       </c>
@@ -27067,7 +28429,7 @@
       <c r="S15" s="49"/>
     </row>
     <row r="16" spans="1:19" s="35" customFormat="1">
-      <c r="A16" s="69"/>
+      <c r="A16" s="70"/>
       <c r="B16" s="49" t="s">
         <v>353</v>
       </c>
@@ -27089,8 +28451,8 @@
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
     </row>
-    <row r="17" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
-      <c r="A17" s="70"/>
+    <row r="17" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A17" s="71"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -27111,7 +28473,7 @@
       <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" s="38" customFormat="1">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="69" t="s">
         <v>352</v>
       </c>
       <c r="B18" s="48"/>
@@ -27142,7 +28504,7 @@
       <c r="S18" s="48"/>
     </row>
     <row r="19" spans="1:19" s="35" customFormat="1">
-      <c r="A19" s="69"/>
+      <c r="A19" s="70"/>
       <c r="B19" s="49" t="s">
         <v>349</v>
       </c>
@@ -27173,7 +28535,7 @@
       <c r="S19" s="49"/>
     </row>
     <row r="20" spans="1:19" s="35" customFormat="1">
-      <c r="A20" s="69"/>
+      <c r="A20" s="70"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49" t="s">
         <v>344</v>
@@ -27201,8 +28563,8 @@
       <c r="R20" s="49"/>
       <c r="S20" s="49"/>
     </row>
-    <row r="21" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
-      <c r="A21" s="70"/>
+    <row r="21" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
+      <c r="A21" s="71"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="s">
         <v>340</v>
@@ -27263,16 +28625,16 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -27391,7 +28753,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34.799999999999997">
+    <row r="16" spans="1:8" ht="33">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -27503,28 +28865,28 @@
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="19"/>
-    <col min="3" max="3" width="6.59765625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.19921875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="19"/>
+    <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="19" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="19" customWidth="1"/>
-    <col min="9" max="9" width="6.59765625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" style="19"/>
-    <col min="11" max="11" width="6.59765625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.59765625" style="19"/>
-    <col min="13" max="13" width="6.59765625" style="19" customWidth="1"/>
-    <col min="14" max="15" width="15.59765625" style="19"/>
-    <col min="16" max="16" width="7.3984375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="33.3984375" style="19" customWidth="1"/>
-    <col min="18" max="18" width="25.59765625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="43.59765625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="19"/>
+    <col min="11" max="11" width="6.625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="19"/>
+    <col min="13" max="13" width="6.625" style="19" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="19"/>
+    <col min="16" max="16" width="7.375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="33.375" style="19" customWidth="1"/>
+    <col min="18" max="18" width="25.625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="43.625" style="19" customWidth="1"/>
     <col min="20" max="20" width="27" style="19" customWidth="1"/>
-    <col min="21" max="16384" width="15.59765625" style="19"/>
+    <col min="21" max="16384" width="15.625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
@@ -27585,12 +28947,12 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="18" thickBot="1">
+    <row r="7" spans="2:20" ht="17.25" thickBot="1">
       <c r="P7" s="19" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18" thickBot="1">
+    <row r="8" spans="2:20" ht="17.25" thickBot="1">
       <c r="F8" s="54" t="s">
         <v>664</v>
       </c>
@@ -27616,7 +28978,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18" thickBot="1">
+    <row r="10" spans="2:20" ht="17.25" thickBot="1">
       <c r="F10" s="59"/>
       <c r="G10" s="56" t="s">
         <v>663</v>
@@ -27634,7 +28996,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18" thickBot="1">
+    <row r="11" spans="2:20" ht="17.25" thickBot="1">
       <c r="B11" s="54" t="s">
         <v>671</v>
       </c>
@@ -27663,7 +29025,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18" thickBot="1">
+    <row r="13" spans="2:20" ht="17.25" thickBot="1">
       <c r="B13" s="55"/>
       <c r="D13" s="59"/>
       <c r="F13" s="59"/>
@@ -27707,13 +29069,13 @@
       <c r="F16" s="59"/>
       <c r="N16" s="59"/>
     </row>
-    <row r="17" spans="2:14" ht="18" thickBot="1">
+    <row r="17" spans="2:14" ht="17.25" thickBot="1">
       <c r="B17" s="55"/>
       <c r="D17" s="59"/>
       <c r="F17" s="59"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:14" ht="18" thickBot="1">
+    <row r="18" spans="2:14" ht="17.25" thickBot="1">
       <c r="B18" s="55"/>
       <c r="D18" s="59"/>
       <c r="F18" s="59"/>
@@ -27726,7 +29088,7 @@
       <c r="L18" s="54"/>
       <c r="N18" s="59"/>
     </row>
-    <row r="19" spans="2:14" ht="18" thickBot="1">
+    <row r="19" spans="2:14" ht="17.25" thickBot="1">
       <c r="B19" s="55"/>
       <c r="D19" s="59"/>
       <c r="F19" s="59"/>
@@ -27735,7 +29097,7 @@
       <c r="L19" s="59"/>
       <c r="N19" s="60"/>
     </row>
-    <row r="20" spans="2:14" ht="18" thickBot="1">
+    <row r="20" spans="2:14" ht="17.25" thickBot="1">
       <c r="B20" s="58"/>
       <c r="D20" s="60"/>
       <c r="F20" s="59"/>
@@ -27764,7 +29126,7 @@
       <c r="J22" s="59"/>
       <c r="L22" s="59"/>
     </row>
-    <row r="23" spans="2:14" ht="18" thickBot="1">
+    <row r="23" spans="2:14" ht="17.25" thickBot="1">
       <c r="F23" s="60"/>
       <c r="H23" s="60"/>
       <c r="J23" s="60"/>
@@ -27789,23 +29151,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="19"/>
-    <col min="2" max="2" width="49.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.09765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.796875" style="1"/>
+    <col min="1" max="1" width="8.75" style="19"/>
+    <col min="2" max="2" width="49.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.75" style="1"/>
     <col min="9" max="9" width="53" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="52.2">
+    <row r="2" spans="1:9" ht="49.5">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -27874,7 +29236,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34.799999999999997">
+    <row r="8" spans="1:9" ht="33">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -27886,10 +29248,22 @@
       <c r="A9" s="19">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="B9" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="33">
       <c r="A10" s="19">
         <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -29297,17 +30671,17 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="86" style="17" customWidth="1"/>
-    <col min="4" max="4" width="31.09765625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="68.3984375" customWidth="1"/>
-    <col min="6" max="6" width="38.69921875" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="68.375" customWidth="1"/>
+    <col min="6" max="6" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="44" customFormat="1" ht="19.2">
+    <row r="1" spans="1:6" s="44" customFormat="1" ht="17.25">
       <c r="A1" s="45" t="s">
         <v>610</v>
       </c>
@@ -29327,7 +30701,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.599999999999994">
+    <row r="2" spans="1:6" ht="66">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -29358,7 +30732,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.799999999999997">
+    <row r="4" spans="1:6" ht="33">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -29375,7 +30749,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="87">
+    <row r="5" spans="1:6" ht="82.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -29393,7 +30767,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="87">
+    <row r="6" spans="1:6" ht="82.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="spring ex" sheetId="15" r:id="rId13"/>
     <sheet name="etc" sheetId="14" r:id="rId14"/>
     <sheet name="SQL" sheetId="17" r:id="rId15"/>
+    <sheet name="typescript" sheetId="18" r:id="rId16"/>
+    <sheet name="Sheet3" sheetId="20" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CSS!$A$1:$G$31</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1501" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="997">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3309,12 +3311,485 @@
     <t>COMMENT 'key(value), ,,,'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Variables and Types:</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>Classes</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>Enums</t>
+  </si>
+  <si>
+    <t>Generics</t>
+  </si>
+  <si>
+    <t>Type Aliases</t>
+  </si>
+  <si>
+    <t>```</t>
+  </si>
+  <si>
+    <t>You can also declare optional types using the `?` character, like this:</t>
+  </si>
+  <si>
+    <t>let middleName?: string;</t>
+  </si>
+  <si>
+    <t>This declares a variable `middleName` with an optional `string` type. The variable can be assigned a `string` value or can be `undefined`.</t>
+  </si>
+  <si>
+    <t>TypeScript provides several basic types that you can use for variables:</t>
+  </si>
+  <si>
+    <t>- `number`: for numeric values</t>
+  </si>
+  <si>
+    <t>- `string`: for text values</t>
+  </si>
+  <si>
+    <t>- `boolean`: for true/false values</t>
+  </si>
+  <si>
+    <t>- `any`: for values that can be of any type (not recommended, as it defeats the purpose of using TypeScript)</t>
+  </si>
+  <si>
+    <t>- `void`: for functions that do not return a value</t>
+  </si>
+  <si>
+    <t>You can also use more advanced types, such as arrays, objects, and custom types. For example:</t>
+  </si>
+  <si>
+    <t>let numbers: number[] = [1, 2, 3];</t>
+  </si>
+  <si>
+    <t>let person: { name: string, age: number } = { name: "John", age: 30 };</t>
+  </si>
+  <si>
+    <t>type Color = "red" | "green" | "blue";</t>
+  </si>
+  <si>
+    <t>let favoriteColor: Color = "green";</t>
+  </si>
+  <si>
+    <t>In this example, we declare a variable `numbers` as an array of `number` values, a variable `person` as an object with properties `name` (a `string`) and `age` (a `number`), and a custom type `Color` that can only be one of three string values. We then declare a variable `favoriteColor` with type `Color` and assign it the value `"green"`.</t>
+  </si>
+  <si>
+    <t>I hope this helps! Let me know if you have any other questions.</t>
+  </si>
+  <si>
+    <t>Sure, I'd be happy to explain functions in TypeScript!</t>
+  </si>
+  <si>
+    <t>In TypeScript, you can define functions with typed parameters and return values. This helps ensure that your function is receiving the correct input and returning the correct output.</t>
+  </si>
+  <si>
+    <t>To define a function in TypeScript, you start with the `function` keyword followed by the function name, a set of parentheses `()`, and the function's parameters (if any). You can then specify the return type of the function using a colon `:` and the return type. Here's an example:</t>
+  </si>
+  <si>
+    <t>function addNumbers(a: number, b: number): number {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return a + b;</t>
+  </si>
+  <si>
+    <t>In this example, we define a function `addNumbers` that takes two parameters, `a` and `b`, both of type `number`. The function returns the sum of `a` and `b`, which is also of type `number`.</t>
+  </si>
+  <si>
+    <t>You can also define optional parameters by adding a question mark `?` after the parameter name. Optional parameters can be `undefined` or have the specified type. Here's an example:</t>
+  </si>
+  <si>
+    <t>function sayHello(name?: string): string {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  if (name) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return `Hello, ${name}!`;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  } else {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return "Hello!";</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>In this example, we define a function `sayHello` that takes an optional parameter `name` of type `string`. If `name` is provided, the function returns a string that includes the name; otherwise, it returns a generic greeting.</t>
+  </si>
+  <si>
+    <t>You can also define default parameter values by assigning a value to the parameter in the function definition. Here's an example:</t>
+  </si>
+  <si>
+    <t>function greet(name: string = "World"): string {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return `Hello, ${name}!`;</t>
+  </si>
+  <si>
+    <t>In this example, we define a function `greet` that takes a parameter `name` of type `string`, with a default value of `"World"`. If `name` is not provided, the function uses the default value.</t>
+  </si>
+  <si>
+    <t>Finally, you can define function overloading in TypeScript, which allows you to define multiple function signatures for a single function name. Here's an example:</t>
+  </si>
+  <si>
+    <t>function print(value: string): void;</t>
+  </si>
+  <si>
+    <t>function print(value: number): void;</t>
+  </si>
+  <si>
+    <t>function print(value: string | number): void {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  console.log(value);</t>
+  </si>
+  <si>
+    <t>In this example, we define a function `print` with three function signatures: one that takes a `string` parameter, one that takes a `number` parameter, and a third that takes a parameter of either type. The actual function implementation is the third signature, which uses a union type to accept either a `string` or `number` parameter.</t>
+  </si>
+  <si>
+    <t>I hope this helps! Let me know if you have any more questions.</t>
+  </si>
+  <si>
+    <t>Sure, I'd be happy to explain classes in TypeScript!</t>
+  </si>
+  <si>
+    <t>In TypeScript, you can define classes using the `class` keyword, just like in JavaScript. Classes in TypeScript allow you to define properties and methods with explicit types, as well as implement interfaces and inheritance.</t>
+  </si>
+  <si>
+    <t>To define a class in TypeScript, you start with the `class` keyword followed by the class name and a set of curly braces `{}`. You can then define properties and methods within the class. Here's an example:</t>
+  </si>
+  <si>
+    <t>class Person {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  name: string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  age: number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  constructor(name: string, age: number) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    this.name = name;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    this.age = age;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  greet() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log(`Hello, my name is ${this.name} and I'm ${this.age} years old.`);</t>
+  </si>
+  <si>
+    <t>In this example, we define a class `Person` with two properties, `name` and `age`, both of type `string` and `number`, respectively. We also define a constructor that takes parameters `name` and `age` and assigns them to the corresponding properties. Finally, we define a method `greet` that logs a greeting using the `name` and `age` properties.</t>
+  </si>
+  <si>
+    <t>You can also define access modifiers for class properties and methods using the keywords `public`, `private`, and `protected`. These modifiers control the visibility and accessibility of class members. Here's an example:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  public name: string;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  private age: number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  public greet() {</t>
+  </si>
+  <si>
+    <t>In this example, we define `name` as a `public` property and `age` as a `private` property. This means that `name` can be accessed and modified from outside the class, while `age` can only be accessed and modified from within the class.</t>
+  </si>
+  <si>
+    <t>You can also use inheritance in TypeScript to define a subclass that extends a base class. To do this, you use the `extends` keyword followed by the name of the base class. Here's an example:</t>
+  </si>
+  <si>
+    <t>class Student extends Person {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  grade: number;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  constructor(name: string, age: number, grade: number) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    super(name, age);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    this.grade = grade;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  study() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log(`${this.name} is studying hard for their ${this.grade} grade.`);</t>
+  </si>
+  <si>
+    <t>In this example, we define a subclass `Student` that extends the base class `Person`. The `Student` class adds a `grade` property and a `study` method. The `super` keyword is used to call the constructor of the base class and pass in the `name` and `age` parameters.</t>
+  </si>
+  <si>
+    <t>Sure, I'd be happy to explain interfaces in TypeScript!</t>
+  </si>
+  <si>
+    <t>Interfaces are a powerful feature in TypeScript that allow you to define the structure of an object, without actually implementing the object. In other words, interfaces define a contract or a set of rules that an object must follow. This can be useful for ensuring consistency and preventing errors in your code.</t>
+  </si>
+  <si>
+    <t>To define an interface in TypeScript, you use the `interface` keyword followed by the name of the interface and a set of curly braces `{}`. Within the curly braces, you define the properties and their types that the interface requires. Here's an example:</t>
+  </si>
+  <si>
+    <t>interface Person {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  greet: () =&gt; void;</t>
+  </si>
+  <si>
+    <t>In this example, we define an interface `Person` with three properties: `name` of type `string`, `age` of type `number`, and `greet` of type function that returns `void`. This interface defines the contract that any object that implements `Person` must follow.</t>
+  </si>
+  <si>
+    <t>To implement an interface in TypeScript, you simply use the interface name as a type annotation for the object. Here's an example:</t>
+  </si>
+  <si>
+    <t>class Student implements Person {</t>
+  </si>
+  <si>
+    <t>In this example, we define a class `Student` that implements the `Person` interface. We define the `name` and `age` properties as required by the interface, and we also define the `greet` method that satisfies the interface's requirement for a method that returns `void`.</t>
+  </si>
+  <si>
+    <t>If you try to implement the `Person` interface in a class, but you don't provide all the properties and methods required by the interface, TypeScript will give you an error. This can be useful for catching errors before they happen at runtime.</t>
+  </si>
+  <si>
+    <t>Sure, I'd be happy to explain enums in TypeScript!</t>
+  </si>
+  <si>
+    <t>Enums, short for "enumerations," are a feature in TypeScript that allow you to define a set of named values. Enums are useful when you have a set of related values that are not necessarily numeric, and you want to give them a more descriptive name.</t>
+  </si>
+  <si>
+    <t>To define an enum in TypeScript, you use the `enum` keyword followed by the name of the enum and a set of curly braces `{}`. Within the curly braces, you define the named values for the enum, separated by commas. Here's an example:</t>
+  </si>
+  <si>
+    <t>enum Direction {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Up,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Down,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Left,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Right,</t>
+  </si>
+  <si>
+    <t>In this example, we define an enum `Direction` with four named values: `Up`, `Down`, `Left`, and `Right`. By default, the values of an enum start at `0` and increment by `1` for each subsequent named value. So `Up` has a value of `0`, `Down` has a value of `1`, and so on.</t>
+  </si>
+  <si>
+    <t>You can also assign explicit numeric values to each named value in the enum, like this:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Up = 1,</t>
+  </si>
+  <si>
+    <t>In this example, we assign a value of `1` to `Up`, and the subsequent named values `Down`, `Left`, and `Right` continue to increment from there.</t>
+  </si>
+  <si>
+    <t>To use an enum in TypeScript, you simply reference it by name and the named value you want to use, like this:</t>
+  </si>
+  <si>
+    <t>let direction: Direction = Direction.Up;</t>
+  </si>
+  <si>
+    <t>console.log(direction); // Output: 0</t>
+  </si>
+  <si>
+    <t>In this example, we declare a variable `direction` of type `Direction`, and we assign it the value `Direction.Up`. When we log `direction` to the console, we get the numeric value of `0`, which corresponds to the named value `Up`.</t>
+  </si>
+  <si>
+    <t>Enums can be useful for making your code more readable and easier to understand. They can also help catch errors by ensuring that you are using a valid value from a set of named values.</t>
+  </si>
+  <si>
+    <t>Sure, I'd be happy to explain generics in TypeScript!</t>
+  </si>
+  <si>
+    <t>Generics are a powerful feature in TypeScript that allow you to write reusable code that can work with a variety of different types. They are particularly useful when you're working with collections or data structures, because they allow you to write code that can work with any type of data, without having to specify the type in advance.</t>
+  </si>
+  <si>
+    <t>To define a generic type or function in TypeScript, you use the `&lt;T&gt;` syntax, where `T` is a placeholder for the type that will be passed in at runtime. Here's an example:</t>
+  </si>
+  <si>
+    <t>function identity&lt;T&gt;(arg: T): T {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  return arg;</t>
+  </si>
+  <si>
+    <t>In this example, we define a function `identity` that takes a single argument of type `T`, and returns a value of the same type `T`. The `&lt;T&gt;` syntax before the function parameter is what defines `T` as a generic type placeholder.</t>
+  </si>
+  <si>
+    <t>You can then call this function with any type of argument, and TypeScript will automatically infer the type based on the argument you provide. For example:</t>
+  </si>
+  <si>
+    <t>let result1 = identity("Hello, world!"); // result1 is a string</t>
+  </si>
+  <si>
+    <t>let result2 = identity(42); // result2 is a number</t>
+  </si>
+  <si>
+    <t>In this example, we call the `identity` function with two different types of arguments: a string and a number. TypeScript infers the types of `result1` and `result2` based on the types of the arguments that were passed in.</t>
+  </si>
+  <si>
+    <t>You can also define generic classes and interfaces in TypeScript, which work in a similar way. Here's an example:</t>
+  </si>
+  <si>
+    <t>interface Collection&lt;T&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  add(item: T): void;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  remove(item: T): void;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  toArray(): T[];</t>
+  </si>
+  <si>
+    <t>class Stack&lt;T&gt; implements Collection&lt;T&gt; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  private items: T[] = [];</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  add(item: T) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    this.items.push(item);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  remove(item: T) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    let index = this.items.indexOf(item);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    if (index !== -1) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      this.items.splice(index, 1);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  toArray() {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return this.items;</t>
+  </si>
+  <si>
+    <t>In this example, we define an interface `Collection` with three methods that work with a generic type `T`. We also define a class `Stack` that implements the `Collection` interface with a specific type `T`.</t>
+  </si>
+  <si>
+    <t>Generics can be very useful for writing reusable code that works with a variety of different types, without having to rewrite the same code over and over again. They are particularly useful for working with collections and data structures.</t>
+  </si>
+  <si>
+    <t>Sure, I'd be happy to explain type aliases in TypeScript!</t>
+  </si>
+  <si>
+    <t>Type aliases are a way to create a new name for a type that already exists in TypeScript. They are useful when you have a complex type that you want to use in multiple places, or when you want to give a more descriptive name to a type.</t>
+  </si>
+  <si>
+    <t>To define a type alias in TypeScript, you use the `type` keyword followed by the name of the alias and the existing type that you want to alias. Here's an example:</t>
+  </si>
+  <si>
+    <t>type MyString = string;</t>
+  </si>
+  <si>
+    <t>In this example, we define a type alias `MyString` that is simply an alias for the `string` type. We can now use `MyString` anywhere we would use `string`.</t>
+  </si>
+  <si>
+    <t>Type aliases can also be used to define more complex types, including union types and intersection types. For example:</t>
+  </si>
+  <si>
+    <t>type MyStringOrNumber = string | number;</t>
+  </si>
+  <si>
+    <t>type Person = {</t>
+  </si>
+  <si>
+    <t>};</t>
+  </si>
+  <si>
+    <t>type Employee = Person &amp; {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  id: string;</t>
+  </si>
+  <si>
+    <t>In this example, we define a type alias `MyStringOrNumber` that is a union type of `string` and `number`. We also define two more complex type aliases: `Person` is an object with a `name` property of type `string` and an `age` property of type `number`, and `Employee` is an object that extends `Person` with an additional `id` property of type `string`.</t>
+  </si>
+  <si>
+    <t>Type aliases can be very useful for making your code more readable and easier to understand, by giving more descriptive names to your types. They can also help reduce duplication in your code, by allowing you to reuse complex types in multiple places.</t>
+  </si>
+  <si>
+    <t>1 variables</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.interfaces</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.enums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.generics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In typeScript we can declare specific types</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this example, we declare a variable `name` with type `string` and assign it the value `"John"`. We also declare a variable `age` with type `number` and assign it the value `30`. Note that we use the `const` keyword to declare `age` as a constant variable, which means its value cannot be changed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>example)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>let name: string = "John";</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const age:number=30;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3411,6 +3886,12 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD1D5DB"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3683,7 +4164,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3899,6 +4380,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -23894,8 +24378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25172,6 +25656,1251 @@
     <row r="252" spans="1:1">
       <c r="A252" s="11">
         <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H337"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="8" max="8" width="117.625" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="H1" s="4" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="49.5">
+      <c r="H11" s="4" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="H13" s="4" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="H15" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="H16" s="4" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8">
+      <c r="H17" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="4" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="21" spans="8:8">
+      <c r="H21" s="4" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="23" spans="8:8">
+      <c r="H23" s="4" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="24" spans="8:8">
+      <c r="H24" s="4" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="25" spans="8:8">
+      <c r="H25" s="4" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="26" spans="8:8">
+      <c r="H26" s="4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="27" spans="8:8">
+      <c r="H27" s="4" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="29" spans="8:8">
+      <c r="H29" s="4" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="31" spans="8:8">
+      <c r="H31" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="32" spans="8:8">
+      <c r="H32" s="4" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="33" spans="8:8">
+      <c r="H33" s="4" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="34" spans="8:8">
+      <c r="H34" s="4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="35" spans="8:8">
+      <c r="H35" s="4" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="36" spans="8:8">
+      <c r="H36" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8" ht="49.5">
+      <c r="H38" s="4" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="40" spans="8:8">
+      <c r="H40" s="4" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" s="4" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="43" spans="8:8">
+      <c r="H43" s="4" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="45" spans="8:8" ht="33">
+      <c r="H45" s="4" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="47" spans="8:8" ht="49.5">
+      <c r="H47" s="4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="49" spans="8:8">
+      <c r="H49" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="50" spans="8:8">
+      <c r="H50" s="4" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="51" spans="8:8">
+      <c r="H51" s="4" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="52" spans="8:8">
+      <c r="H52" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="53" spans="8:8">
+      <c r="H53" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="55" spans="8:8" ht="33">
+      <c r="H55" s="4" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="57" spans="8:8" ht="33">
+      <c r="H57" s="4" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="59" spans="8:8">
+      <c r="H59" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="60" spans="8:8">
+      <c r="H60" s="4" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="61" spans="8:8">
+      <c r="H61" s="4" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="62" spans="8:8">
+      <c r="H62" s="4" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="63" spans="8:8">
+      <c r="H63" s="4" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="64" spans="8:8">
+      <c r="H64" s="4" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="65" spans="8:8">
+      <c r="H65" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="66" spans="8:8">
+      <c r="H66" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="8:8">
+      <c r="H67" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="69" spans="8:8" ht="33">
+      <c r="H69" s="4" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="71" spans="8:8">
+      <c r="H71" s="4" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="73" spans="8:8">
+      <c r="H73" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="74" spans="8:8">
+      <c r="H74" s="4" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="75" spans="8:8">
+      <c r="H75" s="4" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="76" spans="8:8">
+      <c r="H76" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="77" spans="8:8">
+      <c r="H77" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="79" spans="8:8" ht="33">
+      <c r="H79" s="4" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="81" spans="8:8" ht="33">
+      <c r="H81" s="4" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="83" spans="8:8">
+      <c r="H83" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="84" spans="8:8">
+      <c r="H84" s="4" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="85" spans="8:8">
+      <c r="H85" s="4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="86" spans="8:8">
+      <c r="H86" s="4" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="87" spans="8:8">
+      <c r="H87" s="4" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="88" spans="8:8">
+      <c r="H88" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="89" spans="8:8">
+      <c r="H89" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="91" spans="8:8" ht="49.5">
+      <c r="H91" s="4" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="93" spans="8:8">
+      <c r="H93" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="95" spans="8:8">
+      <c r="H95" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="96" spans="8:8">
+      <c r="H96" s="4" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="98" spans="8:8" ht="33">
+      <c r="H98" s="4" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="100" spans="8:8" ht="33">
+      <c r="H100" s="4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="102" spans="8:8">
+      <c r="H102" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="103" spans="8:8">
+      <c r="H103" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="104" spans="8:8">
+      <c r="H104" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="105" spans="8:8">
+      <c r="H105" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="107" spans="8:8">
+      <c r="H107" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="108" spans="8:8">
+      <c r="H108" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="109" spans="8:8">
+      <c r="H109" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="110" spans="8:8">
+      <c r="H110" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="112" spans="8:8">
+      <c r="H112" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="113" spans="8:8">
+      <c r="H113" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="114" spans="8:8">
+      <c r="H114" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="115" spans="8:8">
+      <c r="H115" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="116" spans="8:8">
+      <c r="H116" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="118" spans="8:8" ht="49.5">
+      <c r="H118" s="4" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="120" spans="8:8" ht="33">
+      <c r="H120" s="4" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="122" spans="8:8">
+      <c r="H122" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="123" spans="8:8">
+      <c r="H123" s="4" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="124" spans="8:8">
+      <c r="H124" s="4" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="125" spans="8:8">
+      <c r="H125" s="4" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="127" spans="8:8">
+      <c r="H127" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="128" spans="8:8">
+      <c r="H128" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="129" spans="8:8">
+      <c r="H129" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="130" spans="8:8">
+      <c r="H130" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="132" spans="8:8">
+      <c r="H132" s="4" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="133" spans="8:8">
+      <c r="H133" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="134" spans="8:8">
+      <c r="H134" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="135" spans="8:8">
+      <c r="H135" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="136" spans="8:8">
+      <c r="H136" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="138" spans="8:8" ht="33">
+      <c r="H138" s="4" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="140" spans="8:8" ht="33">
+      <c r="H140" s="4" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="142" spans="8:8">
+      <c r="H142" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="143" spans="8:8">
+      <c r="H143" s="4" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="144" spans="8:8">
+      <c r="H144" s="4" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="146" spans="8:8">
+      <c r="H146" s="4" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="147" spans="8:8">
+      <c r="H147" s="4" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="148" spans="8:8">
+      <c r="H148" s="4" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="149" spans="8:8">
+      <c r="H149" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="151" spans="8:8">
+      <c r="H151" s="4" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="152" spans="8:8">
+      <c r="H152" s="4" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="153" spans="8:8">
+      <c r="H153" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="154" spans="8:8">
+      <c r="H154" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="155" spans="8:8">
+      <c r="H155" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="157" spans="8:8" ht="33">
+      <c r="H157" s="4" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="159" spans="8:8">
+      <c r="H159" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="161" spans="8:8">
+      <c r="H161" s="4" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="162" spans="8:8">
+      <c r="H162" s="4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="164" spans="8:8" ht="49.5">
+      <c r="H164" s="4" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="166" spans="8:8" ht="33">
+      <c r="H166" s="4" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="168" spans="8:8">
+      <c r="H168" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="169" spans="8:8">
+      <c r="H169" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="170" spans="8:8">
+      <c r="H170" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="171" spans="8:8">
+      <c r="H171" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="172" spans="8:8">
+      <c r="H172" s="4" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="173" spans="8:8">
+      <c r="H173" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="174" spans="8:8">
+      <c r="H174" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="176" spans="8:8" ht="33">
+      <c r="H176" s="4" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="178" spans="8:8">
+      <c r="H178" s="4" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="180" spans="8:8">
+      <c r="H180" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="181" spans="8:8">
+      <c r="H181" s="4" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="182" spans="8:8">
+      <c r="H182" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="183" spans="8:8">
+      <c r="H183" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="185" spans="8:8">
+      <c r="H185" s="4" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="186" spans="8:8">
+      <c r="H186" s="4" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="187" spans="8:8">
+      <c r="H187" s="4" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="188" spans="8:8">
+      <c r="H188" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="190" spans="8:8">
+      <c r="H190" s="4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="191" spans="8:8">
+      <c r="H191" s="4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="192" spans="8:8">
+      <c r="H192" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="193" spans="8:8">
+      <c r="H193" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="194" spans="8:8">
+      <c r="H194" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="196" spans="8:8" ht="49.5">
+      <c r="H196" s="4" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="198" spans="8:8" ht="33">
+      <c r="H198" s="4" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="200" spans="8:8">
+      <c r="H200" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="202" spans="8:8">
+      <c r="H202" s="4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="203" spans="8:8">
+      <c r="H203" s="4" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="205" spans="8:8" ht="33">
+      <c r="H205" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="207" spans="8:8" ht="33">
+      <c r="H207" s="4" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="209" spans="8:8">
+      <c r="H209" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="210" spans="8:8">
+      <c r="H210" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="211" spans="8:8">
+      <c r="H211" s="4" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="212" spans="8:8">
+      <c r="H212" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="213" spans="8:8">
+      <c r="H213" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="214" spans="8:8">
+      <c r="H214" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="215" spans="8:8">
+      <c r="H215" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="216" spans="8:8">
+      <c r="H216" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="218" spans="8:8" ht="33">
+      <c r="H218" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="220" spans="8:8">
+      <c r="H220" s="4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="222" spans="8:8">
+      <c r="H222" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="223" spans="8:8">
+      <c r="H223" s="4" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="224" spans="8:8">
+      <c r="H224" s="4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="225" spans="8:8">
+      <c r="H225" s="4" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="226" spans="8:8">
+      <c r="H226" s="4" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="227" spans="8:8">
+      <c r="H227" s="4" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="228" spans="8:8">
+      <c r="H228" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="229" spans="8:8">
+      <c r="H229" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="231" spans="8:8" ht="33">
+      <c r="H231" s="4" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="233" spans="8:8">
+      <c r="H233" s="4" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="235" spans="8:8">
+      <c r="H235" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="236" spans="8:8">
+      <c r="H236" s="4" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="237" spans="8:8">
+      <c r="H237" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="238" spans="8:8">
+      <c r="H238" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="240" spans="8:8" ht="33">
+      <c r="H240" s="4" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="242" spans="8:8" ht="33">
+      <c r="H242" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="244" spans="8:8">
+      <c r="H244" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="246" spans="8:8">
+      <c r="H246" s="4" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="247" spans="8:8">
+      <c r="H247" s="4" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="249" spans="8:8" ht="49.5">
+      <c r="H249" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="251" spans="8:8" ht="33">
+      <c r="H251" s="4" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="253" spans="8:8">
+      <c r="H253" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="254" spans="8:8">
+      <c r="H254" s="4" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="255" spans="8:8">
+      <c r="H255" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="256" spans="8:8">
+      <c r="H256" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="257" spans="8:8">
+      <c r="H257" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="259" spans="8:8" ht="33">
+      <c r="H259" s="4" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="261" spans="8:8" ht="33">
+      <c r="H261" s="4" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="263" spans="8:8">
+      <c r="H263" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="264" spans="8:8">
+      <c r="H264" s="4" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="265" spans="8:8">
+      <c r="H265" s="4" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="266" spans="8:8">
+      <c r="H266" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="268" spans="8:8" ht="33">
+      <c r="H268" s="4" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="270" spans="8:8">
+      <c r="H270" s="4" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="272" spans="8:8">
+      <c r="H272" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="273" spans="8:8">
+      <c r="H273" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="274" spans="8:8">
+      <c r="H274" s="4" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="275" spans="8:8">
+      <c r="H275" s="4" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="276" spans="8:8">
+      <c r="H276" s="4" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="277" spans="8:8">
+      <c r="H277" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="279" spans="8:8">
+      <c r="H279" s="4" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="280" spans="8:8">
+      <c r="H280" s="4" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="282" spans="8:8">
+      <c r="H282" s="4" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="283" spans="8:8">
+      <c r="H283" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="284" spans="8:8">
+      <c r="H284" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="286" spans="8:8">
+      <c r="H286" s="4" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="287" spans="8:8">
+      <c r="H287" s="4" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="288" spans="8:8">
+      <c r="H288" s="4" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="289" spans="8:8">
+      <c r="H289" s="4" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="290" spans="8:8">
+      <c r="H290" s="4" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="291" spans="8:8">
+      <c r="H291" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="293" spans="8:8">
+      <c r="H293" s="4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="294" spans="8:8">
+      <c r="H294" s="4" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="295" spans="8:8">
+      <c r="H295" s="4" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="296" spans="8:8">
+      <c r="H296" s="4" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="297" spans="8:8">
+      <c r="H297" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="299" spans="8:8" ht="33">
+      <c r="H299" s="4" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="301" spans="8:8" ht="33">
+      <c r="H301" s="4" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="303" spans="8:8">
+      <c r="H303" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="306" spans="8:8">
+      <c r="H306" s="4" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="308" spans="8:8" ht="33">
+      <c r="H308" s="4" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="310" spans="8:8" ht="33">
+      <c r="H310" s="4" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="312" spans="8:8">
+      <c r="H312" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="313" spans="8:8">
+      <c r="H313" s="4" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="314" spans="8:8">
+      <c r="H314" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="316" spans="8:8" ht="33">
+      <c r="H316" s="4" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="318" spans="8:8">
+      <c r="H318" s="4" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="320" spans="8:8">
+      <c r="H320" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="321" spans="8:8">
+      <c r="H321" s="4" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="323" spans="8:8">
+      <c r="H323" s="4" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="324" spans="8:8">
+      <c r="H324" s="4" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="325" spans="8:8">
+      <c r="H325" s="4" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="326" spans="8:8">
+      <c r="H326" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="328" spans="8:8">
+      <c r="H328" s="4" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="329" spans="8:8">
+      <c r="H329" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="330" spans="8:8">
+      <c r="H330" s="4" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="331" spans="8:8">
+      <c r="H331" s="4" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="333" spans="8:8" ht="49.5">
+      <c r="H333" s="4" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="335" spans="8:8" ht="33">
+      <c r="H335" s="4" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="337" spans="8:8">
+      <c r="H337" s="4" t="s">
+        <v>891</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25">
+      <c r="A1" s="72" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25">
+      <c r="A2" s="72" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25">
+      <c r="A3" s="72" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.25">
+      <c r="A4" s="72" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.25">
+      <c r="A5" s="72" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17.25">
+      <c r="A6" s="72" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17.25">
+      <c r="A7" s="72" t="s">
+        <v>849</v>
       </c>
     </row>
   </sheetData>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="7" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -4369,6 +4369,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4380,9 +4383,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -25668,7 +25668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
@@ -26869,37 +26869,37 @@
   <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="1" spans="1:1" ht="17.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="68" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="68" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="68" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="68" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="68" t="s">
         <v>849</v>
       </c>
     </row>
@@ -30018,7 +30018,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="69" t="s">
         <v>375</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -30026,13 +30026,13 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="68"/>
+      <c r="A3" s="69"/>
       <c r="B3" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="68"/>
+      <c r="A4" s="69"/>
       <c r="C4" s="1" t="s">
         <v>372</v>
       </c>
@@ -30041,19 +30041,19 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="68"/>
+      <c r="A5" s="69"/>
       <c r="C5" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="68"/>
+      <c r="A6" s="69"/>
       <c r="B6" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="68"/>
+      <c r="A7" s="69"/>
       <c r="B7" s="1" t="s">
         <v>368</v>
       </c>
@@ -30062,7 +30062,7 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="68"/>
+      <c r="A8" s="69"/>
       <c r="C8" s="1" t="s">
         <v>366</v>
       </c>
@@ -30080,7 +30080,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="68"/>
+      <c r="A9" s="69"/>
       <c r="B9" s="1" t="s">
         <v>362</v>
       </c>
@@ -30098,7 +30098,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="68"/>
+      <c r="A10" s="69"/>
       <c r="B10" s="1" t="s">
         <v>358</v>
       </c>
@@ -30110,7 +30110,7 @@
     </row>
     <row r="13" spans="1:19" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:19" s="38" customFormat="1">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="70" t="s">
         <v>356</v>
       </c>
       <c r="B14" s="48" t="s">
@@ -30135,7 +30135,7 @@
       <c r="S14" s="48"/>
     </row>
     <row r="15" spans="1:19" s="35" customFormat="1">
-      <c r="A15" s="70"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="49" t="s">
         <v>354</v>
       </c>
@@ -30158,7 +30158,7 @@
       <c r="S15" s="49"/>
     </row>
     <row r="16" spans="1:19" s="35" customFormat="1">
-      <c r="A16" s="70"/>
+      <c r="A16" s="71"/>
       <c r="B16" s="49" t="s">
         <v>353</v>
       </c>
@@ -30181,7 +30181,7 @@
       <c r="S16" s="49"/>
     </row>
     <row r="17" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A17" s="71"/>
+      <c r="A17" s="72"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -30202,7 +30202,7 @@
       <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" s="38" customFormat="1">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="70" t="s">
         <v>352</v>
       </c>
       <c r="B18" s="48"/>
@@ -30233,7 +30233,7 @@
       <c r="S18" s="48"/>
     </row>
     <row r="19" spans="1:19" s="35" customFormat="1">
-      <c r="A19" s="70"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="49" t="s">
         <v>349</v>
       </c>
@@ -30264,7 +30264,7 @@
       <c r="S19" s="49"/>
     </row>
     <row r="20" spans="1:19" s="35" customFormat="1">
-      <c r="A20" s="70"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49" t="s">
         <v>344</v>
@@ -30293,7 +30293,7 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A21" s="71"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="s">
         <v>340</v>
@@ -32396,8 +32396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="12" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -26,9 +26,12 @@
     <sheet name="TIP-Spring" sheetId="2" r:id="rId12"/>
     <sheet name="spring ex" sheetId="15" r:id="rId13"/>
     <sheet name="etc" sheetId="14" r:id="rId14"/>
-    <sheet name="SQL" sheetId="17" r:id="rId15"/>
-    <sheet name="typescript" sheetId="18" r:id="rId16"/>
-    <sheet name="Sheet3" sheetId="20" r:id="rId17"/>
+    <sheet name="TIP" sheetId="23" r:id="rId15"/>
+    <sheet name="SQL" sheetId="17" r:id="rId16"/>
+    <sheet name="Sheet1" sheetId="21" r:id="rId17"/>
+    <sheet name="Sheet2" sheetId="22" r:id="rId18"/>
+    <sheet name="typescript" sheetId="18" r:id="rId19"/>
+    <sheet name="Sheet3" sheetId="20" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CSS!$A$1:$G$31</definedName>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1743" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="1032">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3782,6 +3785,120 @@
   </si>
   <si>
     <t>const age:number=30;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> if()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IFNULL("@",결과값, 거짓일때)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조건문을 추가시킨다, 일단 select 하단에 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;~~ repository "&lt;&gt;"가 인식이 안되니 활용함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브쿼리는 성능저하의 원인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 서브쿼리 버전</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT A.*, </t>
+  </si>
+  <si>
+    <t>IFNULL(SUM(RP.point),0) AS extra__sumReactionPoint,</t>
+  </si>
+  <si>
+    <t>IFNULL(SUM(IF(RP.point &gt; 0, RP.point, 0)),0) AS extra__goodReactionPoint,</t>
+  </si>
+  <si>
+    <t>IFNULL(SUM(IF(RP.point &lt; 0, RP.point, 0)),0) AS extra__badReactionPoint</t>
+  </si>
+  <si>
+    <t>FROM (</t>
+  </si>
+  <si>
+    <t>SELECT A.*, M.nickname AS extra__writerName</t>
+  </si>
+  <si>
+    <t>FROM article AS A</t>
+  </si>
+  <si>
+    <t>LEFT JOIN `member` AS M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON A.memberId= M.id </t>
+  </si>
+  <si>
+    <t>) AS A</t>
+  </si>
+  <si>
+    <t>LEFT JOIN reactionPoint AS RP</t>
+  </si>
+  <si>
+    <t>ON RP.relTypeCode = 'article'</t>
+  </si>
+  <si>
+    <t>AND A.id = RP.relId</t>
+  </si>
+  <si>
+    <t>GROUP BY A.id</t>
+  </si>
+  <si>
+    <t>ORDER BY id DESC;</t>
+  </si>
+  <si>
+    <t># join 버전</t>
+  </si>
+  <si>
+    <t>SELECT A.*,</t>
+  </si>
+  <si>
+    <t>IFNULL(SUM(IF(RP.point &gt; 0,RP.point,0)),0) AS extra__goodReactionPoint,</t>
+  </si>
+  <si>
+    <t>IFNULL(SUM(IF(RP.point &lt; 0,RP.point,0)),0) AS extra__badReactionPoint,</t>
+  </si>
+  <si>
+    <t>M.nickname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INNER JOIN `member` AS M </t>
+  </si>
+  <si>
+    <t>ON A.memberId = M.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEFT JOIN reactionPoint AS RP </t>
+  </si>
+  <si>
+    <t>ON A.id = RP.relId AND RP.relTypeCode = 'article'</t>
+  </si>
+  <si>
+    <t>ORDER BY A.id DESC;</t>
+  </si>
+  <si>
+    <t>AND A.id = RP.relId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3943,7 +4060,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -4152,6 +4269,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4164,7 +4318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4383,6 +4537,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -24157,7 +24320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -24376,10 +24539,42 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C252"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:C26"/>
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D252"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -24387,17 +24582,21 @@
     <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="2" width="11.125" style="11" customWidth="1"/>
     <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="4" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="67" customFormat="1">
+    <row r="1" spans="1:4" s="67" customFormat="1">
       <c r="B1" s="67" t="s">
         <v>840</v>
       </c>
       <c r="C1" s="67" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="67" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -24408,72 +24607,87 @@
         <v>842</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="11" t="s">
+        <v>997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>999</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="11">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="11">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="11">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="11">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" s="11">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="11">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" s="11">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -25664,7 +25878,225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="2" spans="3:11">
+      <c r="C2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11">
+      <c r="C3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11">
+      <c r="C4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11">
+      <c r="C5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11">
+      <c r="C6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11">
+      <c r="C7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11">
+      <c r="D8" t="s">
+        <v>1011</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11">
+      <c r="D9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11">
+      <c r="D10" t="s">
+        <v>1013</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11">
+      <c r="D11" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11">
+      <c r="F12" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11">
+      <c r="C13" t="s">
+        <v>1016</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11">
+      <c r="C14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11">
+      <c r="C15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11">
+      <c r="C16" t="s">
+        <v>1019</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="C17" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="19" spans="2:9">
+      <c r="B19" s="39" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="39" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H19" s="38"/>
+      <c r="I19" s="37"/>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="13" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="13" t="s">
+        <v>1017</v>
+      </c>
+      <c r="H20" s="35"/>
+      <c r="I20" s="14"/>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21" s="13" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="13" t="s">
+        <v>1031</v>
+      </c>
+      <c r="H21" s="35"/>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B22" s="15" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="24" spans="2:9" ht="17.25" thickBot="1">
+      <c r="B24" s="73" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H337"/>
   <sheetViews>
@@ -26850,57 +27282,6 @@
     <row r="337" spans="8:8">
       <c r="H337" s="4" t="s">
         <v>891</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <sheetData>
-    <row r="1" spans="1:1" ht="17.25">
-      <c r="A1" s="68" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="17.25">
-      <c r="A2" s="68" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="17.25">
-      <c r="A3" s="68" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="17.25">
-      <c r="A4" s="68" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="17.25">
-      <c r="A5" s="68" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="17.25">
-      <c r="A6" s="68" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="17.25">
-      <c r="A7" s="68" t="s">
-        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -27402,6 +27783,57 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="17.25">
+      <c r="A1" s="68" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="17.25">
+      <c r="A2" s="68" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="17.25">
+      <c r="A3" s="68" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="17.25">
+      <c r="A4" s="68" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="17.25">
+      <c r="A5" s="68" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="17.25">
+      <c r="A6" s="68" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17.25">
+      <c r="A7" s="68" t="s">
+        <v>849</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -32396,8 +32828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="12" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="JS" sheetId="8" r:id="rId4"/>
     <sheet name="JS ex)" sheetId="11" r:id="rId5"/>
     <sheet name="jsp-servlet" sheetId="1" r:id="rId6"/>
-    <sheet name="Spr St" sheetId="7" r:id="rId7"/>
-    <sheet name="JSP" sheetId="3" r:id="rId8"/>
-    <sheet name="TIp-front" sheetId="13" r:id="rId9"/>
-    <sheet name="T.O.E." sheetId="5" r:id="rId10"/>
+    <sheet name="JSP" sheetId="3" r:id="rId7"/>
+    <sheet name="TIp-front" sheetId="13" r:id="rId8"/>
+    <sheet name="T.O.E." sheetId="5" r:id="rId9"/>
+    <sheet name="Spr St" sheetId="7" r:id="rId10"/>
     <sheet name="Spring" sheetId="16" r:id="rId11"/>
     <sheet name="TIP-Spring" sheetId="2" r:id="rId12"/>
     <sheet name="spring ex" sheetId="15" r:id="rId13"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="1061">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3084,10 +3084,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>grid-column-start:@;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>grid column set value  @</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3899,6 +3895,125 @@
   </si>
   <si>
     <t>AND A.id = RP.relId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Essential logic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To access DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>client input or click trigger something</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsp send data to controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>service makes info and pass to repo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>controller pass data to service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repo make logic and exchange with DB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리드 end point 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음수면 오른쪽 기준/span @</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>span @</t>
+  </si>
+  <si>
+    <t>@~@ 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  display: grid;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  grid-template-columns: </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  grid-template-rows:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@% @% …;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid 
+초기 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid-column: @/ span @; -&gt; okay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> grid-row~~/grid-column-start:@; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> grid-row~~/grid-column-end:@;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> grid-row~~/grid-column: @/@;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grid-area:@/@/@/@;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row-start&gt;column-st&gt;rw-end&gt;col-end</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3906,7 +4021,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4009,6 +4124,13 @@
       <color rgb="FFD1D5DB"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -4318,7 +4440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4526,6 +4648,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4538,14 +4669,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -19892,158 +20023,334 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G21"/>
+  <dimension ref="B2:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="9"/>
-    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="35.75" style="4" customWidth="1"/>
-    <col min="6" max="6" width="31" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.75" style="4" customWidth="1"/>
-    <col min="8" max="9" width="19.75" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="19"/>
+    <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="19" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="17.5" style="19" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="19"/>
+    <col min="11" max="11" width="6.625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="19"/>
+    <col min="13" max="13" width="6.625" style="19" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="19"/>
+    <col min="16" max="16" width="7.375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="35.125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="25.625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="43.625" style="19" customWidth="1"/>
+    <col min="20" max="20" width="27" style="19" customWidth="1"/>
+    <col min="21" max="16384" width="15.625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="9" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="49.5">
-      <c r="A2" s="9">
-        <v>1</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>780</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="49.5">
-      <c r="A3" s="9">
-        <v>2</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>783</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>785</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="9">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="9">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="9">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="9">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="9">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="9">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="9">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="9">
-        <v>20</v>
+    <row r="2" spans="2:20">
+      <c r="Q2" s="24" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="Q3" s="19" t="s">
+        <v>686</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>687</v>
+      </c>
+      <c r="S3" s="19" t="s">
+        <v>690</v>
+      </c>
+      <c r="T3" s="19" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="P4" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q4" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="S4" s="19" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="P5" s="19" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>693</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>694</v>
+      </c>
+      <c r="S5" s="19" t="s">
+        <v>695</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="P6" s="19" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="17.25" thickBot="1">
+      <c r="P7" s="19" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="17.25" thickBot="1">
+      <c r="F8" s="54" t="s">
+        <v>664</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>665</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>667</v>
+      </c>
+      <c r="L8" s="54"/>
+      <c r="P8" s="19" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="F9" s="59" t="s">
+        <v>672</v>
+      </c>
+      <c r="H9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="P9" s="19" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="17.25" thickBot="1">
+      <c r="F10" s="59"/>
+      <c r="G10" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="H10" s="59"/>
+      <c r="I10" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="J10" s="59"/>
+      <c r="K10" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="L10" s="59"/>
+      <c r="P10" s="19" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B11" s="54" t="s">
+        <v>671</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>670</v>
+      </c>
+      <c r="F11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="P11" s="19" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="55"/>
+      <c r="D12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="L12" s="59"/>
+      <c r="N12" s="57" t="s">
+        <v>669</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" ht="17.25" thickBot="1">
+      <c r="B13" s="55"/>
+      <c r="D13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="H13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="L13" s="60"/>
+      <c r="N13" s="59"/>
+      <c r="P13" s="19" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="55"/>
+      <c r="D14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="P14" s="19" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="55"/>
+      <c r="C15" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="D15" s="59"/>
+      <c r="E15" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="F15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="P15" s="19" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="55"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="59"/>
+      <c r="N16" s="59"/>
+    </row>
+    <row r="17" spans="2:17" ht="17.25" thickBot="1">
+      <c r="B17" s="55"/>
+      <c r="D17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="N17" s="59"/>
+    </row>
+    <row r="18" spans="2:17" ht="17.25" thickBot="1">
+      <c r="B18" s="55"/>
+      <c r="D18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="H18" s="54" t="s">
+        <v>666</v>
+      </c>
+      <c r="J18" s="54" t="s">
+        <v>668</v>
+      </c>
+      <c r="L18" s="54"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="19" t="s">
+        <v>1031</v>
+      </c>
+      <c r="P18" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17.25" thickBot="1">
+      <c r="B19" s="55"/>
+      <c r="D19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="N19" s="60"/>
+      <c r="P19" s="19" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17" ht="17.25" thickBot="1">
+      <c r="B20" s="58"/>
+      <c r="D20" s="60"/>
+      <c r="F20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="P20" s="19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="F21" s="59"/>
+      <c r="G21" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="H21" s="59"/>
+      <c r="I21" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="J21" s="59"/>
+      <c r="K21" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="L21" s="59"/>
+      <c r="P21" s="19" t="s">
+        <v>1034</v>
+      </c>
+      <c r="Q21" s="19" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="F22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="P22" s="19" t="s">
+        <v>1035</v>
+      </c>
+      <c r="Q22" s="19" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" ht="17.25" thickBot="1">
+      <c r="F23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="L23" s="60"/>
+      <c r="P23" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="Q23" s="19" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
+      <c r="P24" s="19" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17">
+      <c r="P25" s="19" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="G26" s="61" t="s">
+        <v>663</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -20259,13 +20566,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>819</v>
+      </c>
+      <c r="C13" s="24" t="s">
         <v>820</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="D13" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -21204,13 +21511,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>793</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>794</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -21218,13 +21525,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>796</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -21232,13 +21539,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>799</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -21246,10 +21553,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="49.5">
@@ -21257,13 +21564,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>812</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>813</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -21271,13 +21578,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>815</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="E18" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>817</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -21285,10 +21592,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>818</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -21301,13 +21608,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>824</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>825</v>
-      </c>
       <c r="D21" s="63" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -24416,32 +24723,32 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" t="s">
+        <v>803</v>
+      </c>
+      <c r="C13" t="s">
         <v>804</v>
       </c>
-      <c r="C13" t="s">
+      <c r="G13" t="s">
         <v>805</v>
       </c>
-      <c r="G13" t="s">
+      <c r="M13" t="s">
         <v>806</v>
-      </c>
-      <c r="M13" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" t="s">
+        <v>808</v>
+      </c>
+      <c r="C15" t="s">
         <v>809</v>
-      </c>
-      <c r="C15" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -24520,15 +24827,15 @@
     </row>
     <row r="31" spans="2:13">
       <c r="B31" t="s">
+        <v>789</v>
+      </c>
+      <c r="C31" t="s">
         <v>790</v>
-      </c>
-      <c r="C31" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>
@@ -24552,10 +24859,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -24587,13 +24894,13 @@
   <sheetData>
     <row r="1" spans="1:4" s="67" customFormat="1">
       <c r="B1" s="67" t="s">
+        <v>839</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>840</v>
       </c>
-      <c r="C1" s="67" t="s">
-        <v>841</v>
-      </c>
       <c r="D1" s="67" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -24601,10 +24908,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -24612,13 +24919,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="C3" t="s">
+        <v>998</v>
+      </c>
+      <c r="D3" t="s">
         <v>999</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -24626,10 +24933,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
         <v>1001</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -25882,7 +26189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
@@ -25890,169 +26197,169 @@
   <sheetData>
     <row r="2" spans="3:11">
       <c r="C2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3" spans="3:11">
       <c r="C3" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K3" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="4" spans="3:11">
       <c r="C4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="5" spans="3:11">
       <c r="C5" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K5" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6" spans="3:11">
       <c r="C6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="7" spans="3:11">
       <c r="C7" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="8" spans="3:11">
       <c r="D8" t="s">
+        <v>1010</v>
+      </c>
+      <c r="K8" t="s">
         <v>1011</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="9" spans="3:11">
       <c r="D9" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K9" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="10" spans="3:11">
       <c r="D10" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K10" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="11" spans="3:11">
       <c r="D11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12" spans="3:11">
       <c r="F12" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="13" spans="3:11">
       <c r="C13" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K13" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="14" spans="3:11">
       <c r="C14" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K14" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="15" spans="3:11">
       <c r="C15" t="s">
+        <v>1017</v>
+      </c>
+      <c r="K15" t="s">
         <v>1018</v>
-      </c>
-      <c r="K15" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="16" spans="3:11">
       <c r="C16" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K16" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="17" spans="2:9">
       <c r="C17" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="18" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="19" spans="2:9">
       <c r="B19" s="39" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="37"/>
       <c r="G19" s="39" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H19" s="38"/>
       <c r="I19" s="37"/>
     </row>
     <row r="20" spans="2:9">
       <c r="B20" s="13" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="14"/>
       <c r="G20" s="13" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="H20" s="35"/>
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="2:9">
       <c r="B21" s="13" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C21" s="35"/>
       <c r="D21" s="35"/>
       <c r="E21" s="35"/>
       <c r="F21" s="14"/>
       <c r="G21" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="14"/>
     </row>
     <row r="22" spans="2:9" ht="17.25" thickBot="1">
       <c r="B22" s="15" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C22" s="36"/>
       <c r="D22" s="36"/>
@@ -26064,17 +26371,17 @@
     </row>
     <row r="23" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="24" spans="2:9" ht="17.25" thickBot="1">
-      <c r="B24" s="73" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="75"/>
+      <c r="B24" s="69" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
     </row>
     <row r="25" spans="2:9">
       <c r="B25" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -26111,167 +26418,167 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="H1" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="49.5">
       <c r="H11" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="H13" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="H15" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="H16" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="38" spans="8:8" ht="49.5">
       <c r="H38" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="45" spans="8:8" ht="33">
       <c r="H45" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="47" spans="8:8" ht="49.5">
       <c r="H47" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="52" spans="8:8">
@@ -26281,52 +26588,52 @@
     </row>
     <row r="53" spans="8:8">
       <c r="H53" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="55" spans="8:8" ht="33">
       <c r="H55" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="57" spans="8:8" ht="33">
       <c r="H57" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="59" spans="8:8">
       <c r="H59" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="60" spans="8:8">
       <c r="H60" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="61" spans="8:8">
       <c r="H61" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="63" spans="8:8">
       <c r="H63" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="65" spans="8:8">
       <c r="H65" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="66" spans="8:8">
@@ -26336,32 +26643,32 @@
     </row>
     <row r="67" spans="8:8">
       <c r="H67" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="69" spans="8:8" ht="33">
       <c r="H69" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="71" spans="8:8">
       <c r="H71" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="73" spans="8:8">
       <c r="H73" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="74" spans="8:8">
       <c r="H74" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="75" spans="8:8">
       <c r="H75" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="76" spans="8:8">
@@ -26371,42 +26678,42 @@
     </row>
     <row r="77" spans="8:8">
       <c r="H77" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="79" spans="8:8" ht="33">
       <c r="H79" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="81" spans="8:8" ht="33">
       <c r="H81" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="84" spans="8:8">
       <c r="H84" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="85" spans="8:8">
       <c r="H85" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="88" spans="8:8">
@@ -26416,92 +26723,92 @@
     </row>
     <row r="89" spans="8:8">
       <c r="H89" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="91" spans="8:8" ht="49.5">
       <c r="H91" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="98" spans="8:8" ht="33">
       <c r="H98" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="100" spans="8:8" ht="33">
       <c r="H100" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="102" spans="8:8">
       <c r="H102" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="109" spans="8:8">
       <c r="H109" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="110" spans="8:8">
       <c r="H110" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="112" spans="8:8">
       <c r="H112" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="113" spans="8:8">
       <c r="H113" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="114" spans="8:8">
       <c r="H114" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="115" spans="8:8">
@@ -26511,72 +26818,72 @@
     </row>
     <row r="116" spans="8:8">
       <c r="H116" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="118" spans="8:8" ht="49.5">
       <c r="H118" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="120" spans="8:8" ht="33">
       <c r="H120" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="122" spans="8:8">
       <c r="H122" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="123" spans="8:8">
       <c r="H123" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="124" spans="8:8">
       <c r="H124" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="125" spans="8:8">
       <c r="H125" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="127" spans="8:8">
       <c r="H127" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="128" spans="8:8">
       <c r="H128" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="129" spans="8:8">
       <c r="H129" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="130" spans="8:8">
       <c r="H130" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="132" spans="8:8">
       <c r="H132" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="133" spans="8:8">
       <c r="H133" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="134" spans="8:8">
       <c r="H134" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="135" spans="8:8">
@@ -26586,67 +26893,67 @@
     </row>
     <row r="136" spans="8:8">
       <c r="H136" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="138" spans="8:8" ht="33">
       <c r="H138" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="140" spans="8:8" ht="33">
       <c r="H140" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="142" spans="8:8">
       <c r="H142" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="143" spans="8:8">
       <c r="H143" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="144" spans="8:8">
       <c r="H144" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="146" spans="8:8">
       <c r="H146" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="147" spans="8:8">
       <c r="H147" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="148" spans="8:8">
       <c r="H148" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="149" spans="8:8">
       <c r="H149" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="151" spans="8:8">
       <c r="H151" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="152" spans="8:8">
       <c r="H152" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="153" spans="8:8">
       <c r="H153" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="154" spans="8:8">
@@ -26656,62 +26963,62 @@
     </row>
     <row r="155" spans="8:8">
       <c r="H155" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="157" spans="8:8" ht="33">
       <c r="H157" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="159" spans="8:8">
       <c r="H159" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="161" spans="8:8">
       <c r="H161" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="162" spans="8:8">
       <c r="H162" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="164" spans="8:8" ht="49.5">
       <c r="H164" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="166" spans="8:8" ht="33">
       <c r="H166" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="168" spans="8:8">
       <c r="H168" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="169" spans="8:8">
       <c r="H169" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="170" spans="8:8">
       <c r="H170" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="171" spans="8:8">
       <c r="H171" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="172" spans="8:8">
       <c r="H172" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="173" spans="8:8">
@@ -26721,72 +27028,72 @@
     </row>
     <row r="174" spans="8:8">
       <c r="H174" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="176" spans="8:8" ht="33">
       <c r="H176" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="178" spans="8:8">
       <c r="H178" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="180" spans="8:8">
       <c r="H180" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="181" spans="8:8">
       <c r="H181" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="182" spans="8:8">
       <c r="H182" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="183" spans="8:8">
       <c r="H183" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="185" spans="8:8">
       <c r="H185" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="186" spans="8:8">
       <c r="H186" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="187" spans="8:8">
       <c r="H187" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="188" spans="8:8">
       <c r="H188" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="190" spans="8:8">
       <c r="H190" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="191" spans="8:8">
       <c r="H191" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="192" spans="8:8">
       <c r="H192" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="193" spans="8:8">
@@ -26796,72 +27103,72 @@
     </row>
     <row r="194" spans="8:8">
       <c r="H194" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="196" spans="8:8" ht="49.5">
       <c r="H196" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="198" spans="8:8" ht="33">
       <c r="H198" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="200" spans="8:8">
       <c r="H200" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="202" spans="8:8">
       <c r="H202" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="203" spans="8:8">
       <c r="H203" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="205" spans="8:8" ht="33">
       <c r="H205" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="207" spans="8:8" ht="33">
       <c r="H207" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="209" spans="8:8">
       <c r="H209" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="210" spans="8:8">
       <c r="H210" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="211" spans="8:8">
       <c r="H211" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="212" spans="8:8">
       <c r="H212" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="213" spans="8:8">
       <c r="H213" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="214" spans="8:8">
       <c r="H214" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="215" spans="8:8">
@@ -26871,47 +27178,47 @@
     </row>
     <row r="216" spans="8:8">
       <c r="H216" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="218" spans="8:8" ht="33">
       <c r="H218" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="220" spans="8:8">
       <c r="H220" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="222" spans="8:8">
       <c r="H222" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="223" spans="8:8">
       <c r="H223" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="224" spans="8:8">
       <c r="H224" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="225" spans="8:8">
       <c r="H225" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="226" spans="8:8">
       <c r="H226" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="227" spans="8:8">
       <c r="H227" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="228" spans="8:8">
@@ -26921,87 +27228,87 @@
     </row>
     <row r="229" spans="8:8">
       <c r="H229" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="231" spans="8:8" ht="33">
       <c r="H231" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="233" spans="8:8">
       <c r="H233" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="235" spans="8:8">
       <c r="H235" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="236" spans="8:8">
       <c r="H236" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="237" spans="8:8">
       <c r="H237" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="238" spans="8:8">
       <c r="H238" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="240" spans="8:8" ht="33">
       <c r="H240" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="242" spans="8:8" ht="33">
       <c r="H242" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="244" spans="8:8">
       <c r="H244" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="246" spans="8:8">
       <c r="H246" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="247" spans="8:8">
       <c r="H247" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="249" spans="8:8" ht="49.5">
       <c r="H249" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="251" spans="8:8" ht="33">
       <c r="H251" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="253" spans="8:8">
       <c r="H253" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="254" spans="8:8">
       <c r="H254" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="255" spans="8:8">
       <c r="H255" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="256" spans="8:8">
@@ -27011,72 +27318,72 @@
     </row>
     <row r="257" spans="8:8">
       <c r="H257" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="259" spans="8:8" ht="33">
       <c r="H259" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="261" spans="8:8" ht="33">
       <c r="H261" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="263" spans="8:8">
       <c r="H263" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="264" spans="8:8">
       <c r="H264" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="265" spans="8:8">
       <c r="H265" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="266" spans="8:8">
       <c r="H266" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="268" spans="8:8" ht="33">
       <c r="H268" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="270" spans="8:8">
       <c r="H270" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="272" spans="8:8">
       <c r="H272" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="273" spans="8:8">
       <c r="H273" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="274" spans="8:8">
       <c r="H274" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="275" spans="8:8">
       <c r="H275" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="276" spans="8:8">
       <c r="H276" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="277" spans="8:8">
@@ -27086,72 +27393,72 @@
     </row>
     <row r="279" spans="8:8">
       <c r="H279" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="280" spans="8:8">
       <c r="H280" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="282" spans="8:8">
       <c r="H282" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="283" spans="8:8">
       <c r="H283" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="284" spans="8:8">
       <c r="H284" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="286" spans="8:8">
       <c r="H286" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="287" spans="8:8">
       <c r="H287" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="288" spans="8:8">
       <c r="H288" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="289" spans="8:8">
       <c r="H289" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="290" spans="8:8">
       <c r="H290" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="291" spans="8:8">
       <c r="H291" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="293" spans="8:8">
       <c r="H293" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="294" spans="8:8">
       <c r="H294" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="295" spans="8:8">
       <c r="H295" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="296" spans="8:8">
@@ -27161,127 +27468,127 @@
     </row>
     <row r="297" spans="8:8">
       <c r="H297" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="299" spans="8:8" ht="33">
       <c r="H299" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="301" spans="8:8" ht="33">
       <c r="H301" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="303" spans="8:8">
       <c r="H303" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="306" spans="8:8">
       <c r="H306" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="308" spans="8:8" ht="33">
       <c r="H308" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="310" spans="8:8" ht="33">
       <c r="H310" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="312" spans="8:8">
       <c r="H312" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="313" spans="8:8">
       <c r="H313" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="314" spans="8:8">
       <c r="H314" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="316" spans="8:8" ht="33">
       <c r="H316" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="318" spans="8:8">
       <c r="H318" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="320" spans="8:8">
       <c r="H320" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="321" spans="8:8">
       <c r="H321" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="323" spans="8:8">
       <c r="H323" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="324" spans="8:8">
       <c r="H324" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="325" spans="8:8">
       <c r="H325" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="326" spans="8:8">
       <c r="H326" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="328" spans="8:8">
       <c r="H328" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="329" spans="8:8">
       <c r="H329" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="330" spans="8:8">
       <c r="H330" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="331" spans="8:8">
       <c r="H331" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="333" spans="8:8" ht="49.5">
       <c r="H333" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="335" spans="8:8" ht="33">
       <c r="H335" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="337" spans="8:8">
       <c r="H337" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
   </sheetData>
@@ -27681,7 +27988,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -27689,7 +27996,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -27697,7 +28004,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -27705,7 +28012,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -27713,7 +28020,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="58" spans="2:4">
@@ -27798,37 +28105,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="17.25">
       <c r="A1" s="68" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="17.25">
       <c r="A2" s="68" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25">
       <c r="A3" s="68" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="17.25">
       <c r="A4" s="68" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="17.25">
       <c r="A5" s="68" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="17.25">
       <c r="A6" s="68" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="17.25">
       <c r="A7" s="68" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -27841,8 +28148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -28653,41 +28960,88 @@
         <v>49</v>
       </c>
       <c r="B50" s="19" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>789</v>
+      <c r="E50" s="1" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="25">
         <v>50</v>
       </c>
+      <c r="B51" s="19" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="25">
         <v>51</v>
       </c>
+      <c r="B52" s="19" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>1055</v>
+      </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="25">
         <v>52</v>
       </c>
+      <c r="B53" s="76" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C53" s="78" t="s">
+        <v>1054</v>
+      </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="25">
         <v>53</v>
       </c>
+      <c r="B54" s="76" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C54" s="77"/>
+      <c r="D54" s="1" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="25">
         <v>54</v>
       </c>
+      <c r="B55" s="76" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C55" s="77"/>
+      <c r="D55" s="1" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="25">
         <v>55</v>
       </c>
+      <c r="B56" s="19" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>1060</v>
+      </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="25">
@@ -29211,6 +29565,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G31"/>
+  <mergeCells count="1">
+    <mergeCell ref="C53:C55"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -30450,7 +30807,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="72" t="s">
         <v>375</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -30458,13 +30815,13 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="69"/>
+      <c r="A3" s="72"/>
       <c r="B3" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="69"/>
+      <c r="A4" s="72"/>
       <c r="C4" s="1" t="s">
         <v>372</v>
       </c>
@@ -30473,19 +30830,19 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="69"/>
+      <c r="A5" s="72"/>
       <c r="C5" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="69"/>
+      <c r="A6" s="72"/>
       <c r="B6" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="69"/>
+      <c r="A7" s="72"/>
       <c r="B7" s="1" t="s">
         <v>368</v>
       </c>
@@ -30494,7 +30851,7 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="69"/>
+      <c r="A8" s="72"/>
       <c r="C8" s="1" t="s">
         <v>366</v>
       </c>
@@ -30512,7 +30869,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="69"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="1" t="s">
         <v>362</v>
       </c>
@@ -30530,7 +30887,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="69"/>
+      <c r="A10" s="72"/>
       <c r="B10" s="1" t="s">
         <v>358</v>
       </c>
@@ -30542,7 +30899,7 @@
     </row>
     <row r="13" spans="1:19" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:19" s="38" customFormat="1">
-      <c r="A14" s="70" t="s">
+      <c r="A14" s="73" t="s">
         <v>356</v>
       </c>
       <c r="B14" s="48" t="s">
@@ -30567,7 +30924,7 @@
       <c r="S14" s="48"/>
     </row>
     <row r="15" spans="1:19" s="35" customFormat="1">
-      <c r="A15" s="71"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="49" t="s">
         <v>354</v>
       </c>
@@ -30590,7 +30947,7 @@
       <c r="S15" s="49"/>
     </row>
     <row r="16" spans="1:19" s="35" customFormat="1">
-      <c r="A16" s="71"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="49" t="s">
         <v>353</v>
       </c>
@@ -30613,7 +30970,7 @@
       <c r="S16" s="49"/>
     </row>
     <row r="17" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A17" s="72"/>
+      <c r="A17" s="75"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -30634,7 +30991,7 @@
       <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" s="38" customFormat="1">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="73" t="s">
         <v>352</v>
       </c>
       <c r="B18" s="48"/>
@@ -30665,7 +31022,7 @@
       <c r="S18" s="48"/>
     </row>
     <row r="19" spans="1:19" s="35" customFormat="1">
-      <c r="A19" s="71"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="49" t="s">
         <v>349</v>
       </c>
@@ -30696,7 +31053,7 @@
       <c r="S19" s="49"/>
     </row>
     <row r="20" spans="1:19" s="35" customFormat="1">
-      <c r="A20" s="71"/>
+      <c r="A20" s="74"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49" t="s">
         <v>344</v>
@@ -30725,7 +31082,7 @@
       <c r="S20" s="49"/>
     </row>
     <row r="21" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A21" s="72"/>
+      <c r="A21" s="75"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="s">
         <v>340</v>
@@ -31020,296 +31377,6 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:T26"/>
-  <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="19"/>
-    <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="19" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="17.5" style="19" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="19"/>
-    <col min="11" max="11" width="6.625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="19"/>
-    <col min="13" max="13" width="6.625" style="19" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="19"/>
-    <col min="16" max="16" width="7.375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="33.375" style="19" customWidth="1"/>
-    <col min="18" max="18" width="25.625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="43.625" style="19" customWidth="1"/>
-    <col min="20" max="20" width="27" style="19" customWidth="1"/>
-    <col min="21" max="16384" width="15.625" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:20">
-      <c r="Q2" s="24" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="3" spans="2:20">
-      <c r="Q3" s="19" t="s">
-        <v>686</v>
-      </c>
-      <c r="R3" s="19" t="s">
-        <v>687</v>
-      </c>
-      <c r="S3" s="19" t="s">
-        <v>690</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="4" spans="2:20">
-      <c r="P4" s="19" t="s">
-        <v>674</v>
-      </c>
-      <c r="Q4" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="R4" s="19" t="s">
-        <v>689</v>
-      </c>
-      <c r="S4" s="19" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="5" spans="2:20">
-      <c r="P5" s="19" t="s">
-        <v>675</v>
-      </c>
-      <c r="Q5" s="19" t="s">
-        <v>693</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>694</v>
-      </c>
-      <c r="S5" s="19" t="s">
-        <v>695</v>
-      </c>
-      <c r="T5" s="19" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="6" spans="2:20">
-      <c r="P6" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="17.25" thickBot="1">
-      <c r="P7" s="19" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="17.25" thickBot="1">
-      <c r="F8" s="54" t="s">
-        <v>664</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>665</v>
-      </c>
-      <c r="J8" s="54" t="s">
-        <v>667</v>
-      </c>
-      <c r="L8" s="54"/>
-      <c r="P8" s="19" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20">
-      <c r="F9" s="59" t="s">
-        <v>672</v>
-      </c>
-      <c r="H9" s="59"/>
-      <c r="J9" s="59"/>
-      <c r="L9" s="59"/>
-      <c r="P9" s="19" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="17.25" thickBot="1">
-      <c r="F10" s="59"/>
-      <c r="G10" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="H10" s="59"/>
-      <c r="I10" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="J10" s="59"/>
-      <c r="K10" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="L10" s="59"/>
-      <c r="P10" s="19" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B11" s="54" t="s">
-        <v>671</v>
-      </c>
-      <c r="D11" s="54" t="s">
-        <v>670</v>
-      </c>
-      <c r="F11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="P11" s="19" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20">
-      <c r="B12" s="55"/>
-      <c r="D12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="J12" s="59"/>
-      <c r="L12" s="59"/>
-      <c r="N12" s="57" t="s">
-        <v>669</v>
-      </c>
-      <c r="P12" s="19" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="13" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B13" s="55"/>
-      <c r="D13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="H13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="L13" s="60"/>
-      <c r="N13" s="59"/>
-      <c r="P13" s="19" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="14" spans="2:20">
-      <c r="B14" s="55"/>
-      <c r="D14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="N14" s="59"/>
-      <c r="P14" s="19" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20">
-      <c r="B15" s="55"/>
-      <c r="C15" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="D15" s="59"/>
-      <c r="E15" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="F15" s="59"/>
-      <c r="N15" s="59"/>
-      <c r="P15" s="19" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="16" spans="2:20">
-      <c r="B16" s="55"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="59"/>
-      <c r="N16" s="59"/>
-    </row>
-    <row r="17" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B17" s="55"/>
-      <c r="D17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="N17" s="59"/>
-    </row>
-    <row r="18" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B18" s="55"/>
-      <c r="D18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="H18" s="54" t="s">
-        <v>666</v>
-      </c>
-      <c r="J18" s="54" t="s">
-        <v>668</v>
-      </c>
-      <c r="L18" s="54"/>
-      <c r="N18" s="59"/>
-    </row>
-    <row r="19" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B19" s="55"/>
-      <c r="D19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="N19" s="60"/>
-    </row>
-    <row r="20" spans="2:14" ht="17.25" thickBot="1">
-      <c r="B20" s="58"/>
-      <c r="D20" s="60"/>
-      <c r="F20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="L20" s="59"/>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="F21" s="59"/>
-      <c r="G21" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="H21" s="59"/>
-      <c r="I21" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="J21" s="59"/>
-      <c r="K21" s="56" t="s">
-        <v>663</v>
-      </c>
-      <c r="L21" s="59"/>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="F22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="L22" s="59"/>
-    </row>
-    <row r="23" spans="2:14" ht="17.25" thickBot="1">
-      <c r="F23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="J23" s="60"/>
-      <c r="L23" s="60"/>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="G26" s="61" t="s">
-        <v>663</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>673</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31383,10 +31450,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -31394,7 +31461,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33">
@@ -31402,7 +31469,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -31410,7 +31477,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="33">
@@ -31418,13 +31485,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="3" t="s">
         <v>837</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -32824,7 +32891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F45"/>
   <sheetViews>
@@ -33141,4 +33208,167 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="8.75" style="9"/>
+    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="35.75" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.75" style="4" customWidth="1"/>
+    <col min="8" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="9" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="49.5">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>780</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="49.5">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>785</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="9">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Saved Games\김시원\집\spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\korea IT\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1819" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="1063">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4014,6 +4014,14 @@
   </si>
   <si>
     <t>row-start&gt;column-st&gt;rw-end&gt;col-end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>await @</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>promise value값을 받고 pause 시킨다(비동기)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4657,6 +4665,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4668,15 +4685,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4966,12 +4974,12 @@
       <selection activeCell="R15" sqref="R15:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
     <col min="17" max="17" width="5" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.75" customWidth="1"/>
-    <col min="23" max="23" width="8.75" customWidth="1"/>
+    <col min="20" max="20" width="10.69921875" customWidth="1"/>
+    <col min="23" max="23" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39" customHeight="1" thickBot="1">
@@ -5477,7 +5485,7 @@
       <c r="AA14" s="35"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28" ht="17.25" thickBot="1">
+    <row r="15" spans="1:28" ht="18" thickBot="1">
       <c r="A15" s="15"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -5510,7 +5518,7 @@
       <c r="AA15" s="35"/>
       <c r="AB15" s="14"/>
     </row>
-    <row r="16" spans="1:28" ht="17.25" thickBot="1">
+    <row r="16" spans="1:28" ht="18" thickBot="1">
       <c r="A16" s="39"/>
       <c r="B16" s="38" t="s">
         <v>545</v>
@@ -5601,7 +5609,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:36" ht="17.25" thickBot="1">
+    <row r="20" spans="1:36" ht="18" thickBot="1">
       <c r="A20" s="15"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -5767,7 +5775,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="17.25" thickBot="1">
+    <row r="25" spans="1:36" ht="18" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -6234,7 +6242,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="17.25" thickBot="1">
+    <row r="37" spans="1:27" ht="18" thickBot="1">
       <c r="A37" s="15"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -6389,7 +6397,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="17.25" thickBot="1">
+    <row r="42" spans="1:27" ht="18" thickBot="1">
       <c r="A42" s="13"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -6611,7 +6619,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="17.25" thickBot="1">
+    <row r="49" spans="1:21" ht="18" thickBot="1">
       <c r="A49" s="15"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -6757,7 +6765,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="17.25" thickBot="1">
+    <row r="54" spans="1:21" ht="18" thickBot="1">
       <c r="A54" s="13"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -6905,7 +6913,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="17.25" thickBot="1">
+    <row r="59" spans="1:21" ht="18" thickBot="1">
       <c r="A59" s="15"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -7053,7 +7061,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="17.25" thickBot="1">
+    <row r="64" spans="1:21" ht="18" thickBot="1">
       <c r="A64" s="13"/>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -7201,7 +7209,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="17.25" thickBot="1">
+    <row r="69" spans="1:24" ht="18" thickBot="1">
       <c r="A69" s="15"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -7359,7 +7367,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="17.25" thickBot="1">
+    <row r="74" spans="1:24" ht="18" thickBot="1">
       <c r="A74" s="13"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -7505,7 +7513,7 @@
       </c>
       <c r="S78" s="35"/>
     </row>
-    <row r="79" spans="1:24" ht="17.25" thickBot="1">
+    <row r="79" spans="1:24" ht="18" thickBot="1">
       <c r="A79" s="15"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -8041,7 +8049,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="17.25" thickBot="1">
+    <row r="96" spans="1:21" ht="18" thickBot="1">
       <c r="A96" s="13"/>
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
@@ -8262,7 +8270,7 @@
       <c r="R104" s="35"/>
       <c r="S104" s="35"/>
     </row>
-    <row r="105" spans="1:19" ht="17.25" thickBot="1">
+    <row r="105" spans="1:19" ht="18" thickBot="1">
       <c r="A105" s="15"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -8374,7 +8382,7 @@
       <c r="R109" s="35"/>
       <c r="S109" s="35"/>
     </row>
-    <row r="110" spans="1:19" ht="17.25" thickBot="1">
+    <row r="110" spans="1:19" ht="18" thickBot="1">
       <c r="A110" s="13"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -8460,7 +8468,7 @@
       <c r="R113" s="35"/>
       <c r="S113" s="35"/>
     </row>
-    <row r="114" spans="1:19" ht="17.25" thickBot="1">
+    <row r="114" spans="1:19" ht="18" thickBot="1">
       <c r="A114" s="15"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -8546,7 +8554,7 @@
       <c r="R117" s="35"/>
       <c r="S117" s="35"/>
     </row>
-    <row r="118" spans="1:19" ht="17.25" thickBot="1">
+    <row r="118" spans="1:19" ht="18" thickBot="1">
       <c r="A118" s="13"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
@@ -8688,7 +8696,7 @@
       <c r="R123" s="35"/>
       <c r="S123" s="35"/>
     </row>
-    <row r="124" spans="1:19" ht="17.25" thickBot="1">
+    <row r="124" spans="1:19" ht="18" thickBot="1">
       <c r="A124" s="15"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -8878,7 +8886,7 @@
       <c r="R131" s="35"/>
       <c r="S131" s="35"/>
     </row>
-    <row r="132" spans="1:19" ht="17.25" thickBot="1">
+    <row r="132" spans="1:19" ht="18" thickBot="1">
       <c r="A132" s="13"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
@@ -9420,7 +9428,7 @@
       <c r="R152" s="35"/>
       <c r="S152" s="35"/>
     </row>
-    <row r="153" spans="1:19" ht="17.25" thickBot="1">
+    <row r="153" spans="1:19" ht="18" thickBot="1">
       <c r="A153" s="15"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -9462,7 +9470,7 @@
       <c r="R154" s="35"/>
       <c r="S154" s="35"/>
     </row>
-    <row r="155" spans="1:19" ht="17.25" thickBot="1">
+    <row r="155" spans="1:19" ht="18" thickBot="1">
       <c r="A155" s="15"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -9596,7 +9604,7 @@
       <c r="R160" s="35"/>
       <c r="S160" s="35"/>
     </row>
-    <row r="161" spans="1:19" ht="17.25" thickBot="1">
+    <row r="161" spans="1:19" ht="18" thickBot="1">
       <c r="A161" s="15"/>
       <c r="B161" s="36" t="s">
         <v>388</v>
@@ -9704,7 +9712,7 @@
       <c r="R165" s="35"/>
       <c r="S165" s="35"/>
     </row>
-    <row r="166" spans="1:19" ht="17.25" thickBot="1">
+    <row r="166" spans="1:19" ht="18" thickBot="1">
       <c r="A166" s="15"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -9918,7 +9926,7 @@
       <c r="R175" s="35"/>
       <c r="S175" s="35"/>
     </row>
-    <row r="176" spans="1:19" ht="17.25" thickBot="1">
+    <row r="176" spans="1:19" ht="18" thickBot="1">
       <c r="A176" s="15"/>
       <c r="B176" s="36" t="s">
         <v>378</v>
@@ -9940,7 +9948,7 @@
       <c r="R176" s="35"/>
       <c r="S176" s="35"/>
     </row>
-    <row r="177" spans="1:19" ht="17.25" thickBot="1">
+    <row r="177" spans="1:19" ht="18" thickBot="1">
       <c r="R177" s="35"/>
       <c r="S177" s="35"/>
     </row>
@@ -18004,7 +18012,7 @@
       <c r="R551" s="35"/>
       <c r="S551" s="35"/>
     </row>
-    <row r="552" spans="1:19" ht="17.25" thickBot="1">
+    <row r="552" spans="1:19" ht="18" thickBot="1">
       <c r="A552" s="15" t="s">
         <v>376</v>
       </c>
@@ -20029,28 +20037,28 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.625" style="19"/>
-    <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.25" style="19" customWidth="1"/>
-    <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="19"/>
+    <col min="3" max="3" width="6.59765625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.69921875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.59765625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.19921875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="6.59765625" style="19" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="19" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="15.625" style="19"/>
-    <col min="11" max="11" width="6.625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.625" style="19"/>
-    <col min="13" max="13" width="6.625" style="19" customWidth="1"/>
-    <col min="14" max="15" width="15.625" style="19"/>
-    <col min="16" max="16" width="7.375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="35.125" style="19" customWidth="1"/>
-    <col min="18" max="18" width="25.625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="43.625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="6.59765625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15.59765625" style="19"/>
+    <col min="11" max="11" width="6.59765625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.59765625" style="19"/>
+    <col min="13" max="13" width="6.59765625" style="19" customWidth="1"/>
+    <col min="14" max="15" width="15.59765625" style="19"/>
+    <col min="16" max="16" width="7.3984375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="35.09765625" style="19" customWidth="1"/>
+    <col min="18" max="18" width="25.59765625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="43.59765625" style="19" customWidth="1"/>
     <col min="20" max="20" width="27" style="19" customWidth="1"/>
-    <col min="21" max="16384" width="15.625" style="19"/>
+    <col min="21" max="16384" width="15.59765625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
@@ -20111,12 +20119,12 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="17.25" thickBot="1">
+    <row r="7" spans="2:20" ht="18" thickBot="1">
       <c r="P7" s="19" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="17.25" thickBot="1">
+    <row r="8" spans="2:20" ht="18" thickBot="1">
       <c r="F8" s="54" t="s">
         <v>664</v>
       </c>
@@ -20142,7 +20150,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="17.25" thickBot="1">
+    <row r="10" spans="2:20" ht="18" thickBot="1">
       <c r="F10" s="59"/>
       <c r="G10" s="56" t="s">
         <v>663</v>
@@ -20160,7 +20168,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="17.25" thickBot="1">
+    <row r="11" spans="2:20" ht="18" thickBot="1">
       <c r="B11" s="54" t="s">
         <v>671</v>
       </c>
@@ -20189,7 +20197,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="17.25" thickBot="1">
+    <row r="13" spans="2:20" ht="18" thickBot="1">
       <c r="B13" s="55"/>
       <c r="D13" s="59"/>
       <c r="F13" s="59"/>
@@ -20233,13 +20241,13 @@
       <c r="F16" s="59"/>
       <c r="N16" s="59"/>
     </row>
-    <row r="17" spans="2:17" ht="17.25" thickBot="1">
+    <row r="17" spans="2:17" ht="18" thickBot="1">
       <c r="B17" s="55"/>
       <c r="D17" s="59"/>
       <c r="F17" s="59"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:17" ht="17.25" thickBot="1">
+    <row r="18" spans="2:17" ht="18" thickBot="1">
       <c r="B18" s="55"/>
       <c r="D18" s="59"/>
       <c r="F18" s="59"/>
@@ -20261,7 +20269,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="17.25" thickBot="1">
+    <row r="19" spans="2:17" ht="18" thickBot="1">
       <c r="B19" s="55"/>
       <c r="D19" s="59"/>
       <c r="F19" s="59"/>
@@ -20276,7 +20284,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="17.25" thickBot="1">
+    <row r="20" spans="2:17" ht="18" thickBot="1">
       <c r="B20" s="58"/>
       <c r="D20" s="60"/>
       <c r="F20" s="59"/>
@@ -20323,7 +20331,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="17.25" thickBot="1">
+    <row r="23" spans="2:17" ht="18" thickBot="1">
       <c r="F23" s="60"/>
       <c r="H23" s="60"/>
       <c r="J23" s="60"/>
@@ -20368,19 +20376,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="5.25" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.19921875" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
     <col min="3" max="3" width="44" style="24" customWidth="1"/>
-    <col min="4" max="4" width="49.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.75" style="24" customWidth="1"/>
-    <col min="7" max="7" width="23.125" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="1"/>
+    <col min="6" max="6" width="56.69921875" style="24" customWidth="1"/>
+    <col min="7" max="7" width="23.09765625" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
       <c r="A1" s="34" t="s">
         <v>195</v>
       </c>
@@ -20401,7 +20409,7 @@
       </c>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="33">
+    <row r="2" spans="1:8" ht="34.799999999999997">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -20513,7 +20521,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="49.5">
+    <row r="10" spans="1:8" ht="52.2">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -20533,7 +20541,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33">
+    <row r="11" spans="1:8" ht="34.799999999999997">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -21352,13 +21360,13 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
-    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.375" style="24" customWidth="1"/>
-    <col min="5" max="6" width="43.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.3984375" style="24" customWidth="1"/>
+    <col min="5" max="6" width="43.8984375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -21470,7 +21478,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="33">
+    <row r="10" spans="1:5" ht="34.799999999999997">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -21495,7 +21503,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="33">
+    <row r="12" spans="1:5" ht="34.799999999999997">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -21506,7 +21514,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="33">
+    <row r="13" spans="1:5" ht="34.799999999999997">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -21559,7 +21567,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="49.5">
+    <row r="17" spans="1:5" ht="52.2">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -21603,7 +21611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="49.5">
+    <row r="21" spans="1:5" ht="52.2">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -23237,11 +23245,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="54.75" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.8984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="54.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="62" customFormat="1">
@@ -24631,9 +24639,9 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="2" max="2" width="20.19921875" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24852,7 +24860,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2">
@@ -24884,11 +24892,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="11.125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.125" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.09765625" customWidth="1"/>
     <col min="4" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26193,7 +26201,7 @@
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
     <row r="2" spans="3:11">
       <c r="C2" t="s">
@@ -26314,7 +26322,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="18" spans="2:9" ht="18" thickBot="1"/>
     <row r="19" spans="2:9">
       <c r="B19" s="39" t="s">
         <v>1010</v>
@@ -26357,7 +26365,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" ht="17.25" thickBot="1">
+    <row r="22" spans="2:9" ht="18" thickBot="1">
       <c r="B22" s="15" t="s">
         <v>1013</v>
       </c>
@@ -26369,8 +26377,8 @@
       <c r="H22" s="36"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="2:9" ht="17.25" thickBot="1"/>
-    <row r="24" spans="2:9" ht="17.25" thickBot="1">
+    <row r="23" spans="2:9" ht="18" thickBot="1"/>
+    <row r="24" spans="2:9" ht="18" thickBot="1">
       <c r="B24" s="69" t="s">
         <v>1018</v>
       </c>
@@ -26396,7 +26404,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26411,9 +26419,9 @@
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="8" max="8" width="117.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="117.59765625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -26441,7 +26449,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="49.5">
+    <row r="11" spans="1:8" ht="52.2">
       <c r="H11" s="4" t="s">
         <v>992</v>
       </c>
@@ -26536,7 +26544,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="38" spans="8:8" ht="49.5">
+    <row r="38" spans="8:8" ht="52.2">
       <c r="H38" s="4" t="s">
         <v>864</v>
       </c>
@@ -26556,12 +26564,12 @@
         <v>866</v>
       </c>
     </row>
-    <row r="45" spans="8:8" ht="33">
+    <row r="45" spans="8:8" ht="34.799999999999997">
       <c r="H45" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="47" spans="8:8" ht="49.5">
+    <row r="47" spans="8:8" ht="34.799999999999997">
       <c r="H47" s="4" t="s">
         <v>868</v>
       </c>
@@ -26591,12 +26599,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="55" spans="8:8" ht="33">
+    <row r="55" spans="8:8" ht="34.799999999999997">
       <c r="H55" s="4" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="57" spans="8:8" ht="33">
+    <row r="57" spans="8:8" ht="34.799999999999997">
       <c r="H57" s="4" t="s">
         <v>872</v>
       </c>
@@ -26646,7 +26654,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="69" spans="8:8" ht="33">
+    <row r="69" spans="8:8" ht="34.799999999999997">
       <c r="H69" s="4" t="s">
         <v>879</v>
       </c>
@@ -26681,12 +26689,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="79" spans="8:8" ht="33">
+    <row r="79" spans="8:8" ht="34.799999999999997">
       <c r="H79" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="81" spans="8:8" ht="33">
+    <row r="81" spans="8:8" ht="34.799999999999997">
       <c r="H81" s="4" t="s">
         <v>884</v>
       </c>
@@ -26726,7 +26734,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="91" spans="8:8" ht="49.5">
+    <row r="91" spans="8:8" ht="52.2">
       <c r="H91" s="4" t="s">
         <v>889</v>
       </c>
@@ -26746,12 +26754,12 @@
         <v>891</v>
       </c>
     </row>
-    <row r="98" spans="8:8" ht="33">
+    <row r="98" spans="8:8" ht="34.799999999999997">
       <c r="H98" s="4" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="100" spans="8:8" ht="33">
+    <row r="100" spans="8:8" ht="34.799999999999997">
       <c r="H100" s="4" t="s">
         <v>893</v>
       </c>
@@ -26821,12 +26829,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="118" spans="8:8" ht="49.5">
+    <row r="118" spans="8:8" ht="52.2">
       <c r="H118" s="4" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="120" spans="8:8" ht="33">
+    <row r="120" spans="8:8" ht="34.799999999999997">
       <c r="H120" s="4" t="s">
         <v>903</v>
       </c>
@@ -26896,12 +26904,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="138" spans="8:8" ht="33">
+    <row r="138" spans="8:8" ht="34.799999999999997">
       <c r="H138" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="140" spans="8:8" ht="33">
+    <row r="140" spans="8:8" ht="34.799999999999997">
       <c r="H140" s="4" t="s">
         <v>908</v>
       </c>
@@ -26966,7 +26974,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="157" spans="8:8" ht="33">
+    <row r="157" spans="8:8" ht="34.799999999999997">
       <c r="H157" s="4" t="s">
         <v>916</v>
       </c>
@@ -26986,12 +26994,12 @@
         <v>917</v>
       </c>
     </row>
-    <row r="164" spans="8:8" ht="49.5">
+    <row r="164" spans="8:8" ht="52.2">
       <c r="H164" s="4" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="166" spans="8:8" ht="33">
+    <row r="166" spans="8:8" ht="34.799999999999997">
       <c r="H166" s="4" t="s">
         <v>919</v>
       </c>
@@ -27031,7 +27039,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="176" spans="8:8" ht="33">
+    <row r="176" spans="8:8" ht="34.799999999999997">
       <c r="H176" s="4" t="s">
         <v>922</v>
       </c>
@@ -27106,12 +27114,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="196" spans="8:8" ht="49.5">
+    <row r="196" spans="8:8" ht="34.799999999999997">
       <c r="H196" s="4" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="198" spans="8:8" ht="33">
+    <row r="198" spans="8:8" ht="34.799999999999997">
       <c r="H198" s="4" t="s">
         <v>926</v>
       </c>
@@ -27131,12 +27139,12 @@
         <v>927</v>
       </c>
     </row>
-    <row r="205" spans="8:8" ht="33">
+    <row r="205" spans="8:8" ht="34.799999999999997">
       <c r="H205" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="207" spans="8:8" ht="33">
+    <row r="207" spans="8:8" ht="34.799999999999997">
       <c r="H207" s="4" t="s">
         <v>929</v>
       </c>
@@ -27181,7 +27189,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="218" spans="8:8" ht="33">
+    <row r="218" spans="8:8" ht="34.799999999999997">
       <c r="H218" s="4" t="s">
         <v>935</v>
       </c>
@@ -27231,7 +27239,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="231" spans="8:8" ht="33">
+    <row r="231" spans="8:8" ht="34.799999999999997">
       <c r="H231" s="4" t="s">
         <v>938</v>
       </c>
@@ -27261,12 +27269,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="240" spans="8:8" ht="33">
+    <row r="240" spans="8:8" ht="34.799999999999997">
       <c r="H240" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="242" spans="8:8" ht="33">
+    <row r="242" spans="8:8" ht="34.799999999999997">
       <c r="H242" s="4" t="s">
         <v>943</v>
       </c>
@@ -27286,12 +27294,12 @@
         <v>944</v>
       </c>
     </row>
-    <row r="249" spans="8:8" ht="49.5">
+    <row r="249" spans="8:8" ht="52.2">
       <c r="H249" s="4" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="251" spans="8:8" ht="33">
+    <row r="251" spans="8:8" ht="34.799999999999997">
       <c r="H251" s="4" t="s">
         <v>946</v>
       </c>
@@ -27321,12 +27329,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="259" spans="8:8" ht="33">
+    <row r="259" spans="8:8" ht="34.799999999999997">
       <c r="H259" s="4" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="261" spans="8:8" ht="33">
+    <row r="261" spans="8:8" ht="34.799999999999997">
       <c r="H261" s="4" t="s">
         <v>950</v>
       </c>
@@ -27351,7 +27359,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="268" spans="8:8" ht="33">
+    <row r="268" spans="8:8" ht="34.799999999999997">
       <c r="H268" s="4" t="s">
         <v>953</v>
       </c>
@@ -27471,12 +27479,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="299" spans="8:8" ht="33">
+    <row r="299" spans="8:8" ht="34.799999999999997">
       <c r="H299" s="4" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="301" spans="8:8" ht="33">
+    <row r="301" spans="8:8" ht="34.799999999999997">
       <c r="H301" s="4" t="s">
         <v>971</v>
       </c>
@@ -27491,12 +27499,12 @@
         <v>972</v>
       </c>
     </row>
-    <row r="308" spans="8:8" ht="33">
+    <row r="308" spans="8:8" ht="34.799999999999997">
       <c r="H308" s="4" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="310" spans="8:8" ht="33">
+    <row r="310" spans="8:8" ht="34.799999999999997">
       <c r="H310" s="4" t="s">
         <v>974</v>
       </c>
@@ -27516,7 +27524,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="316" spans="8:8" ht="33">
+    <row r="316" spans="8:8" ht="34.799999999999997">
       <c r="H316" s="4" t="s">
         <v>976</v>
       </c>
@@ -27576,12 +27584,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="333" spans="8:8" ht="49.5">
+    <row r="333" spans="8:8" ht="52.2">
       <c r="H333" s="4" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="335" spans="8:8" ht="33">
+    <row r="335" spans="8:8" ht="34.799999999999997">
       <c r="H335" s="4" t="s">
         <v>984</v>
       </c>
@@ -27605,22 +27613,22 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.59765625" style="20" customWidth="1"/>
     <col min="2" max="2" width="39" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="19" customWidth="1"/>
-    <col min="4" max="4" width="57.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="57.8984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.59765625" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
       <c r="A1" s="23" t="s">
         <v>195</v>
       </c>
@@ -28101,39 +28109,39 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="17.25">
+    <row r="1" spans="1:1" ht="19.2">
       <c r="A1" s="68" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="17.25">
+    <row r="2" spans="1:1" ht="19.2">
       <c r="A2" s="68" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="17.25">
+    <row r="3" spans="1:1" ht="19.2">
       <c r="A3" s="68" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="17.25">
+    <row r="4" spans="1:1" ht="19.2">
       <c r="A4" s="68" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="17.25">
+    <row r="5" spans="1:1" ht="19.2">
       <c r="A5" s="68" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="17.25">
+    <row r="6" spans="1:1" ht="19.2">
       <c r="A6" s="68" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.25">
+    <row r="7" spans="1:1" ht="19.2">
       <c r="A7" s="68" t="s">
         <v>848</v>
       </c>
@@ -28148,24 +28156,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="8.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="41.125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.75" style="19"/>
-    <col min="4" max="4" width="49.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.75" style="19"/>
-    <col min="7" max="7" width="56.75" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="2" max="2" width="41.09765625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.69921875" style="19"/>
+    <col min="4" max="4" width="49.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.69921875" style="19"/>
+    <col min="7" max="7" width="56.69921875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.09765625" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
       <c r="A1" s="34" t="s">
         <v>338</v>
       </c>
@@ -29001,10 +29009,10 @@
       <c r="A53" s="25">
         <v>52</v>
       </c>
-      <c r="B53" s="76" t="s">
+      <c r="B53" s="72" t="s">
         <v>1050</v>
       </c>
-      <c r="C53" s="78" t="s">
+      <c r="C53" s="73" t="s">
         <v>1054</v>
       </c>
     </row>
@@ -29012,10 +29020,10 @@
       <c r="A54" s="25">
         <v>53</v>
       </c>
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="72" t="s">
         <v>1051</v>
       </c>
-      <c r="C54" s="77"/>
+      <c r="C54" s="74"/>
       <c r="D54" s="1" t="s">
         <v>1053</v>
       </c>
@@ -29024,10 +29032,10 @@
       <c r="A55" s="25">
         <v>54</v>
       </c>
-      <c r="B55" s="76" t="s">
+      <c r="B55" s="72" t="s">
         <v>1052</v>
       </c>
-      <c r="C55" s="77"/>
+      <c r="C55" s="74"/>
       <c r="D55" s="1" t="s">
         <v>1053</v>
       </c>
@@ -29578,15 +29586,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="21.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.69921875" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29978,6 +29986,12 @@
     <row r="28" spans="1:9">
       <c r="A28" s="11">
         <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -30800,14 +30814,14 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.8984375" style="8" customWidth="1"/>
     <col min="2" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>375</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -30815,13 +30829,13 @@
       </c>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="72"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="72"/>
+      <c r="A4" s="75"/>
       <c r="C4" s="1" t="s">
         <v>372</v>
       </c>
@@ -30830,19 +30844,19 @@
       </c>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="72"/>
+      <c r="A5" s="75"/>
       <c r="C5" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="72"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="1" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="72"/>
+      <c r="A7" s="75"/>
       <c r="B7" s="1" t="s">
         <v>368</v>
       </c>
@@ -30851,7 +30865,7 @@
       </c>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="72"/>
+      <c r="A8" s="75"/>
       <c r="C8" s="1" t="s">
         <v>366</v>
       </c>
@@ -30869,7 +30883,7 @@
       </c>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="72"/>
+      <c r="A9" s="75"/>
       <c r="B9" s="1" t="s">
         <v>362</v>
       </c>
@@ -30887,7 +30901,7 @@
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="72"/>
+      <c r="A10" s="75"/>
       <c r="B10" s="1" t="s">
         <v>358</v>
       </c>
@@ -30897,9 +30911,9 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="17.25" thickBot="1"/>
+    <row r="13" spans="1:19" ht="18" thickBot="1"/>
     <row r="14" spans="1:19" s="38" customFormat="1">
-      <c r="A14" s="73" t="s">
+      <c r="A14" s="76" t="s">
         <v>356</v>
       </c>
       <c r="B14" s="48" t="s">
@@ -30924,7 +30938,7 @@
       <c r="S14" s="48"/>
     </row>
     <row r="15" spans="1:19" s="35" customFormat="1">
-      <c r="A15" s="74"/>
+      <c r="A15" s="77"/>
       <c r="B15" s="49" t="s">
         <v>354</v>
       </c>
@@ -30947,7 +30961,7 @@
       <c r="S15" s="49"/>
     </row>
     <row r="16" spans="1:19" s="35" customFormat="1">
-      <c r="A16" s="74"/>
+      <c r="A16" s="77"/>
       <c r="B16" s="49" t="s">
         <v>353</v>
       </c>
@@ -30969,8 +30983,8 @@
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
     </row>
-    <row r="17" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A17" s="75"/>
+    <row r="17" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
+      <c r="A17" s="78"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
@@ -30991,7 +31005,7 @@
       <c r="S17" s="50"/>
     </row>
     <row r="18" spans="1:19" s="38" customFormat="1">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="76" t="s">
         <v>352</v>
       </c>
       <c r="B18" s="48"/>
@@ -31022,7 +31036,7 @@
       <c r="S18" s="48"/>
     </row>
     <row r="19" spans="1:19" s="35" customFormat="1">
-      <c r="A19" s="74"/>
+      <c r="A19" s="77"/>
       <c r="B19" s="49" t="s">
         <v>349</v>
       </c>
@@ -31053,7 +31067,7 @@
       <c r="S19" s="49"/>
     </row>
     <row r="20" spans="1:19" s="35" customFormat="1">
-      <c r="A20" s="74"/>
+      <c r="A20" s="77"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49" t="s">
         <v>344</v>
@@ -31081,8 +31095,8 @@
       <c r="R20" s="49"/>
       <c r="S20" s="49"/>
     </row>
-    <row r="21" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
-      <c r="A21" s="75"/>
+    <row r="21" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
+      <c r="A21" s="78"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="s">
         <v>340</v>
@@ -31143,16 +31157,16 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.69921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.3984375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -31271,7 +31285,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33">
+    <row r="16" spans="1:8" ht="34.799999999999997">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -31383,19 +31397,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="19"/>
-    <col min="2" max="2" width="49.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.75" style="1"/>
+    <col min="1" max="1" width="8.69921875" style="19"/>
+    <col min="2" max="2" width="49.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.19921875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.69921875" style="1"/>
     <col min="9" max="9" width="53" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.75" style="1"/>
+    <col min="10" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="49.5">
+    <row r="2" spans="1:9" ht="52.2">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -31464,7 +31478,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="33">
+    <row r="8" spans="1:9" ht="34.799999999999997">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -31480,7 +31494,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="33">
+    <row r="10" spans="1:9" ht="34.799999999999997">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -32899,17 +32913,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.3984375" style="11" customWidth="1"/>
     <col min="3" max="3" width="86" style="17" customWidth="1"/>
-    <col min="4" max="4" width="31.125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="68.375" customWidth="1"/>
-    <col min="6" max="6" width="38.75" customWidth="1"/>
+    <col min="4" max="4" width="31.09765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="68.3984375" customWidth="1"/>
+    <col min="6" max="6" width="38.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="44" customFormat="1" ht="17.25">
+    <row r="1" spans="1:6" s="44" customFormat="1" ht="19.2">
       <c r="A1" s="45" t="s">
         <v>610</v>
       </c>
@@ -32929,7 +32943,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="66">
+    <row r="2" spans="1:6" ht="69.599999999999994">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -32960,7 +32974,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="33">
+    <row r="4" spans="1:6" ht="34.799999999999997">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -32977,7 +32991,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="82.5">
+    <row r="5" spans="1:6" ht="87">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -32995,7 +33009,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="82.5">
+    <row r="6" spans="1:6" ht="87">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -33218,16 +33232,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="9"/>
-    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="35.75" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.69921875" style="9"/>
+    <col min="2" max="2" width="11.59765625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.69921875" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="35.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.69921875" style="4" customWidth="1"/>
     <col min="6" max="6" width="31" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.75" style="4" customWidth="1"/>
-    <col min="8" max="9" width="19.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.69921875" style="4" customWidth="1"/>
+    <col min="8" max="9" width="19.69921875" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -33236,7 +33250,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="49.5">
+    <row r="2" spans="1:7" ht="52.2">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -33256,7 +33270,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="49.5">
+    <row r="3" spans="1:7" ht="52.2">
       <c r="A3" s="9">
         <v>2</v>
       </c>

--- a/Spring_JSP.xlsx
+++ b/Spring_JSP.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\korea IT\spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Saved Games\김시원\집\spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12288" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HTML, CSS 기본값" sheetId="12" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1065">
   <si>
     <t>@WebServlet("/@...")</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4022,6 +4022,14 @@
   </si>
   <si>
     <t>promise value값을 받고 pause 시킨다(비동기)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setTimeout(@1,@2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@2초 뒤에 @1 실행</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4974,12 +4982,12 @@
       <selection activeCell="R15" sqref="R15:S15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="17" max="17" width="5" style="11" customWidth="1"/>
-    <col min="20" max="20" width="10.69921875" customWidth="1"/>
-    <col min="23" max="23" width="8.69921875" customWidth="1"/>
+    <col min="20" max="20" width="10.75" customWidth="1"/>
+    <col min="23" max="23" width="8.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39" customHeight="1" thickBot="1">
@@ -5485,7 +5493,7 @@
       <c r="AA14" s="35"/>
       <c r="AB14" s="14"/>
     </row>
-    <row r="15" spans="1:28" ht="18" thickBot="1">
+    <row r="15" spans="1:28" ht="17.25" thickBot="1">
       <c r="A15" s="15"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -5518,7 +5526,7 @@
       <c r="AA15" s="35"/>
       <c r="AB15" s="14"/>
     </row>
-    <row r="16" spans="1:28" ht="18" thickBot="1">
+    <row r="16" spans="1:28" ht="17.25" thickBot="1">
       <c r="A16" s="39"/>
       <c r="B16" s="38" t="s">
         <v>545</v>
@@ -5609,7 +5617,7 @@
       <c r="O19" s="35"/>
       <c r="P19" s="14"/>
     </row>
-    <row r="20" spans="1:36" ht="18" thickBot="1">
+    <row r="20" spans="1:36" ht="17.25" thickBot="1">
       <c r="A20" s="15"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -5775,7 +5783,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="25" spans="1:36" ht="18" thickBot="1">
+    <row r="25" spans="1:36" ht="17.25" thickBot="1">
       <c r="A25" s="13"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -6242,7 +6250,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="18" thickBot="1">
+    <row r="37" spans="1:27" ht="17.25" thickBot="1">
       <c r="A37" s="15"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -6397,7 +6405,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="18" thickBot="1">
+    <row r="42" spans="1:27" ht="17.25" thickBot="1">
       <c r="A42" s="13"/>
       <c r="B42" s="35"/>
       <c r="C42" s="35"/>
@@ -6619,7 +6627,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="18" thickBot="1">
+    <row r="49" spans="1:21" ht="17.25" thickBot="1">
       <c r="A49" s="15"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -6765,7 +6773,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="18" thickBot="1">
+    <row r="54" spans="1:21" ht="17.25" thickBot="1">
       <c r="A54" s="13"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35"/>
@@ -6913,7 +6921,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="18" thickBot="1">
+    <row r="59" spans="1:21" ht="17.25" thickBot="1">
       <c r="A59" s="15"/>
       <c r="B59" s="36"/>
       <c r="C59" s="36"/>
@@ -7061,7 +7069,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="64" spans="1:21" ht="18" thickBot="1">
+    <row r="64" spans="1:21" ht="17.25" thickBot="1">
       <c r="A64" s="13"/>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -7209,7 +7217,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="18" thickBot="1">
+    <row r="69" spans="1:24" ht="17.25" thickBot="1">
       <c r="A69" s="15"/>
       <c r="B69" s="36"/>
       <c r="C69" s="36"/>
@@ -7367,7 +7375,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="18" thickBot="1">
+    <row r="74" spans="1:24" ht="17.25" thickBot="1">
       <c r="A74" s="13"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -7513,7 +7521,7 @@
       </c>
       <c r="S78" s="35"/>
     </row>
-    <row r="79" spans="1:24" ht="18" thickBot="1">
+    <row r="79" spans="1:24" ht="17.25" thickBot="1">
       <c r="A79" s="15"/>
       <c r="B79" s="36"/>
       <c r="C79" s="36"/>
@@ -8049,7 +8057,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="18" thickBot="1">
+    <row r="96" spans="1:21" ht="17.25" thickBot="1">
       <c r="A96" s="13"/>
       <c r="B96" s="35"/>
       <c r="C96" s="35"/>
@@ -8270,7 +8278,7 @@
       <c r="R104" s="35"/>
       <c r="S104" s="35"/>
     </row>
-    <row r="105" spans="1:19" ht="18" thickBot="1">
+    <row r="105" spans="1:19" ht="17.25" thickBot="1">
       <c r="A105" s="15"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
@@ -8382,7 +8390,7 @@
       <c r="R109" s="35"/>
       <c r="S109" s="35"/>
     </row>
-    <row r="110" spans="1:19" ht="18" thickBot="1">
+    <row r="110" spans="1:19" ht="17.25" thickBot="1">
       <c r="A110" s="13"/>
       <c r="B110" s="35"/>
       <c r="C110" s="35"/>
@@ -8468,7 +8476,7 @@
       <c r="R113" s="35"/>
       <c r="S113" s="35"/>
     </row>
-    <row r="114" spans="1:19" ht="18" thickBot="1">
+    <row r="114" spans="1:19" ht="17.25" thickBot="1">
       <c r="A114" s="15"/>
       <c r="B114" s="36"/>
       <c r="C114" s="36"/>
@@ -8554,7 +8562,7 @@
       <c r="R117" s="35"/>
       <c r="S117" s="35"/>
     </row>
-    <row r="118" spans="1:19" ht="18" thickBot="1">
+    <row r="118" spans="1:19" ht="17.25" thickBot="1">
       <c r="A118" s="13"/>
       <c r="B118" s="35"/>
       <c r="C118" s="35"/>
@@ -8696,7 +8704,7 @@
       <c r="R123" s="35"/>
       <c r="S123" s="35"/>
     </row>
-    <row r="124" spans="1:19" ht="18" thickBot="1">
+    <row r="124" spans="1:19" ht="17.25" thickBot="1">
       <c r="A124" s="15"/>
       <c r="B124" s="36"/>
       <c r="C124" s="36"/>
@@ -8886,7 +8894,7 @@
       <c r="R131" s="35"/>
       <c r="S131" s="35"/>
     </row>
-    <row r="132" spans="1:19" ht="18" thickBot="1">
+    <row r="132" spans="1:19" ht="17.25" thickBot="1">
       <c r="A132" s="13"/>
       <c r="B132" s="35"/>
       <c r="C132" s="35"/>
@@ -9428,7 +9436,7 @@
       <c r="R152" s="35"/>
       <c r="S152" s="35"/>
     </row>
-    <row r="153" spans="1:19" ht="18" thickBot="1">
+    <row r="153" spans="1:19" ht="17.25" thickBot="1">
       <c r="A153" s="15"/>
       <c r="B153" s="36"/>
       <c r="C153" s="36"/>
@@ -9470,7 +9478,7 @@
       <c r="R154" s="35"/>
       <c r="S154" s="35"/>
     </row>
-    <row r="155" spans="1:19" ht="18" thickBot="1">
+    <row r="155" spans="1:19" ht="17.25" thickBot="1">
       <c r="A155" s="15"/>
       <c r="B155" s="36"/>
       <c r="C155" s="36"/>
@@ -9604,7 +9612,7 @@
       <c r="R160" s="35"/>
       <c r="S160" s="35"/>
     </row>
-    <row r="161" spans="1:19" ht="18" thickBot="1">
+    <row r="161" spans="1:19" ht="17.25" thickBot="1">
       <c r="A161" s="15"/>
       <c r="B161" s="36" t="s">
         <v>388</v>
@@ -9712,7 +9720,7 @@
       <c r="R165" s="35"/>
       <c r="S165" s="35"/>
     </row>
-    <row r="166" spans="1:19" ht="18" thickBot="1">
+    <row r="166" spans="1:19" ht="17.25" thickBot="1">
       <c r="A166" s="15"/>
       <c r="B166" s="36"/>
       <c r="C166" s="36"/>
@@ -9926,7 +9934,7 @@
       <c r="R175" s="35"/>
       <c r="S175" s="35"/>
     </row>
-    <row r="176" spans="1:19" ht="18" thickBot="1">
+    <row r="176" spans="1:19" ht="17.25" thickBot="1">
       <c r="A176" s="15"/>
       <c r="B176" s="36" t="s">
         <v>378</v>
@@ -9948,7 +9956,7 @@
       <c r="R176" s="35"/>
       <c r="S176" s="35"/>
     </row>
-    <row r="177" spans="1:19" ht="18" thickBot="1">
+    <row r="177" spans="1:19" ht="17.25" thickBot="1">
       <c r="R177" s="35"/>
       <c r="S177" s="35"/>
     </row>
@@ -18012,7 +18020,7 @@
       <c r="R551" s="35"/>
       <c r="S551" s="35"/>
     </row>
-    <row r="552" spans="1:19" ht="18" thickBot="1">
+    <row r="552" spans="1:19" ht="17.25" thickBot="1">
       <c r="A552" s="15" t="s">
         <v>376</v>
       </c>
@@ -20037,28 +20045,28 @@
       <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.59765625" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" style="19"/>
-    <col min="3" max="3" width="6.59765625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="16.69921875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="6.59765625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="28.19921875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="6.59765625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="19"/>
+    <col min="3" max="3" width="6.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.75" style="19" customWidth="1"/>
+    <col min="5" max="5" width="6.625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="28.25" style="19" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="19" customWidth="1"/>
     <col min="8" max="8" width="17.5" style="19" customWidth="1"/>
-    <col min="9" max="9" width="6.59765625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="15.59765625" style="19"/>
-    <col min="11" max="11" width="6.59765625" style="19" customWidth="1"/>
-    <col min="12" max="12" width="15.59765625" style="19"/>
-    <col min="13" max="13" width="6.59765625" style="19" customWidth="1"/>
-    <col min="14" max="15" width="15.59765625" style="19"/>
-    <col min="16" max="16" width="7.3984375" style="19" customWidth="1"/>
-    <col min="17" max="17" width="35.09765625" style="19" customWidth="1"/>
-    <col min="18" max="18" width="25.59765625" style="19" customWidth="1"/>
-    <col min="19" max="19" width="43.59765625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="6.625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="19"/>
+    <col min="11" max="11" width="6.625" style="19" customWidth="1"/>
+    <col min="12" max="12" width="15.625" style="19"/>
+    <col min="13" max="13" width="6.625" style="19" customWidth="1"/>
+    <col min="14" max="15" width="15.625" style="19"/>
+    <col min="16" max="16" width="7.375" style="19" customWidth="1"/>
+    <col min="17" max="17" width="35.125" style="19" customWidth="1"/>
+    <col min="18" max="18" width="25.625" style="19" customWidth="1"/>
+    <col min="19" max="19" width="43.625" style="19" customWidth="1"/>
     <col min="20" max="20" width="27" style="19" customWidth="1"/>
-    <col min="21" max="16384" width="15.59765625" style="19"/>
+    <col min="21" max="16384" width="15.625" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
@@ -20119,12 +20127,12 @@
         <v>698</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="18" thickBot="1">
+    <row r="7" spans="2:20" ht="17.25" thickBot="1">
       <c r="P7" s="19" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="18" thickBot="1">
+    <row r="8" spans="2:20" ht="17.25" thickBot="1">
       <c r="F8" s="54" t="s">
         <v>664</v>
       </c>
@@ -20150,7 +20158,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="10" spans="2:20" ht="18" thickBot="1">
+    <row r="10" spans="2:20" ht="17.25" thickBot="1">
       <c r="F10" s="59"/>
       <c r="G10" s="56" t="s">
         <v>663</v>
@@ -20168,7 +20176,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="11" spans="2:20" ht="18" thickBot="1">
+    <row r="11" spans="2:20" ht="17.25" thickBot="1">
       <c r="B11" s="54" t="s">
         <v>671</v>
       </c>
@@ -20197,7 +20205,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="13" spans="2:20" ht="18" thickBot="1">
+    <row r="13" spans="2:20" ht="17.25" thickBot="1">
       <c r="B13" s="55"/>
       <c r="D13" s="59"/>
       <c r="F13" s="59"/>
@@ -20241,13 +20249,13 @@
       <c r="F16" s="59"/>
       <c r="N16" s="59"/>
     </row>
-    <row r="17" spans="2:17" ht="18" thickBot="1">
+    <row r="17" spans="2:17" ht="17.25" thickBot="1">
       <c r="B17" s="55"/>
       <c r="D17" s="59"/>
       <c r="F17" s="59"/>
       <c r="N17" s="59"/>
     </row>
-    <row r="18" spans="2:17" ht="18" thickBot="1">
+    <row r="18" spans="2:17" ht="17.25" thickBot="1">
       <c r="B18" s="55"/>
       <c r="D18" s="59"/>
       <c r="F18" s="59"/>
@@ -20269,7 +20277,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="19" spans="2:17" ht="18" thickBot="1">
+    <row r="19" spans="2:17" ht="17.25" thickBot="1">
       <c r="B19" s="55"/>
       <c r="D19" s="59"/>
       <c r="F19" s="59"/>
@@ -20284,7 +20292,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="20" spans="2:17" ht="18" thickBot="1">
+    <row r="20" spans="2:17" ht="17.25" thickBot="1">
       <c r="B20" s="58"/>
       <c r="D20" s="60"/>
       <c r="F20" s="59"/>
@@ -20331,7 +20339,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="23" spans="2:17" ht="18" thickBot="1">
+    <row r="23" spans="2:17" ht="17.25" thickBot="1">
       <c r="F23" s="60"/>
       <c r="H23" s="60"/>
       <c r="J23" s="60"/>
@@ -20376,19 +20384,19 @@
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" style="25" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="25" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="44" style="24" customWidth="1"/>
-    <col min="4" max="4" width="49.69921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="56.69921875" style="24" customWidth="1"/>
-    <col min="7" max="7" width="23.09765625" style="19" customWidth="1"/>
-    <col min="8" max="16384" width="8.69921875" style="1"/>
+    <col min="6" max="6" width="56.75" style="24" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="19" customWidth="1"/>
+    <col min="8" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
       <c r="A1" s="34" t="s">
         <v>195</v>
       </c>
@@ -20409,7 +20417,7 @@
       </c>
       <c r="G1" s="22"/>
     </row>
-    <row r="2" spans="1:8" ht="34.799999999999997">
+    <row r="2" spans="1:8" ht="33">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -20521,7 +20529,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="52.2">
+    <row r="10" spans="1:8" ht="49.5">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -20541,7 +20549,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="34.799999999999997">
+    <row r="11" spans="1:8" ht="33">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -21360,13 +21368,13 @@
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="6.09765625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="27.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="51.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="50.3984375" style="24" customWidth="1"/>
-    <col min="5" max="6" width="43.8984375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="27.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.375" style="24" customWidth="1"/>
+    <col min="5" max="6" width="43.875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -21478,7 +21486,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="34.799999999999997">
+    <row r="10" spans="1:5" ht="33">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -21503,7 +21511,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="34.799999999999997">
+    <row r="12" spans="1:5" ht="33">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -21514,7 +21522,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="34.799999999999997">
+    <row r="13" spans="1:5" ht="33">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -21567,7 +21575,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="52.2">
+    <row r="17" spans="1:5" ht="49.5">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -21611,7 +21619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="52.2">
+    <row r="21" spans="1:5" ht="49.5">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -23245,11 +23253,11 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="26.8984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="54.69921875" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="54.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="62" customFormat="1">
@@ -24639,9 +24647,9 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="20.19921875" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24860,7 +24868,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2">
@@ -24892,11 +24900,11 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="11.09765625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.09765625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="40.125" customWidth="1"/>
     <col min="4" max="4" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26201,7 +26209,7 @@
       <selection activeCell="R23" sqref="R23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
     <row r="2" spans="3:11">
       <c r="C2" t="s">
@@ -26322,7 +26330,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="18" thickBot="1"/>
+    <row r="18" spans="2:9" ht="17.25" thickBot="1"/>
     <row r="19" spans="2:9">
       <c r="B19" s="39" t="s">
         <v>1010</v>
@@ -26365,7 +26373,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="2:9" ht="18" thickBot="1">
+    <row r="22" spans="2:9" ht="17.25" thickBot="1">
       <c r="B22" s="15" t="s">
         <v>1013</v>
       </c>
@@ -26377,8 +26385,8 @@
       <c r="H22" s="36"/>
       <c r="I22" s="16"/>
     </row>
-    <row r="23" spans="2:9" ht="18" thickBot="1"/>
-    <row r="24" spans="2:9" ht="18" thickBot="1">
+    <row r="23" spans="2:9" ht="17.25" thickBot="1"/>
+    <row r="24" spans="2:9" ht="17.25" thickBot="1">
       <c r="B24" s="69" t="s">
         <v>1018</v>
       </c>
@@ -26404,7 +26412,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26419,9 +26427,9 @@
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="8" max="8" width="117.59765625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="117.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -26449,7 +26457,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="52.2">
+    <row r="11" spans="1:8" ht="49.5">
       <c r="H11" s="4" t="s">
         <v>992</v>
       </c>
@@ -26544,7 +26552,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="38" spans="8:8" ht="52.2">
+    <row r="38" spans="8:8" ht="49.5">
       <c r="H38" s="4" t="s">
         <v>864</v>
       </c>
@@ -26564,12 +26572,12 @@
         <v>866</v>
       </c>
     </row>
-    <row r="45" spans="8:8" ht="34.799999999999997">
+    <row r="45" spans="8:8" ht="33">
       <c r="H45" s="4" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="47" spans="8:8" ht="34.799999999999997">
+    <row r="47" spans="8:8" ht="49.5">
       <c r="H47" s="4" t="s">
         <v>868</v>
       </c>
@@ -26599,12 +26607,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="55" spans="8:8" ht="34.799999999999997">
+    <row r="55" spans="8:8" ht="33">
       <c r="H55" s="4" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="57" spans="8:8" ht="34.799999999999997">
+    <row r="57" spans="8:8" ht="33">
       <c r="H57" s="4" t="s">
         <v>872</v>
       </c>
@@ -26654,7 +26662,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="69" spans="8:8" ht="34.799999999999997">
+    <row r="69" spans="8:8" ht="33">
       <c r="H69" s="4" t="s">
         <v>879</v>
       </c>
@@ -26689,12 +26697,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="79" spans="8:8" ht="34.799999999999997">
+    <row r="79" spans="8:8" ht="33">
       <c r="H79" s="4" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="81" spans="8:8" ht="34.799999999999997">
+    <row r="81" spans="8:8" ht="33">
       <c r="H81" s="4" t="s">
         <v>884</v>
       </c>
@@ -26734,7 +26742,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="91" spans="8:8" ht="52.2">
+    <row r="91" spans="8:8" ht="49.5">
       <c r="H91" s="4" t="s">
         <v>889</v>
       </c>
@@ -26754,12 +26762,12 @@
         <v>891</v>
       </c>
     </row>
-    <row r="98" spans="8:8" ht="34.799999999999997">
+    <row r="98" spans="8:8" ht="33">
       <c r="H98" s="4" t="s">
         <v>892</v>
       </c>
     </row>
-    <row r="100" spans="8:8" ht="34.799999999999997">
+    <row r="100" spans="8:8" ht="33">
       <c r="H100" s="4" t="s">
         <v>893</v>
       </c>
@@ -26829,12 +26837,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="118" spans="8:8" ht="52.2">
+    <row r="118" spans="8:8" ht="49.5">
       <c r="H118" s="4" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="120" spans="8:8" ht="34.799999999999997">
+    <row r="120" spans="8:8" ht="33">
       <c r="H120" s="4" t="s">
         <v>903</v>
       </c>
@@ -26904,12 +26912,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="138" spans="8:8" ht="34.799999999999997">
+    <row r="138" spans="8:8" ht="33">
       <c r="H138" s="4" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="140" spans="8:8" ht="34.799999999999997">
+    <row r="140" spans="8:8" ht="33">
       <c r="H140" s="4" t="s">
         <v>908</v>
       </c>
@@ -26974,7 +26982,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="157" spans="8:8" ht="34.799999999999997">
+    <row r="157" spans="8:8" ht="33">
       <c r="H157" s="4" t="s">
         <v>916</v>
       </c>
@@ -26994,12 +27002,12 @@
         <v>917</v>
       </c>
     </row>
-    <row r="164" spans="8:8" ht="52.2">
+    <row r="164" spans="8:8" ht="49.5">
       <c r="H164" s="4" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="166" spans="8:8" ht="34.799999999999997">
+    <row r="166" spans="8:8" ht="33">
       <c r="H166" s="4" t="s">
         <v>919</v>
       </c>
@@ -27039,7 +27047,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="176" spans="8:8" ht="34.799999999999997">
+    <row r="176" spans="8:8" ht="33">
       <c r="H176" s="4" t="s">
         <v>922</v>
       </c>
@@ -27114,12 +27122,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="196" spans="8:8" ht="34.799999999999997">
+    <row r="196" spans="8:8" ht="49.5">
       <c r="H196" s="4" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="198" spans="8:8" ht="34.799999999999997">
+    <row r="198" spans="8:8" ht="33">
       <c r="H198" s="4" t="s">
         <v>926</v>
       </c>
@@ -27139,12 +27147,12 @@
         <v>927</v>
       </c>
     </row>
-    <row r="205" spans="8:8" ht="34.799999999999997">
+    <row r="205" spans="8:8" ht="33">
       <c r="H205" s="4" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="207" spans="8:8" ht="34.799999999999997">
+    <row r="207" spans="8:8" ht="33">
       <c r="H207" s="4" t="s">
         <v>929</v>
       </c>
@@ -27189,7 +27197,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="218" spans="8:8" ht="34.799999999999997">
+    <row r="218" spans="8:8" ht="33">
       <c r="H218" s="4" t="s">
         <v>935</v>
       </c>
@@ -27239,7 +27247,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="231" spans="8:8" ht="34.799999999999997">
+    <row r="231" spans="8:8" ht="33">
       <c r="H231" s="4" t="s">
         <v>938</v>
       </c>
@@ -27269,12 +27277,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="240" spans="8:8" ht="34.799999999999997">
+    <row r="240" spans="8:8" ht="33">
       <c r="H240" s="4" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="242" spans="8:8" ht="34.799999999999997">
+    <row r="242" spans="8:8" ht="33">
       <c r="H242" s="4" t="s">
         <v>943</v>
       </c>
@@ -27294,12 +27302,12 @@
         <v>944</v>
       </c>
     </row>
-    <row r="249" spans="8:8" ht="52.2">
+    <row r="249" spans="8:8" ht="49.5">
       <c r="H249" s="4" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="251" spans="8:8" ht="34.799999999999997">
+    <row r="251" spans="8:8" ht="33">
       <c r="H251" s="4" t="s">
         <v>946</v>
       </c>
@@ -27329,12 +27337,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="259" spans="8:8" ht="34.799999999999997">
+    <row r="259" spans="8:8" ht="33">
       <c r="H259" s="4" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="261" spans="8:8" ht="34.799999999999997">
+    <row r="261" spans="8:8" ht="33">
       <c r="H261" s="4" t="s">
         <v>950</v>
       </c>
@@ -27359,7 +27367,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="268" spans="8:8" ht="34.799999999999997">
+    <row r="268" spans="8:8" ht="33">
       <c r="H268" s="4" t="s">
         <v>953</v>
       </c>
@@ -27479,12 +27487,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="299" spans="8:8" ht="34.799999999999997">
+    <row r="299" spans="8:8" ht="33">
       <c r="H299" s="4" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="301" spans="8:8" ht="34.799999999999997">
+    <row r="301" spans="8:8" ht="33">
       <c r="H301" s="4" t="s">
         <v>971</v>
       </c>
@@ -27499,12 +27507,12 @@
         <v>972</v>
       </c>
     </row>
-    <row r="308" spans="8:8" ht="34.799999999999997">
+    <row r="308" spans="8:8" ht="33">
       <c r="H308" s="4" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="310" spans="8:8" ht="34.799999999999997">
+    <row r="310" spans="8:8" ht="33">
       <c r="H310" s="4" t="s">
         <v>974</v>
       </c>
@@ -27524,7 +27532,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="316" spans="8:8" ht="34.799999999999997">
+    <row r="316" spans="8:8" ht="33">
       <c r="H316" s="4" t="s">
         <v>976</v>
       </c>
@@ -27584,12 +27592,12 @@
         <v>849</v>
       </c>
     </row>
-    <row r="333" spans="8:8" ht="52.2">
+    <row r="333" spans="8:8" ht="49.5">
       <c r="H333" s="4" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="335" spans="8:8" ht="34.799999999999997">
+    <row r="335" spans="8:8" ht="33">
       <c r="H335" s="4" t="s">
         <v>984</v>
       </c>
@@ -27613,22 +27621,22 @@
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="20" customWidth="1"/>
     <col min="2" max="2" width="39" style="19" customWidth="1"/>
-    <col min="3" max="3" width="9.19921875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="57.8984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.19921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="39.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="66.3984375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="39.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="57.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="66.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="39.625" style="1" customWidth="1"/>
     <col min="9" max="10" width="9" style="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
       <c r="A1" s="23" t="s">
         <v>195</v>
       </c>
@@ -28109,39 +28117,39 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.2">
+    <row r="1" spans="1:1" ht="17.25">
       <c r="A1" s="68" t="s">
         <v>842</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19.2">
+    <row r="2" spans="1:1" ht="17.25">
       <c r="A2" s="68" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="19.2">
+    <row r="3" spans="1:1" ht="17.25">
       <c r="A3" s="68" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="19.2">
+    <row r="4" spans="1:1" ht="17.25">
       <c r="A4" s="68" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="19.2">
+    <row r="5" spans="1:1" ht="17.25">
       <c r="A5" s="68" t="s">
         <v>846</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="19.2">
+    <row r="6" spans="1:1" ht="17.25">
       <c r="A6" s="68" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="19.2">
+    <row r="7" spans="1:1" ht="17.25">
       <c r="A7" s="68" t="s">
         <v>848</v>
       </c>
@@ -28160,20 +28168,20 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.5" style="25" customWidth="1"/>
-    <col min="2" max="2" width="41.09765625" style="19" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" style="19"/>
-    <col min="4" max="4" width="49.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.69921875" style="19"/>
-    <col min="7" max="7" width="56.69921875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="23.09765625" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="1"/>
+    <col min="2" max="2" width="41.125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="8.75" style="19"/>
+    <col min="4" max="4" width="49.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" style="19"/>
+    <col min="7" max="7" width="56.75" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" ht="19.2">
+    <row r="1" spans="1:8" s="21" customFormat="1" ht="17.25">
       <c r="A1" s="34" t="s">
         <v>338</v>
       </c>
@@ -29586,15 +29594,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B12" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="21.19921875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="45.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -29997,6 +30005,12 @@
     <row r="29" spans="1:9">
       <c r="A29" s="11">
         <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -30814,9 +30828,9 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="21.8984375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="8" customWidth="1"/>
     <col min="2" max="19" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -30911,7 +30925,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1"/>
+    <row r="13" spans="1:19" ht="17.25" thickBot="1"/>
     <row r="14" spans="1:19" s="38" customFormat="1">
       <c r="A14" s="76" t="s">
         <v>356</v>
@@ -30983,7 +30997,7 @@
       <c r="R16" s="49"/>
       <c r="S16" s="49"/>
     </row>
-    <row r="17" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
+    <row r="17" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
       <c r="A17" s="78"/>
       <c r="B17" s="50"/>
       <c r="C17" s="50"/>
@@ -31095,7 +31109,7 @@
       <c r="R20" s="49"/>
       <c r="S20" s="49"/>
     </row>
-    <row r="21" spans="1:19" s="36" customFormat="1" ht="18" thickBot="1">
+    <row r="21" spans="1:19" s="36" customFormat="1" ht="17.25" thickBot="1">
       <c r="A21" s="78"/>
       <c r="B21" s="50"/>
       <c r="C21" s="50" t="s">
@@ -31157,16 +31171,16 @@
       <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="29.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.69921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="52" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="36.3984375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -31285,7 +31299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="34.799999999999997">
+    <row r="16" spans="1:8" ht="33">
       <c r="A16" s="6"/>
       <c r="B16" s="1" t="s">
         <v>4</v>
@@ -31397,19 +31411,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="19"/>
-    <col min="2" max="2" width="49.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="54.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.19921875" style="1" customWidth="1"/>
-    <col min="6" max="8" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="8.75" style="19"/>
+    <col min="2" max="2" width="49.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="54.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.75" style="1"/>
     <col min="9" max="9" width="53" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.69921875" style="1"/>
+    <col min="10" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="52.2">
+    <row r="2" spans="1:9" ht="49.5">
       <c r="A2" s="19">
         <v>1</v>
       </c>
@@ -31478,7 +31492,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="34.799999999999997">
+    <row r="8" spans="1:9" ht="33">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -31494,7 +31508,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="34.799999999999997">
+    <row r="10" spans="1:9" ht="33">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -32913,17 +32927,17 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6" style="11" customWidth="1"/>
-    <col min="2" max="2" width="31.3984375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="31.375" style="11" customWidth="1"/>
     <col min="3" max="3" width="86" style="17" customWidth="1"/>
-    <col min="4" max="4" width="31.09765625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="68.3984375" customWidth="1"/>
-    <col min="6" max="6" width="38.69921875" customWidth="1"/>
+    <col min="4" max="4" width="31.125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="68.375" customWidth="1"/>
+    <col min="6" max="6" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="44" customFormat="1" ht="19.2">
+    <row r="1" spans="1:6" s="44" customFormat="1" ht="17.25">
       <c r="A1" s="45" t="s">
         <v>610</v>
       </c>
@@ -32943,7 +32957,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="69.599999999999994">
+    <row r="2" spans="1:6" ht="66">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -32974,7 +32988,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="34.799999999999997">
+    <row r="4" spans="1:6" ht="33">
       <c r="A4" s="11">
         <v>3</v>
       </c>
@@ -32991,7 +33005,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="87">
+    <row r="5" spans="1:6" ht="82.5">
       <c r="A5" s="11">
         <v>4</v>
       </c>
@@ -33009,7 +33023,7 @@
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="87">
+    <row r="6" spans="1:6" ht="82.5">
       <c r="A6" s="11">
         <v>5</v>
       </c>
@@ -33232,16 +33246,16 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.69921875" style="9"/>
-    <col min="2" max="2" width="11.59765625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="35.69921875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="9"/>
+    <col min="2" max="2" width="11.625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="35.75" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="35.69921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="35.75" style="4" customWidth="1"/>
     <col min="6" max="6" width="31" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.69921875" style="4" customWidth="1"/>
-    <col min="8" max="9" width="19.69921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.75" style="4" customWidth="1"/>
+    <col min="8" max="9" width="19.75" style="4" customWidth="1"/>
     <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -33250,7 +33264,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="52.2">
+    <row r="2" spans="1:7" ht="49.5">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -33270,7 +33284,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="52.2">
+    <row r="3" spans="1:7" ht="49.5">
       <c r="A3" s="9">
         <v>2</v>
       </c>
